--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -493,17 +493,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.07.2025 23:29</t>
+          <t>14.09.2025 17:24</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.4375</v>
+        <v>5.5397</v>
       </c>
       <c r="G2" t="n">
-        <v>122.62</v>
+        <v>56.67</v>
       </c>
       <c r="H2" t="n">
-        <v>911.99</v>
+        <v>313.93</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -536,17 +536,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09.07.2025 11:23</t>
+          <t>16.08.2025 02:20</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5822</v>
+        <v>6.5058</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>25.56</v>
       </c>
       <c r="H3" t="n">
-        <v>358.22</v>
+        <v>166.29</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -574,155 +574,151 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.91</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14.09.2025 13:46</t>
+          <t>13.08.2025 02:11</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3953</v>
+        <v>9.3378</v>
       </c>
       <c r="G4" t="n">
-        <v>57.7</v>
+        <v>74.3</v>
       </c>
       <c r="H4" t="n">
-        <v>253.61</v>
+        <v>693.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3719</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-6.11</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09.10.2025 00:30</t>
+          <t>31.08.2025 19:21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8557</v>
+        <v>9.0626</v>
       </c>
       <c r="G5" t="n">
-        <v>76.05</v>
+        <v>183.53</v>
       </c>
       <c r="H5" t="n">
-        <v>217.18</v>
+        <v>1663.26</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2.9405</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.10.2025 10:55</t>
+          <t>26.09.2025 18:53</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6681</v>
+        <v>7.0292</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>189.59</v>
       </c>
       <c r="H6" t="n">
-        <v>266.81</v>
+        <v>1332.67</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2.8522</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.84</v>
-      </c>
+        <v>-7.52</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -732,17 +728,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19.07.2025 08:36</t>
+          <t>02.09.2025 16:09</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.898</v>
+        <v>6.8746</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>29.62</v>
       </c>
       <c r="H7" t="n">
-        <v>189.8</v>
+        <v>203.63</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -750,14 +746,12 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -777,17 +771,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>03.07.2025 19:05</t>
+          <t>04.08.2025 13:14</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8797</v>
+        <v>8.672599999999999</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>587.97</v>
+        <v>867.26</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -796,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.87</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="9">
@@ -822,17 +816,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.07.2025 21:08</t>
+          <t>13.10.2025 10:42</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8098</v>
+        <v>3.7099</v>
       </c>
       <c r="G9" t="n">
-        <v>183.6</v>
+        <v>56.62</v>
       </c>
       <c r="H9" t="n">
-        <v>148.68</v>
+        <v>210.05</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -845,17 +839,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -865,40 +859,40 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14.10.2025 04:01</t>
+          <t>29.07.2025 13:23</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2194</v>
+        <v>9.8446</v>
       </c>
       <c r="G10" t="n">
-        <v>60.55</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>316.03</v>
+        <v>776.74</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>1.9415</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.33</v>
+        <v>1.7</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -908,17 +902,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.07.2025 00:31</t>
+          <t>14.08.2025 00:35</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.1921</v>
+        <v>2.718</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>172.39</v>
       </c>
       <c r="H11" t="n">
-        <v>919.21</v>
+        <v>468.56</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -926,67 +920,67 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>7.06</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.08.2025 15:45</t>
+          <t>02.10.2025 19:48</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6526</v>
+        <v>8.2478</v>
       </c>
       <c r="G12" t="n">
-        <v>56.23</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>486.54</v>
+        <v>824.78</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2744</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -996,17 +990,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>03.07.2025 23:32</t>
+          <t>24.10.2025 02:14</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.857799999999999</v>
+        <v>0.7877999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>88.03</v>
       </c>
       <c r="H13" t="n">
-        <v>885.78</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1014,19 +1008,17 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1036,45 +1028,45 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.10.2025 09:03</t>
+          <t>02.08.2025 17:56</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8985</v>
+        <v>5.0585</v>
       </c>
       <c r="G14" t="n">
-        <v>142.2</v>
+        <v>197.56</v>
       </c>
       <c r="H14" t="n">
-        <v>269.97</v>
+        <v>999.36</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1553</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1084,17 +1076,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08.09.2025 23:47</t>
+          <t>01.09.2025 02:50</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.6525</v>
+        <v>3.7531</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>465.25</v>
+        <v>288.09</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1102,19 +1094,17 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1124,45 +1114,45 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>03.07.2025 15:00</t>
+          <t>06.07.2025 16:15</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.0853</v>
+        <v>6.3576</v>
       </c>
       <c r="G16" t="n">
-        <v>135.11</v>
+        <v>51.79</v>
       </c>
       <c r="H16" t="n">
-        <v>1227.51</v>
+        <v>329.26</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2.7244</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1172,17 +1162,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.09.2025 18:16</t>
+          <t>27.08.2025 00:35</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8.5128</v>
+        <v>7.7888</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>17.55</v>
       </c>
       <c r="H17" t="n">
-        <v>851.28</v>
+        <v>136.69</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1190,9 +1180,7 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="n">
-        <v>7.91</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1217,17 +1205,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.07.2025 23:05</t>
+          <t>11.07.2025 08:01</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.677899999999999</v>
+        <v>8.388299999999999</v>
       </c>
       <c r="G18" t="n">
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>867.79</v>
+        <v>838.83</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1236,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1262,17 +1250,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13.10.2025 08:00</t>
+          <t>05.09.2025 20:09</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9.5472</v>
+        <v>6.035</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>954.72</v>
+        <v>603.5</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1281,23 +1269,23 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.21</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1307,17 +1295,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.08.2025 16:31</t>
+          <t>29.10.2025 09:04</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.1469</v>
+        <v>3.5168</v>
       </c>
       <c r="G20" t="n">
-        <v>87.06999999999999</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>99.86</v>
+        <v>351.68</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1325,62 +1313,62 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>02.07.2025 07:05</t>
+          <t>21.08.2025 05:55</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7817</v>
+        <v>4.4101</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>199.88</v>
       </c>
       <c r="H21" t="n">
-        <v>78.17</v>
+        <v>881.49</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>3.6769</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.89</v>
-      </c>
+        <v>-5.02</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1395,17 +1383,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.07.2025 20:17</t>
+          <t>08.08.2025 06:58</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7462</v>
+        <v>5.2821</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>74.62</v>
+        <v>528.21</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1414,56 +1402,58 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.91</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>01.08.2025 06:31</t>
+          <t>05.09.2025 11:35</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.247299999999999</v>
+        <v>5.1604</v>
       </c>
       <c r="G23" t="n">
-        <v>84.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>694.92</v>
+        <v>516.04</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7306</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>-8.98</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.029999999999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1483,17 +1473,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13.10.2025 17:17</t>
+          <t>29.09.2025 07:11</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.0975</v>
+        <v>-0.1608</v>
       </c>
       <c r="G24" t="n">
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.75</v>
+        <v>-16.08</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1502,23 +1492,23 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.17</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1528,17 +1518,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09.07.2025 10:42</t>
+          <t>30.07.2025 06:02</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.3634</v>
+        <v>7.5593</v>
       </c>
       <c r="G25" t="n">
-        <v>163.25</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>222.58</v>
+        <v>755.9299999999999</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1546,7 +1536,9 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2.49</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1571,17 +1563,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23.10.2025 14:44</t>
+          <t>12.09.2025 18:28</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.402</v>
+        <v>4.691</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>240.2</v>
+        <v>469.1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1590,23 +1582,23 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.82</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1616,17 +1608,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27.10.2025 19:44</t>
+          <t>20.08.2025 22:04</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9201</v>
+        <v>0.4192</v>
       </c>
       <c r="G27" t="n">
-        <v>80.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>154.43</v>
+        <v>41.92</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1634,7 +1626,9 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>9.890000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1659,30 +1653,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>02.10.2025 01:25</t>
+          <t>07.09.2025 14:25</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.0756</v>
+        <v>6.4497</v>
       </c>
       <c r="G28" t="n">
-        <v>68.92</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>280.89</v>
+        <v>512.49</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6956</v>
+        <v>1.4988</v>
       </c>
       <c r="J28" t="n">
-        <v>-8.25</v>
+        <v>0.54</v>
       </c>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1702,17 +1696,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07.10.2025 02:48</t>
+          <t>23.07.2025 10:51</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8.241400000000001</v>
+        <v>0.3217</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>824.14</v>
+        <v>32.17</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1721,63 +1715,61 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.82</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>03.09.2025 19:28</t>
+          <t>06.07.2025 18:12</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3279</v>
+        <v>1.0717</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>87.38</v>
       </c>
       <c r="H30" t="n">
-        <v>232.79</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>1.6161</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0.57</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1787,85 +1779,83 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>03.07.2025 09:41</t>
+          <t>28.07.2025 08:54</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7362</v>
+        <v>0.1686</v>
       </c>
       <c r="G31" t="n">
-        <v>143.96</v>
+        <v>58.12</v>
       </c>
       <c r="H31" t="n">
-        <v>393.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2.9247</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>05.10.2025 00:25</t>
+          <t>06.10.2025 19:41</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.6843</v>
+        <v>3.9832</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>103.2</v>
       </c>
       <c r="H32" t="n">
-        <v>868.4299999999999</v>
+        <v>411.07</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2.0132</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.54</v>
-      </c>
+        <v>-7.09</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1875,28 +1865,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26.08.2025 18:55</t>
+          <t>02.10.2025 14:43</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6261</v>
+        <v>2.9602</v>
       </c>
       <c r="G33" t="n">
-        <v>113.85</v>
+        <v>187.89</v>
       </c>
       <c r="H33" t="n">
-        <v>71.28</v>
+        <v>556.1900000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2.2909</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="K33" t="inlineStr"/>
     </row>
@@ -1923,17 +1913,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>02.07.2025 04:36</t>
+          <t>22.09.2025 13:11</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.4676</v>
+        <v>8.353300000000001</v>
       </c>
       <c r="G34" t="n">
         <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>146.76</v>
+        <v>835.33</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1942,23 +1932,23 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1968,17 +1958,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09.10.2025 15:22</t>
+          <t>20.08.2025 19:30</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8.102399999999999</v>
+        <v>1.1421</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>126.68</v>
       </c>
       <c r="H35" t="n">
-        <v>810.24</v>
+        <v>144.68</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1986,24 +1976,22 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="n">
-        <v>7.57</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2013,17 +2001,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16.10.2025 18:31</t>
+          <t>12.09.2025 21:58</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.3331</v>
+        <v>5.5961</v>
       </c>
       <c r="G36" t="n">
-        <v>147.1</v>
+        <v>105.59</v>
       </c>
       <c r="H36" t="n">
-        <v>931.6</v>
+        <v>590.89</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2036,17 +2024,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2056,17 +2044,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25.10.2025 07:28</t>
+          <t>08.08.2025 12:47</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.682</v>
+        <v>2.2435</v>
       </c>
       <c r="G37" t="n">
-        <v>84.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>562.49</v>
+        <v>224.35</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2074,55 +2062,59 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18.10.2025 06:48</t>
+          <t>13.08.2025 19:27</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.1253</v>
+        <v>5.1647</v>
       </c>
       <c r="G38" t="n">
-        <v>152.58</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>934.6</v>
+        <v>516.47</v>
       </c>
       <c r="I38" t="n">
-        <v>1.7665</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.19</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2142,17 +2134,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11.09.2025 14:28</t>
+          <t>17.10.2025 10:49</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9.9201</v>
+        <v>9.859400000000001</v>
       </c>
       <c r="G39" t="n">
         <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>992.01</v>
+        <v>985.9400000000001</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2161,66 +2153,68 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.62</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25.09.2025 08:28</t>
+          <t>27.08.2025 03:32</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.8902</v>
+        <v>6.1098</v>
       </c>
       <c r="G40" t="n">
-        <v>166.53</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>647.84</v>
+        <v>610.98</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6178</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>-2.77</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2230,17 +2224,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15.09.2025 11:33</t>
+          <t>02.09.2025 13:16</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7306</v>
+        <v>2.6289</v>
       </c>
       <c r="G41" t="n">
-        <v>26.43</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>19.31</v>
+        <v>262.89</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2248,22 +2242,24 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9.380000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2273,17 +2269,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22.07.2025 03:50</t>
+          <t>13.07.2025 23:47</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.6483</v>
+        <v>7.1079</v>
       </c>
       <c r="G42" t="n">
-        <v>187.03</v>
+        <v>122.94</v>
       </c>
       <c r="H42" t="n">
-        <v>869.37</v>
+        <v>873.85</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -2296,47 +2292,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15.08.2025 06:33</t>
+          <t>22.10.2025 14:04</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.5991</v>
+        <v>1.6256</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>61.43</v>
       </c>
       <c r="H43" t="n">
-        <v>559.91</v>
+        <v>99.86</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>1.4491</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.32</v>
-      </c>
+        <v>-1.47</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2361,17 +2355,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11.09.2025 01:19</t>
+          <t>13.10.2025 16:17</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.6717</v>
+        <v>7.2659</v>
       </c>
       <c r="G44" t="n">
-        <v>150.99</v>
+        <v>37.9</v>
       </c>
       <c r="H44" t="n">
-        <v>705.38</v>
+        <v>275.38</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -2384,12 +2378,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2404,17 +2398,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>19.08.2025 07:33</t>
+          <t>22.07.2025 17:03</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-0.4206</v>
+        <v>4.6243</v>
       </c>
       <c r="G45" t="n">
         <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>-42.06</v>
+        <v>462.43</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2423,68 +2417,66 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.25</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>23.10.2025 13:25</t>
+          <t>21.08.2025 18:07</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9.9696</v>
+        <v>9.034599999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>155.37</v>
       </c>
       <c r="H46" t="n">
-        <v>996.96</v>
+        <v>1403.71</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2.0417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.25</v>
-      </c>
+        <v>-7.97</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2494,17 +2486,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20.09.2025 14:47</t>
+          <t>28.10.2025 11:12</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8.010199999999999</v>
+        <v>1.6173</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>45.65</v>
       </c>
       <c r="H47" t="n">
-        <v>801.02</v>
+        <v>73.83</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2512,24 +2504,22 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="n">
-        <v>5.02</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2539,17 +2529,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11.07.2025 14:43</t>
+          <t>04.08.2025 04:52</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6.6415</v>
+        <v>3.7191</v>
       </c>
       <c r="G48" t="n">
-        <v>115.05</v>
+        <v>138.64</v>
       </c>
       <c r="H48" t="n">
-        <v>764.1</v>
+        <v>515.62</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2562,107 +2552,103 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23.08.2025 17:13</t>
+          <t>05.10.2025 11:56</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7.8097</v>
+        <v>8.8667</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>42.59</v>
       </c>
       <c r="H49" t="n">
-        <v>780.97</v>
+        <v>377.63</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3.0099</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.34</v>
-      </c>
+        <v>-0.4</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14.07.2025 18:57</t>
+          <t>01.10.2025 09:21</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.8787</v>
+        <v>0.9263</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>84.03</v>
       </c>
       <c r="H50" t="n">
-        <v>387.87</v>
+        <v>77.84</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3.9813</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.18</v>
-      </c>
+        <v>-0.82</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2672,17 +2658,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>30.08.2025 07:17</t>
+          <t>06.07.2025 22:12</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4.7981</v>
+        <v>6.3093</v>
       </c>
       <c r="G51" t="n">
-        <v>124.92</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>599.38</v>
+        <v>630.9299999999999</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2690,22 +2676,24 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>8.27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2715,17 +2703,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>30.09.2025 06:16</t>
+          <t>28.09.2025 20:50</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.5106000000000001</v>
+        <v>7.9098</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>187.35</v>
       </c>
       <c r="H52" t="n">
-        <v>51.06</v>
+        <v>1481.9</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2733,24 +2721,22 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="n">
-        <v>8.279999999999999</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2760,17 +2746,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>06.07.2025 15:37</t>
+          <t>12.09.2025 05:41</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>9.2286</v>
+        <v>2.8527</v>
       </c>
       <c r="G53" t="n">
-        <v>192.46</v>
+        <v>182.64</v>
       </c>
       <c r="H53" t="n">
-        <v>1776.14</v>
+        <v>521.02</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2783,100 +2769,98 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08.10.2025 02:30</t>
+          <t>02.09.2025 09:44</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7.2506</v>
+        <v>0.1616</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>135.92</v>
       </c>
       <c r="H54" t="n">
-        <v>725.0599999999999</v>
+        <v>21.96</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>1.2734</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.62</v>
-      </c>
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>18.10.2025 10:45</t>
+          <t>29.09.2025 10:10</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.7387</v>
+        <v>6.4799</v>
       </c>
       <c r="G55" t="n">
-        <v>95.06</v>
+        <v>197.27</v>
       </c>
       <c r="H55" t="n">
-        <v>165.28</v>
+        <v>1278.29</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2.204</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>-3.38</v>
       </c>
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2886,45 +2870,45 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15.09.2025 19:19</t>
+          <t>12.10.2025 04:40</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>-0.1206</v>
+        <v>8.5936</v>
       </c>
       <c r="G56" t="n">
-        <v>194.66</v>
+        <v>108.09</v>
       </c>
       <c r="H56" t="n">
-        <v>-23.48</v>
+        <v>928.88</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3.9688</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2934,17 +2918,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>16.09.2025 01:32</t>
+          <t>19.08.2025 01:16</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.7047</v>
+        <v>7.7654</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>192.21</v>
       </c>
       <c r="H57" t="n">
-        <v>370.47</v>
+        <v>1492.59</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -2952,19 +2936,17 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" t="n">
-        <v>1.19</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2974,71 +2956,71 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17.10.2025 06:01</t>
+          <t>25.10.2025 18:26</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.0838</v>
+        <v>5.8015</v>
       </c>
       <c r="G58" t="n">
-        <v>93.04000000000001</v>
+        <v>52.09</v>
       </c>
       <c r="H58" t="n">
-        <v>473</v>
+        <v>302.2</v>
       </c>
       <c r="I58" t="n">
-        <v>1.448</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>-6.98</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>16.10.2025 00:18</t>
+          <t>12.09.2025 06:21</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.188</v>
+        <v>0.7211</v>
       </c>
       <c r="G59" t="n">
-        <v>117.87</v>
+        <v>63.33</v>
       </c>
       <c r="H59" t="n">
-        <v>22.16</v>
+        <v>45.67</v>
       </c>
       <c r="I59" t="n">
-        <v>1.2333</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr"/>
     </row>
@@ -3065,17 +3047,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>01.09.2025 22:35</t>
+          <t>23.07.2025 15:24</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.3818</v>
+        <v>5.1206</v>
       </c>
       <c r="G60" t="n">
         <v>100</v>
       </c>
       <c r="H60" t="n">
-        <v>138.18</v>
+        <v>512.0599999999999</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3084,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>8.56</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="61">
@@ -3110,17 +3092,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>27.07.2025 11:00</t>
+          <t>20.10.2025 21:39</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.6197</v>
+        <v>0.8633</v>
       </c>
       <c r="G61" t="n">
-        <v>44.47</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>27.56</v>
+        <v>57.5</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -3133,60 +3115,60 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>06.10.2025 01:38</t>
+          <t>08.10.2025 03:18</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.8286</v>
+        <v>7.9823</v>
       </c>
       <c r="G62" t="n">
-        <v>101.04</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>285.8</v>
+        <v>747.14</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8485</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>-5.1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3196,17 +3178,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>25.07.2025 05:04</t>
+          <t>25.10.2025 06:46</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7.1012</v>
+        <v>5.3029</v>
       </c>
       <c r="G63" t="n">
-        <v>10.32</v>
+        <v>100</v>
       </c>
       <c r="H63" t="n">
-        <v>73.28</v>
+        <v>530.29</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -3214,7 +3196,9 @@
       <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3239,17 +3223,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20.08.2025 14:51</t>
+          <t>06.07.2025 10:37</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.5177</v>
+        <v>4.7092</v>
       </c>
       <c r="G64" t="n">
         <v>100</v>
       </c>
       <c r="H64" t="n">
-        <v>151.77</v>
+        <v>470.92</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -3258,23 +3242,23 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>8.06</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3284,17 +3268,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>17.10.2025 00:37</t>
+          <t>05.08.2025 19:21</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-0.2623</v>
+        <v>3.5175</v>
       </c>
       <c r="G65" t="n">
-        <v>76.72</v>
+        <v>12.92</v>
       </c>
       <c r="H65" t="n">
-        <v>-20.12</v>
+        <v>45.45</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3327,17 +3311,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>12.09.2025 18:29</t>
+          <t>18.09.2025 08:25</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.3388</v>
+        <v>8.764900000000001</v>
       </c>
       <c r="G66" t="n">
         <v>100</v>
       </c>
       <c r="H66" t="n">
-        <v>233.88</v>
+        <v>876.49</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3346,23 +3330,23 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>5.71</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3372,17 +3356,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>01.08.2025 15:06</t>
+          <t>21.07.2025 01:50</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9.5181</v>
+        <v>5.3896</v>
       </c>
       <c r="G67" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>173.04</v>
+        <v>538.96</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3390,67 +3374,67 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>04.10.2025 22:22</t>
+          <t>26.07.2025 23:15</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6.4845</v>
+        <v>6.3912</v>
       </c>
       <c r="G68" t="n">
-        <v>100</v>
+        <v>13.12</v>
       </c>
       <c r="H68" t="n">
-        <v>648.45</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>3.5793</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.91</v>
-      </c>
+        <v>-9.56</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3460,17 +3444,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>04.09.2025 09:07</t>
+          <t>02.07.2025 13:56</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.2176</v>
+        <v>1.289</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>76.23</v>
       </c>
       <c r="H69" t="n">
-        <v>121.76</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3478,62 +3462,62 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
-      <c r="K69" t="n">
-        <v>2.07</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>21.08.2025 16:57</t>
+          <t>10.10.2025 02:39</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9.8628</v>
+        <v>0.7994</v>
       </c>
       <c r="G70" t="n">
-        <v>47.9</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>472.43</v>
+        <v>79.94</v>
       </c>
       <c r="I70" t="n">
-        <v>2.1046</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3548,17 +3532,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>19.08.2025 10:46</t>
+          <t>02.09.2025 15:37</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.8413</v>
+        <v>6.571</v>
       </c>
       <c r="G71" t="n">
         <v>100</v>
       </c>
       <c r="H71" t="n">
-        <v>484.13</v>
+        <v>657.1</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3567,23 +3551,23 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>9.84</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3593,17 +3577,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15.07.2025 18:08</t>
+          <t>01.09.2025 19:36</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.6566</v>
+        <v>0.075</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>169.94</v>
       </c>
       <c r="H72" t="n">
-        <v>365.66</v>
+        <v>12.75</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -3611,19 +3595,17 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3633,45 +3615,45 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20.07.2025 18:01</t>
+          <t>26.07.2025 19:39</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.042</v>
+        <v>3.9384</v>
       </c>
       <c r="G73" t="n">
-        <v>109.84</v>
+        <v>108.06</v>
       </c>
       <c r="H73" t="n">
-        <v>224.29</v>
+        <v>425.58</v>
       </c>
       <c r="I73" t="n">
-        <v>3.6325</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>-7.43</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3681,17 +3663,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>20.10.2025 22:11</t>
+          <t>05.09.2025 14:44</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6.0498</v>
+        <v>-0.1898</v>
       </c>
       <c r="G74" t="n">
-        <v>100</v>
+        <v>168.24</v>
       </c>
       <c r="H74" t="n">
-        <v>604.98</v>
+        <v>-31.93</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -3699,105 +3681,103 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>02.10.2025 10:47</t>
+          <t>08.08.2025 11:53</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6.0494</v>
+        <v>0.4552</v>
       </c>
       <c r="G75" t="n">
-        <v>47.6</v>
+        <v>124.86</v>
       </c>
       <c r="H75" t="n">
-        <v>287.95</v>
+        <v>56.84</v>
       </c>
       <c r="I75" t="n">
-        <v>2.0614</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>27.08.2025 12:39</t>
+          <t>04.07.2025 13:00</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6.0259</v>
+        <v>5.9142</v>
       </c>
       <c r="G76" t="n">
-        <v>111.93</v>
+        <v>16.58</v>
       </c>
       <c r="H76" t="n">
-        <v>674.48</v>
+        <v>98.06</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>1.0935</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3812,17 +3792,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>26.09.2025 04:20</t>
+          <t>01.10.2025 02:25</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>-0.0527</v>
+        <v>7.71</v>
       </c>
       <c r="G77" t="n">
         <v>100</v>
       </c>
       <c r="H77" t="n">
-        <v>-5.27</v>
+        <v>771</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -3831,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>7.89</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3857,17 +3837,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>16.10.2025 11:29</t>
+          <t>22.07.2025 02:58</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7.8581</v>
+        <v>9.067600000000001</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>785.8099999999999</v>
+        <v>906.76</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -3876,23 +3856,23 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>4.93</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3902,17 +3882,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>23.08.2025 19:45</t>
+          <t>13.07.2025 22:36</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4.0955</v>
+        <v>4.6013</v>
       </c>
       <c r="G79" t="n">
-        <v>176.02</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>720.89</v>
+        <v>460.13</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -3920,22 +3900,24 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3945,17 +3927,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>19.07.2025 17:50</t>
+          <t>03.10.2025 06:22</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7.1635</v>
+        <v>5.1373</v>
       </c>
       <c r="G80" t="n">
-        <v>195.77</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>1402.4</v>
+        <v>513.73</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -3963,52 +3945,52 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08.07.2025 10:17</t>
+          <t>05.09.2025 14:14</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8.763</v>
+        <v>1.723</v>
       </c>
       <c r="G81" t="n">
-        <v>100</v>
+        <v>57.58</v>
       </c>
       <c r="H81" t="n">
-        <v>876.3</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3.9062</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.87</v>
-      </c>
+        <v>-7.96</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4033,17 +4015,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17.09.2025 09:39</t>
+          <t>11.08.2025 01:37</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7.5972</v>
+        <v>5.7187</v>
       </c>
       <c r="G82" t="n">
         <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>759.72</v>
+        <v>571.87</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -4052,23 +4034,23 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>2.41</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4078,17 +4060,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13.08.2025 05:50</t>
+          <t>21.08.2025 23:08</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7.5718</v>
+        <v>5.0375</v>
       </c>
       <c r="G83" t="n">
-        <v>141.73</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>1073.15</v>
+        <v>503.75</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -4096,17 +4078,19 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4121,17 +4105,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>02.09.2025 06:38</t>
+          <t>18.08.2025 04:43</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6.8628</v>
+        <v>2.0454</v>
       </c>
       <c r="G84" t="n">
         <v>100</v>
       </c>
       <c r="H84" t="n">
-        <v>686.28</v>
+        <v>204.54</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -4140,18 +4124,18 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>5.84</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4161,35 +4145,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>02.07.2025 00:45</t>
+          <t>19.10.2025 16:36</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.8605</v>
+        <v>1.2291</v>
       </c>
       <c r="G85" t="n">
-        <v>13.68</v>
+        <v>199.39</v>
       </c>
       <c r="H85" t="n">
-        <v>11.77</v>
+        <v>245.07</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3.0258</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4209,17 +4193,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>26.10.2025 13:31</t>
+          <t>03.08.2025 20:30</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8.828200000000001</v>
+        <v>4.5474</v>
       </c>
       <c r="G86" t="n">
         <v>100</v>
       </c>
       <c r="H86" t="n">
-        <v>882.8200000000001</v>
+        <v>454.74</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -4228,18 +4212,18 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1.26</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4249,28 +4233,28 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20.10.2025 00:57</t>
+          <t>07.07.2025 06:37</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.2942</v>
+        <v>-0.4171</v>
       </c>
       <c r="G87" t="n">
-        <v>21.89</v>
+        <v>169.9</v>
       </c>
       <c r="H87" t="n">
-        <v>28.33</v>
+        <v>-70.87</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>1.7345</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
       <c r="K87" t="inlineStr"/>
     </row>
@@ -4297,17 +4281,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>13.07.2025 13:29</t>
+          <t>07.08.2025 17:06</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.743</v>
+        <v>6.5902</v>
       </c>
       <c r="G88" t="n">
         <v>100</v>
       </c>
       <c r="H88" t="n">
-        <v>474.3</v>
+        <v>659.02</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -4316,23 +4300,23 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>6.77</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4342,17 +4326,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>05.08.2025 22:43</t>
+          <t>10.08.2025 22:49</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.7505</v>
+        <v>3.76</v>
       </c>
       <c r="G89" t="n">
-        <v>161.17</v>
+        <v>136.09</v>
       </c>
       <c r="H89" t="n">
-        <v>443.3</v>
+        <v>511.7</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -4365,17 +4349,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4385,17 +4369,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>24.10.2025 22:57</t>
+          <t>10.08.2025 01:43</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>7.6309</v>
+        <v>0.4492</v>
       </c>
       <c r="G90" t="n">
-        <v>68.2</v>
+        <v>100</v>
       </c>
       <c r="H90" t="n">
-        <v>520.4299999999999</v>
+        <v>44.92</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -4403,17 +4387,19 @@
       <c r="J90" t="n">
         <v>0</v>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4423,40 +4409,40 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>17.08.2025 20:30</t>
+          <t>09.08.2025 22:20</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.0673</v>
+        <v>7.7739</v>
       </c>
       <c r="G91" t="n">
-        <v>192.09</v>
+        <v>198.76</v>
       </c>
       <c r="H91" t="n">
-        <v>397.11</v>
+        <v>1545.14</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>3.0486</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4471,17 +4457,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>07.07.2025 21:12</t>
+          <t>14.08.2025 17:48</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>7.2461</v>
+        <v>2.562</v>
       </c>
       <c r="G92" t="n">
         <v>100</v>
       </c>
       <c r="H92" t="n">
-        <v>724.61</v>
+        <v>256.2</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -4490,23 +4476,23 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>6.84</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4516,17 +4502,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>07.07.2025 17:21</t>
+          <t>21.10.2025 22:32</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.6025</v>
+        <v>8.9811</v>
       </c>
       <c r="G93" t="n">
-        <v>73.36</v>
+        <v>100</v>
       </c>
       <c r="H93" t="n">
-        <v>264.28</v>
+        <v>898.11</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -4534,55 +4520,59 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07.09.2025 04:42</t>
+          <t>27.07.2025 09:24</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.1397</v>
+        <v>7.953</v>
       </c>
       <c r="G94" t="n">
-        <v>150.22</v>
+        <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>171.21</v>
+        <v>795.3</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2723</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.79</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4602,17 +4592,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>09.08.2025 00:33</t>
+          <t>29.08.2025 21:36</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6.7151</v>
+        <v>1.1216</v>
       </c>
       <c r="G95" t="n">
         <v>100</v>
       </c>
       <c r="H95" t="n">
-        <v>671.51</v>
+        <v>112.16</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -4621,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>2.45</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="96">
@@ -4647,17 +4637,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>11.10.2025 06:52</t>
+          <t>04.10.2025 07:10</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7.9939</v>
+        <v>3.3501</v>
       </c>
       <c r="G96" t="n">
         <v>100</v>
       </c>
       <c r="H96" t="n">
-        <v>799.39</v>
+        <v>335.01</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -4666,13 +4656,13 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>8.640000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4692,17 +4682,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>24.09.2025 03:18</t>
+          <t>29.08.2025 09:32</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7.0156</v>
+        <v>7.498</v>
       </c>
       <c r="G97" t="n">
         <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>701.5599999999999</v>
+        <v>749.8</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -4711,18 +4701,18 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1.6</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4737,17 +4727,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>03.08.2025 17:19</t>
+          <t>09.10.2025 17:29</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.419</v>
+        <v>5.4945</v>
       </c>
       <c r="G98" t="n">
         <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>41.9</v>
+        <v>549.45</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4756,23 +4746,23 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2.75</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4782,17 +4772,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>22.08.2025 19:16</t>
+          <t>18.10.2025 01:15</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4.3654</v>
+        <v>9.0351</v>
       </c>
       <c r="G99" t="n">
-        <v>100</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>436.54</v>
+        <v>667.24</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -4800,67 +4790,67 @@
       <c r="J99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>01.07.2025 14:55</t>
+          <t>21.10.2025 05:03</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>7.6907</v>
+        <v>5.8814</v>
       </c>
       <c r="G100" t="n">
-        <v>41.63</v>
+        <v>100</v>
       </c>
       <c r="H100" t="n">
-        <v>320.16</v>
+        <v>588.14</v>
       </c>
       <c r="I100" t="n">
-        <v>1.591</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>-3.99</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4870,17 +4860,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>21.10.2025 13:25</t>
+          <t>16.08.2025 15:50</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>-0.2165</v>
+        <v>5.4462</v>
       </c>
       <c r="G101" t="n">
-        <v>28.15</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>-6.09</v>
+        <v>365.28</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>

--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -493,17 +493,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14.09.2025 17:24</t>
+          <t>30.09.2025 08:49</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5397</v>
+        <v>0.1529</v>
       </c>
       <c r="G2" t="n">
-        <v>56.67</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>313.93</v>
+        <v>15.29</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -531,22 +531,24 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,17 +558,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16.08.2025 02:20</t>
+          <t>10.10.2025 13:01</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.5058</v>
+        <v>7.1623</v>
       </c>
       <c r="G3" t="n">
-        <v>25.56</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>166.29</v>
+        <v>716.23</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -574,17 +576,19 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>9.869999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,73 +598,75 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.08.2025 02:11</t>
+          <t>22.09.2025 11:22</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.3378</v>
+        <v>9.156499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>74.3</v>
+        <v>101.8</v>
       </c>
       <c r="H4" t="n">
-        <v>693.8</v>
+        <v>932.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.2642</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31.08.2025 19:21</t>
+          <t>18.08.2025 14:01</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.0626</v>
+        <v>0.0564</v>
       </c>
       <c r="G5" t="n">
-        <v>183.53</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>1663.26</v>
+        <v>5.64</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9405</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -685,35 +691,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.09.2025 18:53</t>
+          <t>27.09.2025 08:51</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.0292</v>
+        <v>2.8128</v>
       </c>
       <c r="G6" t="n">
-        <v>189.59</v>
+        <v>186.01</v>
       </c>
       <c r="H6" t="n">
-        <v>1332.67</v>
+        <v>523.21</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8522</v>
+        <v>2.8473</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.52</v>
+        <v>-5.55</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -723,28 +729,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>02.09.2025 16:09</t>
+          <t>08.09.2025 00:01</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.8746</v>
+        <v>1.7531</v>
       </c>
       <c r="G7" t="n">
-        <v>29.62</v>
+        <v>92.02</v>
       </c>
       <c r="H7" t="n">
-        <v>203.63</v>
+        <v>161.32</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>1.3003</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-6.11</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -771,17 +777,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>04.08.2025 13:14</t>
+          <t>10.09.2025 02:46</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.672599999999999</v>
+        <v>4.9587</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>867.26</v>
+        <v>495.87</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -790,49 +796,49 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7.52</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.10.2025 10:42</t>
+          <t>04.08.2025 05:31</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7099</v>
+        <v>7.8298</v>
       </c>
       <c r="G9" t="n">
-        <v>56.62</v>
+        <v>50.63</v>
       </c>
       <c r="H9" t="n">
-        <v>210.05</v>
+        <v>396.42</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3.9151</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-8.09</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -859,40 +865,40 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.07.2025 13:23</t>
+          <t>26.10.2025 15:06</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.8446</v>
+        <v>6.4465</v>
       </c>
       <c r="G10" t="n">
-        <v>78.90000000000001</v>
+        <v>124.69</v>
       </c>
       <c r="H10" t="n">
-        <v>776.74</v>
+        <v>803.8099999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9415</v>
+        <v>3.7754</v>
       </c>
       <c r="J10" t="n">
-        <v>1.7</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -902,17 +908,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.08.2025 00:35</t>
+          <t>17.07.2025 16:01</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.718</v>
+        <v>2.4496</v>
       </c>
       <c r="G11" t="n">
-        <v>172.39</v>
+        <v>142.52</v>
       </c>
       <c r="H11" t="n">
-        <v>468.56</v>
+        <v>349.12</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -925,62 +931,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>02.10.2025 19:48</t>
+          <t>19.10.2025 02:02</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.2478</v>
+        <v>3.4464</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>183.11</v>
       </c>
       <c r="H12" t="n">
-        <v>824.78</v>
+        <v>631.0700000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3.4346</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -990,17 +994,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.10.2025 02:14</t>
+          <t>29.08.2025 12:23</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7877999999999999</v>
+        <v>1.6949</v>
       </c>
       <c r="G13" t="n">
-        <v>88.03</v>
+        <v>125.22</v>
       </c>
       <c r="H13" t="n">
-        <v>69.34999999999999</v>
+        <v>212.24</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1013,17 +1017,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1033,17 +1037,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>02.08.2025 17:56</t>
+          <t>14.09.2025 10:27</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.0585</v>
+        <v>0.1794</v>
       </c>
       <c r="G14" t="n">
-        <v>197.56</v>
+        <v>120.7</v>
       </c>
       <c r="H14" t="n">
-        <v>999.36</v>
+        <v>21.65</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1056,55 +1060,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01.09.2025 02:50</t>
+          <t>18.08.2025 07:04</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7531</v>
+        <v>6.0062</v>
       </c>
       <c r="G15" t="n">
-        <v>76.76000000000001</v>
+        <v>101.92</v>
       </c>
       <c r="H15" t="n">
-        <v>288.09</v>
+        <v>612.15</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>1.519</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1114,128 +1118,126 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06.07.2025 16:15</t>
+          <t>01.07.2025 20:07</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.3576</v>
+        <v>8.308</v>
       </c>
       <c r="G16" t="n">
-        <v>51.79</v>
+        <v>174.48</v>
       </c>
       <c r="H16" t="n">
-        <v>329.26</v>
+        <v>1449.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7244</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.56</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.08.2025 00:35</t>
+          <t>09.09.2025 17:26</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7.7888</v>
+        <v>7.9379</v>
       </c>
       <c r="G17" t="n">
-        <v>17.55</v>
+        <v>154.35</v>
       </c>
       <c r="H17" t="n">
-        <v>136.69</v>
+        <v>1225.21</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2.2565</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-8.94</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.07.2025 08:01</t>
+          <t>13.07.2025 13:34</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.388299999999999</v>
+        <v>5.3989</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>140.56</v>
       </c>
       <c r="H18" t="n">
-        <v>838.83</v>
+        <v>758.87</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3.5008</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9.960000000000001</v>
-      </c>
+        <v>0.31</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,17 +1252,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>05.09.2025 20:09</t>
+          <t>26.08.2025 00:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.035</v>
+        <v>2.1911</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>603.5</v>
+        <v>219.11</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1269,23 +1271,23 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6.38</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1295,17 +1297,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29.10.2025 09:04</t>
+          <t>16.10.2025 01:41</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5168</v>
+        <v>7.2542</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>112.58</v>
       </c>
       <c r="H20" t="n">
-        <v>351.68</v>
+        <v>816.6799999999999</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1313,9 +1315,7 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1340,23 +1340,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21.08.2025 05:55</t>
+          <t>14.10.2025 22:54</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4101</v>
+        <v>1.2755</v>
       </c>
       <c r="G21" t="n">
-        <v>199.88</v>
+        <v>137.66</v>
       </c>
       <c r="H21" t="n">
-        <v>881.49</v>
+        <v>175.59</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6769</v>
+        <v>1.1168</v>
       </c>
       <c r="J21" t="n">
-        <v>-5.02</v>
+        <v>-0.22</v>
       </c>
       <c r="K21" t="inlineStr"/>
     </row>
@@ -1383,17 +1383,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08.08.2025 06:58</t>
+          <t>01.09.2025 11:23</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.2821</v>
+        <v>3.5438</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>528.21</v>
+        <v>354.38</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1402,23 +1402,23 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.52</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1428,17 +1428,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>05.09.2025 11:35</t>
+          <t>06.08.2025 05:22</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.1604</v>
+        <v>5.6861</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>516.04</v>
+        <v>565.99</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1446,24 +1446,22 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
-        <v>8.029999999999999</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1473,17 +1471,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.09.2025 07:11</t>
+          <t>24.10.2025 22:56</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.1608</v>
+        <v>9.684799999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>28.78</v>
       </c>
       <c r="H24" t="n">
-        <v>-16.08</v>
+        <v>278.73</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1491,9 +1489,7 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="n">
-        <v>5.64</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1518,17 +1514,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>30.07.2025 06:02</t>
+          <t>27.08.2025 14:57</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7.5593</v>
+        <v>5.0905</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>755.9299999999999</v>
+        <v>509.05</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1537,23 +1533,23 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.49</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1563,17 +1559,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12.09.2025 18:28</t>
+          <t>02.07.2025 23:33</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.691</v>
+        <v>6.5403</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>169.12</v>
       </c>
       <c r="H26" t="n">
-        <v>469.1</v>
+        <v>1106.1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1581,14 +1577,12 @@
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="n">
-        <v>1.38</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1608,17 +1602,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20.08.2025 22:04</t>
+          <t>14.07.2025 21:04</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.4192</v>
+        <v>0.5205</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>41.92</v>
+        <v>52.05</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1627,61 +1621,63 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>9.890000000000001</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07.09.2025 14:25</t>
+          <t>01.08.2025 01:31</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6.4497</v>
+        <v>7.7946</v>
       </c>
       <c r="G28" t="n">
-        <v>79.45999999999999</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>512.49</v>
+        <v>779.46</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4988</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1696,17 +1692,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23.07.2025 10:51</t>
+          <t>10.08.2025 03:48</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.3217</v>
+        <v>3.525</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>32.17</v>
+        <v>352.5</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1715,61 +1711,61 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.57</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>06.07.2025 18:12</t>
+          <t>27.07.2025 07:48</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.0717</v>
+        <v>7.4484</v>
       </c>
       <c r="G30" t="n">
-        <v>87.38</v>
+        <v>139.52</v>
       </c>
       <c r="H30" t="n">
-        <v>93.65000000000001</v>
+        <v>1039.2</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6161</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1779,88 +1775,90 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28.07.2025 08:54</t>
+          <t>19.09.2025 11:30</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1686</v>
+        <v>7.0977</v>
       </c>
       <c r="G31" t="n">
-        <v>58.12</v>
+        <v>107.9</v>
       </c>
       <c r="H31" t="n">
-        <v>9.800000000000001</v>
+        <v>765.84</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9247</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.58</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>06.10.2025 19:41</t>
+          <t>30.07.2025 08:46</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.9832</v>
+        <v>7.1727</v>
       </c>
       <c r="G32" t="n">
-        <v>103.2</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>411.07</v>
+        <v>717.27</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0132</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>-7.09</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1870,85 +1868,83 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>02.10.2025 14:43</t>
+          <t>22.08.2025 20:38</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.9602</v>
+        <v>6.3703</v>
       </c>
       <c r="G33" t="n">
-        <v>187.89</v>
+        <v>194.9</v>
       </c>
       <c r="H33" t="n">
-        <v>556.1900000000001</v>
+        <v>1241.57</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2909</v>
+        <v>3.9402</v>
       </c>
       <c r="J33" t="n">
-        <v>1.66</v>
+        <v>-4.5</v>
       </c>
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22.09.2025 13:11</t>
+          <t>18.09.2025 15:17</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.353300000000001</v>
+        <v>7.5377</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>28.92</v>
       </c>
       <c r="H34" t="n">
-        <v>835.33</v>
+        <v>217.99</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>1.227</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.72</v>
-      </c>
+        <v>-3.42</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1958,17 +1954,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20.08.2025 19:30</t>
+          <t>24.09.2025 05:00</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.1421</v>
+        <v>0.8152</v>
       </c>
       <c r="G35" t="n">
-        <v>126.68</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>144.68</v>
+        <v>81.52</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1976,22 +1972,24 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9.66</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2001,17 +1999,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12.09.2025 21:58</t>
+          <t>23.09.2025 12:14</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.5961</v>
+        <v>5.9677</v>
       </c>
       <c r="G36" t="n">
-        <v>105.59</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>590.89</v>
+        <v>596.77</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2019,17 +2017,19 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2044,17 +2044,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08.08.2025 12:47</t>
+          <t>24.08.2025 01:57</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.2435</v>
+        <v>-0.2207</v>
       </c>
       <c r="G37" t="n">
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>224.35</v>
+        <v>-22.07</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2063,23 +2063,23 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.97</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13.08.2025 19:27</t>
+          <t>30.09.2025 18:20</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.1647</v>
+        <v>6.7889</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>19.72</v>
       </c>
       <c r="H38" t="n">
-        <v>516.47</v>
+        <v>133.88</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -2107,14 +2107,12 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="n">
-        <v>8.19</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2134,17 +2132,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>17.10.2025 10:49</t>
+          <t>22.10.2025 11:02</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9.859400000000001</v>
+        <v>-0.1921</v>
       </c>
       <c r="G39" t="n">
         <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>985.9400000000001</v>
+        <v>-19.21</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2153,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.390000000000001</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2179,17 +2177,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>27.08.2025 03:32</t>
+          <t>17.10.2025 18:18</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6.1098</v>
+        <v>3.6505</v>
       </c>
       <c r="G40" t="n">
         <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>610.98</v>
+        <v>365.05</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2198,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41">
@@ -2224,17 +2222,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02.09.2025 13:16</t>
+          <t>05.10.2025 01:18</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.6289</v>
+        <v>2.2451</v>
       </c>
       <c r="G41" t="n">
         <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>262.89</v>
+        <v>224.51</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2243,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>9.380000000000001</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="42">
@@ -2269,17 +2267,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13.07.2025 23:47</t>
+          <t>25.08.2025 05:39</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7.1079</v>
+        <v>6.772</v>
       </c>
       <c r="G42" t="n">
-        <v>122.94</v>
+        <v>183.42</v>
       </c>
       <c r="H42" t="n">
-        <v>873.85</v>
+        <v>1242.12</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -2292,45 +2290,47 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22.10.2025 14:04</t>
+          <t>13.10.2025 07:59</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.6256</v>
+        <v>2.8649</v>
       </c>
       <c r="G43" t="n">
-        <v>61.43</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>99.86</v>
+        <v>286.49</v>
       </c>
       <c r="I43" t="n">
-        <v>1.4491</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.720000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2355,17 +2355,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13.10.2025 16:17</t>
+          <t>06.10.2025 16:49</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7.2659</v>
+        <v>5.11</v>
       </c>
       <c r="G44" t="n">
-        <v>37.9</v>
+        <v>118.86</v>
       </c>
       <c r="H44" t="n">
-        <v>275.38</v>
+        <v>607.37</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -2378,12 +2378,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2398,17 +2398,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22.07.2025 17:03</t>
+          <t>17.09.2025 21:59</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.6243</v>
+        <v>0.7625</v>
       </c>
       <c r="G45" t="n">
         <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>462.43</v>
+        <v>76.25</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2417,18 +2417,18 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.609999999999999</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2438,40 +2438,40 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21.08.2025 18:07</t>
+          <t>03.09.2025 08:41</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9.034599999999999</v>
+        <v>2.7906</v>
       </c>
       <c r="G46" t="n">
-        <v>155.37</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1403.71</v>
+        <v>265.78</v>
       </c>
       <c r="I46" t="n">
-        <v>2.0417</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2481,45 +2481,45 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>28.10.2025 11:12</t>
+          <t>08.08.2025 04:18</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.6173</v>
+        <v>5.8865</v>
       </c>
       <c r="G47" t="n">
-        <v>45.65</v>
+        <v>60.85</v>
       </c>
       <c r="H47" t="n">
-        <v>73.83</v>
+        <v>358.19</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>3.619</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>-3.68</v>
       </c>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2529,17 +2529,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>04.08.2025 04:52</t>
+          <t>05.10.2025 14:44</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.7191</v>
+        <v>3.3388</v>
       </c>
       <c r="G48" t="n">
-        <v>138.64</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>515.62</v>
+        <v>333.88</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2547,60 +2547,64 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>05.10.2025 11:56</t>
+          <t>17.08.2025 19:23</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.8667</v>
+        <v>8.105600000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>42.59</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>377.63</v>
+        <v>810.5599999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0099</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9.32</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2610,85 +2614,83 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>01.10.2025 09:21</t>
+          <t>11.08.2025 05:38</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9263</v>
+        <v>-0.463</v>
       </c>
       <c r="G50" t="n">
-        <v>84.03</v>
+        <v>176.23</v>
       </c>
       <c r="H50" t="n">
-        <v>77.84</v>
+        <v>-81.59</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9813</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>06.07.2025 22:12</t>
+          <t>10.09.2025 12:30</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.3093</v>
+        <v>5.214</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>193.26</v>
       </c>
       <c r="H51" t="n">
-        <v>630.9299999999999</v>
+        <v>1007.66</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3.1635</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>8.27</v>
-      </c>
+        <v>-8.56</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2698,40 +2700,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>28.09.2025 20:50</t>
+          <t>03.07.2025 16:43</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7.9098</v>
+        <v>2.9705</v>
       </c>
       <c r="G52" t="n">
-        <v>187.35</v>
+        <v>45.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1481.9</v>
+        <v>136.05</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>1.357</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>-4.21</v>
       </c>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2741,131 +2743,133 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12.09.2025 05:41</t>
+          <t>16.08.2025 08:01</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.8527</v>
+        <v>7.5512</v>
       </c>
       <c r="G53" t="n">
-        <v>182.64</v>
+        <v>84.31</v>
       </c>
       <c r="H53" t="n">
-        <v>521.02</v>
+        <v>636.64</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3.5088</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-4.85</v>
       </c>
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>02.09.2025 09:44</t>
+          <t>15.10.2025 08:39</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.1616</v>
+        <v>6.6368</v>
       </c>
       <c r="G54" t="n">
-        <v>135.92</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>21.96</v>
+        <v>663.6799999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>1.2734</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9.93</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>29.09.2025 10:10</t>
+          <t>09.08.2025 11:43</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6.4799</v>
+        <v>5.3634</v>
       </c>
       <c r="G55" t="n">
-        <v>197.27</v>
+        <v>166.27</v>
       </c>
       <c r="H55" t="n">
-        <v>1278.29</v>
+        <v>891.77</v>
       </c>
       <c r="I55" t="n">
-        <v>2.204</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>-3.38</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2875,126 +2879,126 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12.10.2025 04:40</t>
+          <t>31.07.2025 13:56</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8.5936</v>
+        <v>7.6594</v>
       </c>
       <c r="G56" t="n">
-        <v>108.09</v>
+        <v>31.41</v>
       </c>
       <c r="H56" t="n">
-        <v>928.88</v>
+        <v>240.58</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9688</v>
+        <v>3.5003</v>
       </c>
       <c r="J56" t="n">
-        <v>-1.21</v>
+        <v>-0.65</v>
       </c>
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>19.08.2025 01:16</t>
+          <t>19.10.2025 19:27</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7.7654</v>
+        <v>6.6176</v>
       </c>
       <c r="G57" t="n">
-        <v>192.21</v>
+        <v>72.08</v>
       </c>
       <c r="H57" t="n">
-        <v>1492.59</v>
+        <v>477</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2.2665</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>25.10.2025 18:26</t>
+          <t>04.07.2025 06:09</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.8015</v>
+        <v>0.0324</v>
       </c>
       <c r="G58" t="n">
-        <v>52.09</v>
+        <v>85.98</v>
       </c>
       <c r="H58" t="n">
-        <v>302.2</v>
+        <v>2.79</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2.0948</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>-7.74</v>
       </c>
       <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3004,17 +3008,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12.09.2025 06:21</t>
+          <t>26.10.2025 21:53</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.7211</v>
+        <v>0.2937</v>
       </c>
       <c r="G59" t="n">
-        <v>63.33</v>
+        <v>100</v>
       </c>
       <c r="H59" t="n">
-        <v>45.67</v>
+        <v>29.37</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -3022,22 +3026,24 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3047,17 +3053,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23.07.2025 15:24</t>
+          <t>21.07.2025 04:12</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5.1206</v>
+        <v>6.426</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>160.35</v>
       </c>
       <c r="H60" t="n">
-        <v>512.0599999999999</v>
+        <v>1030.41</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3065,24 +3071,22 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="n">
-        <v>2.28</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3092,17 +3096,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20.10.2025 21:39</t>
+          <t>22.10.2025 22:46</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.8633</v>
+        <v>0.4098</v>
       </c>
       <c r="G61" t="n">
-        <v>66.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H61" t="n">
-        <v>57.5</v>
+        <v>40.98</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -3110,155 +3114,153 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>7.06</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08.10.2025 03:18</t>
+          <t>15.08.2025 09:33</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7.9823</v>
+        <v>6.6779</v>
       </c>
       <c r="G62" t="n">
-        <v>93.59999999999999</v>
+        <v>133.83</v>
       </c>
       <c r="H62" t="n">
-        <v>747.14</v>
+        <v>893.7</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3.4148</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-8.26</v>
       </c>
       <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>25.10.2025 06:46</t>
+          <t>02.10.2025 03:02</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5.3029</v>
+        <v>6.4564</v>
       </c>
       <c r="G63" t="n">
-        <v>100</v>
+        <v>167.36</v>
       </c>
       <c r="H63" t="n">
-        <v>530.29</v>
+        <v>1080.54</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3.8891</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.15</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>06.07.2025 10:37</t>
+          <t>20.09.2025 16:29</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.7092</v>
+        <v>9.851599999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>138.76</v>
       </c>
       <c r="H64" t="n">
-        <v>470.92</v>
+        <v>1367.01</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2.8014</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.68</v>
-      </c>
+        <v>-1.39</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3268,17 +3270,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>05.08.2025 19:21</t>
+          <t>26.07.2025 17:05</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.5175</v>
+        <v>1.1186</v>
       </c>
       <c r="G65" t="n">
-        <v>12.92</v>
+        <v>73.94</v>
       </c>
       <c r="H65" t="n">
-        <v>45.45</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3291,12 +3293,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3311,17 +3313,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18.09.2025 08:25</t>
+          <t>29.07.2025 03:51</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8.764900000000001</v>
+        <v>6.7823</v>
       </c>
       <c r="G66" t="n">
         <v>100</v>
       </c>
       <c r="H66" t="n">
-        <v>876.49</v>
+        <v>678.23</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3330,23 +3332,23 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1.15</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3356,17 +3358,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>21.07.2025 01:50</t>
+          <t>07.10.2025 13:04</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5.3896</v>
+        <v>1.292</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>169.48</v>
       </c>
       <c r="H67" t="n">
-        <v>538.96</v>
+        <v>218.97</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3374,19 +3376,17 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="n">
-        <v>0.71</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3396,45 +3396,45 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>26.07.2025 23:15</t>
+          <t>31.07.2025 16:13</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6.3912</v>
+        <v>5.5902</v>
       </c>
       <c r="G68" t="n">
-        <v>13.12</v>
+        <v>142.24</v>
       </c>
       <c r="H68" t="n">
-        <v>83.84999999999999</v>
+        <v>795.15</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5793</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.56</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3444,17 +3444,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>02.07.2025 13:56</t>
+          <t>11.09.2025 05:53</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.289</v>
+        <v>8.498699999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>76.23</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
-        <v>98.26000000000001</v>
+        <v>849.87</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3462,22 +3462,24 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3487,17 +3489,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10.10.2025 02:39</t>
+          <t>29.08.2025 06:54</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.7994</v>
+        <v>7.4824</v>
       </c>
       <c r="G70" t="n">
-        <v>100</v>
+        <v>133.71</v>
       </c>
       <c r="H70" t="n">
-        <v>79.94</v>
+        <v>1000.47</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -3505,24 +3507,22 @@
       <c r="J70" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>02.09.2025 15:37</t>
+          <t>06.10.2025 06:00</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6.571</v>
+        <v>3.201</v>
       </c>
       <c r="G71" t="n">
-        <v>100</v>
+        <v>187.71</v>
       </c>
       <c r="H71" t="n">
-        <v>657.1</v>
+        <v>600.86</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3550,24 +3550,22 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="n">
-        <v>1.17</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3577,17 +3575,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>01.09.2025 19:36</t>
+          <t>14.10.2025 02:57</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.075</v>
+        <v>3.7081</v>
       </c>
       <c r="G72" t="n">
-        <v>169.94</v>
+        <v>54.84</v>
       </c>
       <c r="H72" t="n">
-        <v>12.75</v>
+        <v>203.35</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -3600,17 +3598,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3620,17 +3618,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>26.07.2025 19:39</t>
+          <t>25.08.2025 08:33</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.9384</v>
+        <v>8.475300000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>108.06</v>
+        <v>100</v>
       </c>
       <c r="H73" t="n">
-        <v>425.58</v>
+        <v>847.53</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -3638,22 +3636,24 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>05.09.2025 14:44</t>
+          <t>08.07.2025 07:29</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>-0.1898</v>
+        <v>0.2217</v>
       </c>
       <c r="G74" t="n">
-        <v>168.24</v>
+        <v>100</v>
       </c>
       <c r="H74" t="n">
-        <v>-31.93</v>
+        <v>22.17</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -3681,22 +3681,24 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3706,17 +3708,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08.08.2025 11:53</t>
+          <t>26.10.2025 13:42</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.4552</v>
+        <v>3.7152</v>
       </c>
       <c r="G75" t="n">
-        <v>124.86</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
-        <v>56.84</v>
+        <v>371.52</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -3724,7 +3726,9 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3749,35 +3753,35 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>04.07.2025 13:00</t>
+          <t>23.10.2025 04:31</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5.9142</v>
+        <v>-0.024</v>
       </c>
       <c r="G76" t="n">
-        <v>16.58</v>
+        <v>165.49</v>
       </c>
       <c r="H76" t="n">
-        <v>98.06</v>
+        <v>-3.97</v>
       </c>
       <c r="I76" t="n">
-        <v>1.0935</v>
+        <v>2.3128</v>
       </c>
       <c r="J76" t="n">
-        <v>0.44</v>
+        <v>-8.08</v>
       </c>
       <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3792,17 +3796,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>01.10.2025 02:25</t>
+          <t>15.09.2025 01:13</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7.71</v>
+        <v>3.2769</v>
       </c>
       <c r="G77" t="n">
         <v>100</v>
       </c>
       <c r="H77" t="n">
-        <v>771</v>
+        <v>327.69</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -3811,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>5.05</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="78">
@@ -3837,17 +3841,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>22.07.2025 02:58</t>
+          <t>05.10.2025 07:24</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9.067600000000001</v>
+        <v>1.9316</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>906.76</v>
+        <v>193.16</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -3856,68 +3860,66 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>6.84</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13.07.2025 22:36</t>
+          <t>13.10.2025 04:36</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4.6013</v>
+        <v>5.961</v>
       </c>
       <c r="G79" t="n">
-        <v>100</v>
+        <v>57.24</v>
       </c>
       <c r="H79" t="n">
-        <v>460.13</v>
+        <v>341.21</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2.5936</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6.2</v>
-      </c>
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3927,17 +3929,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>03.10.2025 06:22</t>
+          <t>14.09.2025 15:58</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.1373</v>
+        <v>6.0024</v>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>513.73</v>
+        <v>586.79</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -3945,52 +3947,52 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>05.09.2025 14:14</t>
+          <t>11.10.2025 11:26</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.723</v>
+        <v>7.6086</v>
       </c>
       <c r="G81" t="n">
-        <v>57.58</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>99.20999999999999</v>
+        <v>760.86</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9062</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>-7.96</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4015,17 +4017,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>11.08.2025 01:37</t>
+          <t>08.09.2025 10:45</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5.7187</v>
+        <v>8.288399999999999</v>
       </c>
       <c r="G82" t="n">
         <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>571.87</v>
+        <v>828.84</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -4034,68 +4036,66 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>3.04</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>21.08.2025 23:08</t>
+          <t>19.09.2025 13:41</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5.0375</v>
+        <v>9.155799999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>100</v>
+        <v>178.95</v>
       </c>
       <c r="H83" t="n">
-        <v>503.75</v>
+        <v>1638.43</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2.6024</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5.03</v>
-      </c>
+        <v>-4.06</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4105,17 +4105,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18.08.2025 04:43</t>
+          <t>28.07.2025 05:24</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.0454</v>
+        <v>9.1424</v>
       </c>
       <c r="G84" t="n">
-        <v>100</v>
+        <v>29.74</v>
       </c>
       <c r="H84" t="n">
-        <v>204.54</v>
+        <v>271.89</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -4123,9 +4123,7 @@
       <c r="J84" t="n">
         <v>0</v>
       </c>
-      <c r="K84" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4150,173 +4148,171 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>19.10.2025 16:36</t>
+          <t>19.08.2025 04:05</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.2291</v>
+        <v>4.039</v>
       </c>
       <c r="G85" t="n">
-        <v>199.39</v>
+        <v>57.96</v>
       </c>
       <c r="H85" t="n">
-        <v>245.07</v>
+        <v>234.1</v>
       </c>
       <c r="I85" t="n">
-        <v>3.0258</v>
+        <v>1.8821</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.73</v>
+        <v>-1.23</v>
       </c>
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>03.08.2025 20:30</t>
+          <t>17.09.2025 08:27</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.5474</v>
+        <v>1.4839</v>
       </c>
       <c r="G86" t="n">
-        <v>100</v>
+        <v>59.96</v>
       </c>
       <c r="H86" t="n">
-        <v>454.74</v>
+        <v>88.97</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>3.4785</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.039999999999999</v>
-      </c>
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>07.07.2025 06:37</t>
+          <t>29.10.2025 09:21</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>-0.4171</v>
+        <v>3.0507</v>
       </c>
       <c r="G87" t="n">
-        <v>169.9</v>
+        <v>100</v>
       </c>
       <c r="H87" t="n">
-        <v>-70.87</v>
+        <v>305.07</v>
       </c>
       <c r="I87" t="n">
-        <v>1.7345</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>07.08.2025 17:06</t>
+          <t>30.09.2025 20:09</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6.5902</v>
+        <v>4.0888</v>
       </c>
       <c r="G88" t="n">
-        <v>100</v>
+        <v>53.96</v>
       </c>
       <c r="H88" t="n">
-        <v>659.02</v>
+        <v>220.63</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>1.8194</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>9.56</v>
-      </c>
+        <v>-7.49</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4326,17 +4322,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.08.2025 22:49</t>
+          <t>03.10.2025 14:51</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.76</v>
+        <v>0.4549</v>
       </c>
       <c r="G89" t="n">
-        <v>136.09</v>
+        <v>100</v>
       </c>
       <c r="H89" t="n">
-        <v>511.7</v>
+        <v>45.49</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -4344,22 +4340,24 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4369,17 +4367,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10.08.2025 01:43</t>
+          <t>14.09.2025 15:30</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.4492</v>
+        <v>3.8778</v>
       </c>
       <c r="G90" t="n">
-        <v>100</v>
+        <v>88.59</v>
       </c>
       <c r="H90" t="n">
-        <v>44.92</v>
+        <v>343.53</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -4387,19 +4385,17 @@
       <c r="J90" t="n">
         <v>0</v>
       </c>
-      <c r="K90" t="n">
-        <v>8.08</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4409,130 +4405,126 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>09.08.2025 22:20</t>
+          <t>07.10.2025 18:49</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>7.7739</v>
+        <v>1.8678</v>
       </c>
       <c r="G91" t="n">
-        <v>198.76</v>
+        <v>188.46</v>
       </c>
       <c r="H91" t="n">
-        <v>1545.14</v>
+        <v>352.01</v>
       </c>
       <c r="I91" t="n">
-        <v>3.0486</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14.08.2025 17:48</t>
+          <t>18.09.2025 16:02</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.562</v>
+        <v>2.603</v>
       </c>
       <c r="G92" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="H92" t="n">
-        <v>256.2</v>
+        <v>429.5</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>3.066</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.49</v>
-      </c>
+        <v>-3.29</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>21.10.2025 22:32</t>
+          <t>15.07.2025 20:52</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8.9811</v>
+        <v>0.4957</v>
       </c>
       <c r="G93" t="n">
-        <v>100</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>898.11</v>
+        <v>42.77</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3.1909</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4547,17 +4539,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>27.07.2025 09:24</t>
+          <t>24.08.2025 22:16</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>7.953</v>
+        <v>5.5637</v>
       </c>
       <c r="G94" t="n">
         <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>795.3</v>
+        <v>556.37</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -4566,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>7.79</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="95">
@@ -4592,17 +4584,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>29.08.2025 21:36</t>
+          <t>27.10.2025 11:37</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.1216</v>
+        <v>0.2739</v>
       </c>
       <c r="G95" t="n">
         <v>100</v>
       </c>
       <c r="H95" t="n">
-        <v>112.16</v>
+        <v>27.39</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -4611,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>5.12</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4637,17 +4629,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>04.10.2025 07:10</t>
+          <t>07.10.2025 10:13</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.3501</v>
+        <v>8.232799999999999</v>
       </c>
       <c r="G96" t="n">
         <v>100</v>
       </c>
       <c r="H96" t="n">
-        <v>335.01</v>
+        <v>823.28</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -4656,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>4.8</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4682,17 +4674,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>29.08.2025 09:32</t>
+          <t>11.09.2025 03:58</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7.498</v>
+        <v>9.41</v>
       </c>
       <c r="G97" t="n">
         <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>749.8</v>
+        <v>941</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -4701,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>6.14</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="98">
@@ -4727,17 +4719,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>09.10.2025 17:29</t>
+          <t>25.09.2025 07:22</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5.4945</v>
+        <v>7.2181</v>
       </c>
       <c r="G98" t="n">
         <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>549.45</v>
+        <v>721.8099999999999</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4746,23 +4738,23 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>8.449999999999999</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4772,17 +4764,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>18.10.2025 01:15</t>
+          <t>08.10.2025 05:49</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>9.0351</v>
+        <v>3.0405</v>
       </c>
       <c r="G99" t="n">
-        <v>73.84999999999999</v>
+        <v>100</v>
       </c>
       <c r="H99" t="n">
-        <v>667.24</v>
+        <v>304.05</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -4790,17 +4782,19 @@
       <c r="J99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6.71</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4815,17 +4809,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>21.10.2025 05:03</t>
+          <t>02.07.2025 08:45</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5.8814</v>
+        <v>8.984299999999999</v>
       </c>
       <c r="G100" t="n">
         <v>100</v>
       </c>
       <c r="H100" t="n">
-        <v>588.14</v>
+        <v>898.4299999999999</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -4834,23 +4828,23 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4860,17 +4854,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>16.08.2025 15:50</t>
+          <t>15.07.2025 03:34</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5.4462</v>
+        <v>1.318</v>
       </c>
       <c r="G101" t="n">
-        <v>67.06999999999999</v>
+        <v>28.12</v>
       </c>
       <c r="H101" t="n">
-        <v>365.28</v>
+        <v>37.06</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>

--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,16 +489,21 @@
           <t>COUPON RATE (%)</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INFLATION_FIRST_YEAR</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,17 +518,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.09.2025 08:49</t>
+          <t>12.08.2025 07:22</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1529</v>
+        <v>0.6443</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>15.29</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -532,13 +537,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.23</v>
+        <v>2.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,17 +566,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.10.2025 13:01</t>
+          <t>22.09.2025 17:35</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.1623</v>
+        <v>2.9917</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>716.23</v>
+        <v>299.17</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -577,56 +585,64 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.869999999999999</v>
+        <v>0.51</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.09.2025 11:22</t>
+          <t>03.09.2025 20:59</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.156499999999999</v>
+        <v>3.6509</v>
       </c>
       <c r="G4" t="n">
-        <v>101.8</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>932.13</v>
+        <v>365.09</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2642</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -646,17 +662,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.08.2025 14:01</t>
+          <t>19.09.2025 05:54</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0564</v>
+        <v>2.4233</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>5.64</v>
+        <v>242.33</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -665,104 +681,113 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.09.2025 08:51</t>
+          <t>30.07.2025 12:14</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8128</v>
+        <v>0.1875</v>
       </c>
       <c r="G6" t="n">
-        <v>186.01</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>523.21</v>
+        <v>18.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8473</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.55</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08.09.2025 00:01</t>
+          <t>23.08.2025 21:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.7531</v>
+        <v>6.4675</v>
       </c>
       <c r="G7" t="n">
-        <v>92.02</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>161.32</v>
+        <v>454.08</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3003</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.11</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -777,17 +802,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.09.2025 02:46</t>
+          <t>12.07.2025 19:13</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9587</v>
+        <v>7.7748</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>495.87</v>
+        <v>777.48</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -796,147 +821,157 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>0.52</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>04.08.2025 05:31</t>
+          <t>27.09.2025 10:23</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.8298</v>
+        <v>-0.2564</v>
       </c>
       <c r="G9" t="n">
-        <v>50.63</v>
+        <v>164.23</v>
       </c>
       <c r="H9" t="n">
-        <v>396.42</v>
+        <v>-42.11</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9151</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.09</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.10.2025 15:06</t>
+          <t>08.07.2025 21:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.4465</v>
+        <v>8.9413</v>
       </c>
       <c r="G10" t="n">
-        <v>124.69</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>803.8099999999999</v>
+        <v>894.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7754</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-8.779999999999999</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17.07.2025 16:01</t>
+          <t>19.08.2025 04:41</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4496</v>
+        <v>7.1873</v>
       </c>
       <c r="G11" t="n">
-        <v>142.52</v>
+        <v>42.13</v>
       </c>
       <c r="H11" t="n">
-        <v>349.12</v>
+        <v>302.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>3.382</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-4.78</v>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -946,45 +981,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.10.2025 02:02</t>
+          <t>28.09.2025 05:57</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4464</v>
+        <v>5.7379</v>
       </c>
       <c r="G12" t="n">
-        <v>183.11</v>
+        <v>131</v>
       </c>
       <c r="H12" t="n">
-        <v>631.0700000000001</v>
+        <v>751.66</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4346</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -994,17 +1030,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.08.2025 12:23</t>
+          <t>31.07.2025 23:11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6949</v>
+        <v>5.5959</v>
       </c>
       <c r="G13" t="n">
-        <v>125.22</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>212.24</v>
+        <v>559.59</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1012,65 +1048,71 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14.09.2025 10:27</t>
+          <t>07.10.2025 17:04</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1794</v>
+        <v>9.728300000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>120.7</v>
+        <v>173.8</v>
       </c>
       <c r="H14" t="n">
-        <v>21.65</v>
+        <v>1690.78</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>1.2581</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1080,111 +1122,114 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18.08.2025 07:04</t>
+          <t>12.08.2025 02:13</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.0062</v>
+        <v>7.5639</v>
       </c>
       <c r="G15" t="n">
-        <v>101.92</v>
+        <v>139.85</v>
       </c>
       <c r="H15" t="n">
-        <v>612.15</v>
+        <v>1057.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.519</v>
+        <v>2.9298</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.91</v>
+        <v>-0.68</v>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01.07.2025 20:07</t>
+          <t>10.10.2025 20:13</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.308</v>
+        <v>7.2687</v>
       </c>
       <c r="G16" t="n">
-        <v>174.48</v>
+        <v>44.64</v>
       </c>
       <c r="H16" t="n">
-        <v>1449.58</v>
+        <v>324.47</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>1.5068</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-4.29</v>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09.09.2025 17:26</t>
+          <t>02.07.2025 18:02</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7.9379</v>
+        <v>1.9716</v>
       </c>
       <c r="G17" t="n">
-        <v>154.35</v>
+        <v>57.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1225.21</v>
+        <v>113.17</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2565</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>-8.94</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1209,40 +1254,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13.07.2025 13:34</t>
+          <t>24.10.2025 01:19</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.3989</v>
+        <v>9.7156</v>
       </c>
       <c r="G18" t="n">
-        <v>140.56</v>
+        <v>60.36</v>
       </c>
       <c r="H18" t="n">
-        <v>758.87</v>
+        <v>586.4299999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5008</v>
+        <v>2.5498</v>
       </c>
       <c r="J18" t="n">
-        <v>0.31</v>
+        <v>-1.68</v>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1252,17 +1298,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.08.2025 00:00</t>
+          <t>20.09.2025 16:17</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1911</v>
+        <v>2.6025</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>219.11</v>
+        <v>176.14</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1270,110 +1316,115 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>4.81</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16.10.2025 01:41</t>
+          <t>09.10.2025 04:37</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.2542</v>
+        <v>4.9774</v>
       </c>
       <c r="G20" t="n">
-        <v>112.58</v>
+        <v>104.53</v>
       </c>
       <c r="H20" t="n">
-        <v>816.6799999999999</v>
+        <v>520.29</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2.2896</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-6.43</v>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.10.2025 22:54</t>
+          <t>12.09.2025 23:40</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.2755</v>
+        <v>6.6183</v>
       </c>
       <c r="G21" t="n">
-        <v>137.66</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>175.59</v>
+        <v>661.83</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1168</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.359999999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1383,17 +1434,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01.09.2025 11:23</t>
+          <t>10.08.2025 19:39</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5438</v>
+        <v>8.8551</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>153.95</v>
       </c>
       <c r="H22" t="n">
-        <v>354.38</v>
+        <v>1363.24</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1401,24 +1452,23 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1428,17 +1478,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>06.08.2025 05:22</t>
+          <t>23.09.2025 12:29</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.6861</v>
+        <v>6.5291</v>
       </c>
       <c r="G23" t="n">
-        <v>99.54000000000001</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>565.99</v>
+        <v>652.91</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1446,22 +1496,27 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1471,17 +1526,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.10.2025 22:56</t>
+          <t>05.07.2025 04:20</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9.684799999999999</v>
+        <v>5.0592</v>
       </c>
       <c r="G24" t="n">
-        <v>28.78</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>278.73</v>
+        <v>505.92</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1489,17 +1544,22 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1514,17 +1574,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27.08.2025 14:57</t>
+          <t>19.07.2025 00:27</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.0905</v>
+        <v>4.8162</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>509.05</v>
+        <v>481.62</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1533,23 +1593,26 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1559,17 +1622,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>02.07.2025 23:33</t>
+          <t>29.09.2025 15:35</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.5403</v>
+        <v>2.7248</v>
       </c>
       <c r="G26" t="n">
-        <v>169.12</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>1106.1</v>
+        <v>272.48</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1577,7 +1640,12 @@
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1602,17 +1670,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14.07.2025 21:04</t>
+          <t>21.09.2025 04:35</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5205</v>
+        <v>8.2288</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>52.05</v>
+        <v>822.88</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1621,63 +1689,65 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>5.36</v>
+        <v>3.61</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>01.08.2025 01:31</t>
+          <t>18.07.2025 02:58</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.7946</v>
+        <v>6.1715</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>114.29</v>
       </c>
       <c r="H28" t="n">
-        <v>779.46</v>
+        <v>705.34</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2.3487</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.9</v>
-      </c>
+        <v>-9.99</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1692,17 +1762,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10.08.2025 03:48</t>
+          <t>12.10.2025 06:38</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.525</v>
+        <v>5.6837</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>352.5</v>
+        <v>568.37</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1711,23 +1781,26 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>8.779999999999999</v>
+        <v>2.01</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1737,17 +1810,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27.07.2025 07:48</t>
+          <t>11.09.2025 07:55</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.4484</v>
+        <v>9.4415</v>
       </c>
       <c r="G30" t="n">
-        <v>139.52</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>1039.2</v>
+        <v>944.15</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1755,60 +1828,66 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19.09.2025 11:30</t>
+          <t>24.08.2025 11:18</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7.0977</v>
+        <v>6.239</v>
       </c>
       <c r="G31" t="n">
-        <v>107.9</v>
+        <v>126.85</v>
       </c>
       <c r="H31" t="n">
-        <v>765.84</v>
+        <v>791.42</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>1.0918</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-6.95</v>
       </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1823,17 +1902,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>30.07.2025 08:46</t>
+          <t>21.09.2025 01:54</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7.1727</v>
+        <v>6.8743</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>717.27</v>
+        <v>687.4299999999999</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1842,66 +1921,74 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>6.88</v>
+        <v>3.82</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22.08.2025 20:38</t>
+          <t>01.07.2025 10:49</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.3703</v>
+        <v>5.2386</v>
       </c>
       <c r="G33" t="n">
-        <v>194.9</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>1241.57</v>
+        <v>523.86</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9402</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1911,85 +1998,85 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18.09.2025 15:17</t>
+          <t>01.07.2025 05:19</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.5377</v>
+        <v>8.261100000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>28.92</v>
+        <v>108.31</v>
       </c>
       <c r="H34" t="n">
-        <v>217.99</v>
+        <v>894.76</v>
       </c>
       <c r="I34" t="n">
-        <v>1.227</v>
+        <v>1.303</v>
       </c>
       <c r="J34" t="n">
-        <v>-3.42</v>
+        <v>-2.57</v>
       </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24.09.2025 05:00</t>
+          <t>26.09.2025 05:35</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8152</v>
+        <v>0.2485</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>191.31</v>
       </c>
       <c r="H35" t="n">
-        <v>81.52</v>
+        <v>47.54</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>1.4358</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9.66</v>
-      </c>
+        <v>-7.6</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1999,17 +2086,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23.09.2025 12:14</t>
+          <t>09.08.2025 19:55</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.9677</v>
+        <v>6.8416</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>174.37</v>
       </c>
       <c r="H36" t="n">
-        <v>596.77</v>
+        <v>1192.97</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2017,19 +2104,18 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="n">
-        <v>3.33</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2044,17 +2130,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>24.08.2025 01:57</t>
+          <t>02.07.2025 06:53</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-0.2207</v>
+        <v>2.8745</v>
       </c>
       <c r="G37" t="n">
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>-22.07</v>
+        <v>287.45</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2063,66 +2149,70 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30.09.2025 18:20</t>
+          <t>08.08.2025 07:40</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.7889</v>
+        <v>8.177899999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>19.72</v>
+        <v>143.47</v>
       </c>
       <c r="H38" t="n">
-        <v>133.88</v>
+        <v>1173.28</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3.3431</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-0.85</v>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2132,17 +2222,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.10.2025 11:02</t>
+          <t>23.08.2025 23:44</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-0.1921</v>
+        <v>4.6589</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>23.95</v>
       </c>
       <c r="H39" t="n">
-        <v>-19.21</v>
+        <v>111.58</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2150,14 +2240,13 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2177,17 +2266,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>17.10.2025 18:18</t>
+          <t>31.08.2025 02:50</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.6505</v>
+        <v>5.2945</v>
       </c>
       <c r="G40" t="n">
         <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>365.05</v>
+        <v>529.45</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2196,111 +2285,114 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.4</v>
+        <v>3.27</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>05.10.2025 01:18</t>
+          <t>05.07.2025 19:24</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.2451</v>
+        <v>-0.1981</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>224.51</v>
+        <v>-16.11</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>1.4802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.59</v>
-      </c>
+        <v>-1.6</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25.08.2025 05:39</t>
+          <t>14.07.2025 09:23</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.772</v>
+        <v>6.4323</v>
       </c>
       <c r="G42" t="n">
-        <v>183.42</v>
+        <v>37.32</v>
       </c>
       <c r="H42" t="n">
-        <v>1242.12</v>
+        <v>240.05</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>1.2927</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-1.14</v>
       </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2310,17 +2402,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13.10.2025 07:59</t>
+          <t>22.08.2025 13:41</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.8649</v>
+        <v>5.959</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>161.27</v>
       </c>
       <c r="H43" t="n">
-        <v>286.49</v>
+        <v>961.01</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2328,24 +2420,23 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="K43" t="n">
-        <v>9.720000000000001</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2355,17 +2446,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>06.10.2025 16:49</t>
+          <t>12.09.2025 13:00</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.11</v>
+        <v>3.382</v>
       </c>
       <c r="G44" t="n">
-        <v>118.86</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>607.37</v>
+        <v>338.2</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -2373,7 +2464,12 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="L44" t="n">
+        <v>7.45</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2398,17 +2494,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17.09.2025 21:59</t>
+          <t>08.07.2025 15:42</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7625</v>
+        <v>1.376</v>
       </c>
       <c r="G45" t="n">
         <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>76.25</v>
+        <v>137.6</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2417,7 +2513,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.91</v>
+        <v>3.18</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.15</v>
       </c>
     </row>
     <row r="46">
@@ -2443,17 +2542,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>03.09.2025 08:41</t>
+          <t>21.09.2025 18:25</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.7906</v>
+        <v>0.8601</v>
       </c>
       <c r="G46" t="n">
-        <v>95.23999999999999</v>
+        <v>32.42</v>
       </c>
       <c r="H46" t="n">
-        <v>265.78</v>
+        <v>27.88</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -2462,104 +2561,109 @@
         <v>0</v>
       </c>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08.08.2025 04:18</t>
+          <t>17.08.2025 19:03</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.8865</v>
+        <v>9.387700000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>60.85</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>358.19</v>
+        <v>938.77</v>
       </c>
       <c r="I47" t="n">
-        <v>3.619</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>05.10.2025 14:44</t>
+          <t>29.07.2025 22:12</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.3388</v>
+        <v>8.142200000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>160.9</v>
       </c>
       <c r="H48" t="n">
-        <v>333.88</v>
+        <v>1310.08</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>8.1</v>
-      </c>
+        <v>-6.86</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2574,17 +2678,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17.08.2025 19:23</t>
+          <t>22.08.2025 07:05</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.105600000000001</v>
+        <v>7.7154</v>
       </c>
       <c r="G49" t="n">
         <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>810.5599999999999</v>
+        <v>771.54</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2593,23 +2697,26 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>9.32</v>
+        <v>3.46</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2619,17 +2726,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11.08.2025 05:38</t>
+          <t>06.08.2025 19:10</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-0.463</v>
+        <v>2.6667</v>
       </c>
       <c r="G50" t="n">
-        <v>176.23</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>-81.59</v>
+        <v>266.67</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2637,17 +2744,22 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2657,40 +2769,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10.09.2025 12:30</t>
+          <t>28.07.2025 08:35</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.214</v>
+        <v>6.9451</v>
       </c>
       <c r="G51" t="n">
-        <v>193.26</v>
+        <v>67.16</v>
       </c>
       <c r="H51" t="n">
-        <v>1007.66</v>
+        <v>466.43</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1635</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>-8.56</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2700,83 +2813,89 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>03.07.2025 16:43</t>
+          <t>22.08.2025 03:00</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.9705</v>
+        <v>8.7034</v>
       </c>
       <c r="G52" t="n">
-        <v>45.8</v>
+        <v>180.97</v>
       </c>
       <c r="H52" t="n">
-        <v>136.05</v>
+        <v>1575.05</v>
       </c>
       <c r="I52" t="n">
-        <v>1.357</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>-4.21</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>16.08.2025 08:01</t>
+          <t>19.10.2025 00:27</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7.5512</v>
+        <v>7.893</v>
       </c>
       <c r="G53" t="n">
-        <v>84.31</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>636.64</v>
+        <v>789.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.5088</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2791,17 +2910,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15.10.2025 08:39</t>
+          <t>30.08.2025 00:41</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6.6368</v>
+        <v>7.4036</v>
       </c>
       <c r="G54" t="n">
         <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>663.6799999999999</v>
+        <v>740.36</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2810,23 +2929,26 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>9.93</v>
+        <v>1.95</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8.49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2836,17 +2958,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09.08.2025 11:43</t>
+          <t>15.09.2025 01:18</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.3634</v>
+        <v>1.3127</v>
       </c>
       <c r="G55" t="n">
-        <v>166.27</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>891.77</v>
+        <v>131.27</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -2854,17 +2976,22 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2874,131 +3001,138 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>31.07.2025 13:56</t>
+          <t>24.09.2025 02:42</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7.6594</v>
+        <v>5.4784</v>
       </c>
       <c r="G56" t="n">
-        <v>31.41</v>
+        <v>123.89</v>
       </c>
       <c r="H56" t="n">
-        <v>240.58</v>
+        <v>678.72</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5003</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>19.10.2025 19:27</t>
+          <t>09.08.2025 13:49</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.6176</v>
+        <v>1.9483</v>
       </c>
       <c r="G57" t="n">
-        <v>72.08</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>477</v>
+        <v>194.83</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2665</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8.369999999999999</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>04.07.2025 06:09</t>
+          <t>25.10.2025 09:45</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.0324</v>
+        <v>0.9147999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>85.98</v>
+        <v>158.76</v>
       </c>
       <c r="H58" t="n">
-        <v>2.79</v>
+        <v>145.23</v>
       </c>
       <c r="I58" t="n">
-        <v>2.0948</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>-7.74</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3008,17 +3142,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>26.10.2025 21:53</t>
+          <t>04.09.2025 13:55</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.2937</v>
+        <v>3.5117</v>
       </c>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>84.55</v>
       </c>
       <c r="H59" t="n">
-        <v>29.37</v>
+        <v>296.91</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -3026,24 +3160,23 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="n">
-        <v>2.87</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3053,17 +3186,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>21.07.2025 04:12</t>
+          <t>20.09.2025 19:28</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6.426</v>
+        <v>0.4601</v>
       </c>
       <c r="G60" t="n">
-        <v>160.35</v>
+        <v>100</v>
       </c>
       <c r="H60" t="n">
-        <v>1030.41</v>
+        <v>46.01</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3071,17 +3204,22 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3096,17 +3234,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>22.10.2025 22:46</t>
+          <t>08.10.2025 12:13</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.4098</v>
+        <v>8.744199999999999</v>
       </c>
       <c r="G61" t="n">
         <v>100</v>
       </c>
       <c r="H61" t="n">
-        <v>40.98</v>
+        <v>874.42</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -3115,94 +3253,107 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>7.06</v>
+        <v>1.88</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15.08.2025 09:33</t>
+          <t>26.07.2025 00:03</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6.6779</v>
+        <v>7.9582</v>
       </c>
       <c r="G62" t="n">
-        <v>133.83</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>893.7</v>
+        <v>795.8200000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>3.4148</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>-8.26</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>02.10.2025 03:02</t>
+          <t>19.07.2025 13:35</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6.4564</v>
+        <v>2.9682</v>
       </c>
       <c r="G63" t="n">
-        <v>167.36</v>
+        <v>100</v>
       </c>
       <c r="H63" t="n">
-        <v>1080.54</v>
+        <v>296.82</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8891</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3227,40 +3378,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20.09.2025 16:29</t>
+          <t>03.09.2025 13:39</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>9.851599999999999</v>
+        <v>2.4162</v>
       </c>
       <c r="G64" t="n">
-        <v>138.76</v>
+        <v>95.03</v>
       </c>
       <c r="H64" t="n">
-        <v>1367.01</v>
+        <v>229.61</v>
       </c>
       <c r="I64" t="n">
-        <v>2.8014</v>
+        <v>1.366</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.39</v>
+        <v>1.29</v>
       </c>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3270,17 +3422,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>26.07.2025 17:05</t>
+          <t>15.09.2025 19:47</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.1186</v>
+        <v>3.4186</v>
       </c>
       <c r="G65" t="n">
-        <v>73.94</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
-        <v>82.70999999999999</v>
+        <v>341.86</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3288,17 +3440,22 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3313,17 +3470,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>29.07.2025 03:51</t>
+          <t>16.08.2025 21:32</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6.7823</v>
+        <v>4.76</v>
       </c>
       <c r="G66" t="n">
         <v>100</v>
       </c>
       <c r="H66" t="n">
-        <v>678.23</v>
+        <v>476</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3332,18 +3489,21 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>4.51</v>
+        <v>3.65</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3353,45 +3513,46 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>07.10.2025 13:04</t>
+          <t>17.09.2025 01:29</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.292</v>
+        <v>3.5765</v>
       </c>
       <c r="G67" t="n">
-        <v>169.48</v>
+        <v>53.48</v>
       </c>
       <c r="H67" t="n">
-        <v>218.97</v>
+        <v>191.27</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>1.5685</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>-5.69</v>
       </c>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3401,17 +3562,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>31.07.2025 16:13</t>
+          <t>20.09.2025 12:02</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5.5902</v>
+        <v>6.8006</v>
       </c>
       <c r="G68" t="n">
-        <v>142.24</v>
+        <v>106.62</v>
       </c>
       <c r="H68" t="n">
-        <v>795.15</v>
+        <v>725.08</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -3420,11 +3581,12 @@
         <v>0</v>
       </c>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3444,17 +3606,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11.09.2025 05:53</t>
+          <t>23.08.2025 19:44</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>8.498699999999999</v>
+        <v>0.3223</v>
       </c>
       <c r="G69" t="n">
         <v>100</v>
       </c>
       <c r="H69" t="n">
-        <v>849.87</v>
+        <v>32.23</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3463,23 +3625,26 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2.17</v>
+        <v>2.34</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3489,17 +3654,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>29.08.2025 06:54</t>
+          <t>03.07.2025 14:56</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>7.4824</v>
+        <v>7.187</v>
       </c>
       <c r="G70" t="n">
-        <v>133.71</v>
+        <v>143.7</v>
       </c>
       <c r="H70" t="n">
-        <v>1000.47</v>
+        <v>1032.77</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -3508,21 +3673,22 @@
         <v>0</v>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3532,17 +3698,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>06.10.2025 06:00</t>
+          <t>26.09.2025 14:03</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.201</v>
+        <v>0.2318</v>
       </c>
       <c r="G71" t="n">
-        <v>187.71</v>
+        <v>100</v>
       </c>
       <c r="H71" t="n">
-        <v>600.86</v>
+        <v>23.18</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3550,22 +3716,27 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3575,17 +3746,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14.10.2025 02:57</t>
+          <t>14.07.2025 06:51</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.7081</v>
+        <v>5.7477</v>
       </c>
       <c r="G72" t="n">
-        <v>54.84</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>203.35</v>
+        <v>574.77</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -3593,67 +3764,71 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>25.08.2025 08:33</t>
+          <t>14.09.2025 19:16</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8.475300000000001</v>
+        <v>0.1268</v>
       </c>
       <c r="G73" t="n">
-        <v>100</v>
+        <v>116.56</v>
       </c>
       <c r="H73" t="n">
-        <v>847.53</v>
+        <v>14.78</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2.594</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.9</v>
-      </c>
+        <v>-6.64</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3663,17 +3838,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08.07.2025 07:29</t>
+          <t>21.07.2025 18:19</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.2217</v>
+        <v>0.3109</v>
       </c>
       <c r="G74" t="n">
-        <v>100</v>
+        <v>147.94</v>
       </c>
       <c r="H74" t="n">
-        <v>22.17</v>
+        <v>45.99</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -3681,24 +3856,23 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
-      <c r="K74" t="n">
-        <v>2.08</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3708,17 +3882,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>26.10.2025 13:42</t>
+          <t>17.07.2025 06:47</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.7152</v>
+        <v>5.9929</v>
       </c>
       <c r="G75" t="n">
-        <v>100</v>
+        <v>37.25</v>
       </c>
       <c r="H75" t="n">
-        <v>371.52</v>
+        <v>223.24</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -3726,102 +3900,105 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="K75" t="n">
-        <v>7.75</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>23.10.2025 04:31</t>
+          <t>09.07.2025 06:30</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-0.024</v>
+        <v>9.084199999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>165.49</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
-        <v>-3.97</v>
+        <v>908.42</v>
       </c>
       <c r="I76" t="n">
-        <v>2.3128</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>-8.08</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15.09.2025 01:13</t>
+          <t>13.10.2025 11:47</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.2769</v>
+        <v>7.6277</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>159.15</v>
       </c>
       <c r="H77" t="n">
-        <v>327.69</v>
+        <v>1213.95</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3.3107</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7.26</v>
-      </c>
+        <v>-6.24</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3841,17 +4018,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>05.10.2025 07:24</t>
+          <t>25.09.2025 03:33</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.9316</v>
+        <v>1.1705</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>193.16</v>
+        <v>117.05</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -3860,23 +4037,26 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>9.289999999999999</v>
+        <v>0.55</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3886,25 +4066,26 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13.10.2025 04:36</t>
+          <t>30.08.2025 20:24</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.961</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>57.24</v>
+        <v>191.9</v>
       </c>
       <c r="H79" t="n">
-        <v>341.21</v>
+        <v>112.11</v>
       </c>
       <c r="I79" t="n">
-        <v>2.5936</v>
+        <v>2.8064</v>
       </c>
       <c r="J79" t="n">
-        <v>-9.970000000000001</v>
+        <v>-9.91</v>
       </c>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3929,17 +4110,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14.09.2025 15:58</t>
+          <t>31.07.2025 15:36</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>6.0024</v>
+        <v>0.2164</v>
       </c>
       <c r="G80" t="n">
-        <v>97.76000000000001</v>
+        <v>119.2</v>
       </c>
       <c r="H80" t="n">
-        <v>586.79</v>
+        <v>25.79</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -3948,11 +4129,12 @@
         <v>0</v>
       </c>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3972,17 +4154,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11.10.2025 11:26</t>
+          <t>06.09.2025 03:42</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7.6086</v>
+        <v>6.7761</v>
       </c>
       <c r="G81" t="n">
         <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>760.86</v>
+        <v>677.61</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -3991,111 +4173,118 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>4.17</v>
+        <v>2.63</v>
+      </c>
+      <c r="L81" t="n">
+        <v>8.19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08.09.2025 10:45</t>
+          <t>27.08.2025 17:18</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8.288399999999999</v>
+        <v>5.82</v>
       </c>
       <c r="G82" t="n">
-        <v>100</v>
+        <v>188.83</v>
       </c>
       <c r="H82" t="n">
-        <v>828.84</v>
+        <v>1098.99</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3.0369</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3.41</v>
-      </c>
+        <v>-3.44</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>19.09.2025 13:41</t>
+          <t>18.09.2025 04:21</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9.155799999999999</v>
+        <v>2.9323</v>
       </c>
       <c r="G83" t="n">
-        <v>178.95</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>1638.43</v>
+        <v>293.23</v>
       </c>
       <c r="I83" t="n">
-        <v>2.6024</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.44</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4105,17 +4294,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>28.07.2025 05:24</t>
+          <t>18.10.2025 12:34</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9.1424</v>
+        <v>5.5467</v>
       </c>
       <c r="G84" t="n">
-        <v>29.74</v>
+        <v>85.94</v>
       </c>
       <c r="H84" t="n">
-        <v>271.89</v>
+        <v>476.68</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -4124,59 +4313,65 @@
         <v>0</v>
       </c>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>19.08.2025 04:05</t>
+          <t>29.08.2025 03:22</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.039</v>
+        <v>3.2217</v>
       </c>
       <c r="G85" t="n">
-        <v>57.96</v>
+        <v>100</v>
       </c>
       <c r="H85" t="n">
-        <v>234.1</v>
+        <v>322.17</v>
       </c>
       <c r="I85" t="n">
-        <v>1.8821</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9.24</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4186,30 +4381,31 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>17.09.2025 08:27</t>
+          <t>23.09.2025 09:36</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.4839</v>
+        <v>4.7078</v>
       </c>
       <c r="G86" t="n">
-        <v>59.96</v>
+        <v>48.97</v>
       </c>
       <c r="H86" t="n">
-        <v>88.97</v>
+        <v>230.54</v>
       </c>
       <c r="I86" t="n">
-        <v>3.4785</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>-9.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4234,17 +4430,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29.10.2025 09:21</t>
+          <t>24.10.2025 08:38</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.0507</v>
+        <v>9.961600000000001</v>
       </c>
       <c r="G87" t="n">
         <v>100</v>
       </c>
       <c r="H87" t="n">
-        <v>305.07</v>
+        <v>996.16</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -4253,7 +4449,10 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>4.94</v>
+        <v>1.91</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="88">
@@ -4279,40 +4478,41 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>30.09.2025 20:09</t>
+          <t>23.10.2025 13:29</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.0888</v>
+        <v>9.4208</v>
       </c>
       <c r="G88" t="n">
-        <v>53.96</v>
+        <v>126.37</v>
       </c>
       <c r="H88" t="n">
-        <v>220.63</v>
+        <v>1190.51</v>
       </c>
       <c r="I88" t="n">
-        <v>1.8194</v>
+        <v>3.9266</v>
       </c>
       <c r="J88" t="n">
-        <v>-7.49</v>
+        <v>-8.81</v>
       </c>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4322,17 +4522,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>03.10.2025 14:51</t>
+          <t>18.09.2025 21:51</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.4549</v>
+        <v>2.5258</v>
       </c>
       <c r="G89" t="n">
-        <v>100</v>
+        <v>198.24</v>
       </c>
       <c r="H89" t="n">
-        <v>45.49</v>
+        <v>500.71</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -4340,19 +4540,18 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="n">
-        <v>2.53</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4362,45 +4561,46 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14.09.2025 15:30</t>
+          <t>21.07.2025 02:29</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.8778</v>
+        <v>-0.0706</v>
       </c>
       <c r="G90" t="n">
-        <v>88.59</v>
+        <v>156.13</v>
       </c>
       <c r="H90" t="n">
-        <v>343.53</v>
+        <v>-11.02</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2.6207</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-5.98</v>
       </c>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4410,17 +4610,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>07.10.2025 18:49</t>
+          <t>22.08.2025 02:50</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.8678</v>
+        <v>4.6927</v>
       </c>
       <c r="G91" t="n">
-        <v>188.46</v>
+        <v>145.72</v>
       </c>
       <c r="H91" t="n">
-        <v>352.01</v>
+        <v>683.8200000000001</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -4429,97 +4629,108 @@
         <v>0</v>
       </c>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>18.09.2025 16:02</t>
+          <t>22.07.2025 13:02</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.603</v>
+        <v>7.8975</v>
       </c>
       <c r="G92" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="H92" t="n">
-        <v>429.5</v>
+        <v>789.75</v>
       </c>
       <c r="I92" t="n">
-        <v>3.066</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L92" t="n">
+        <v>6.81</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>15.07.2025 20:52</t>
+          <t>29.08.2025 12:38</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.4957</v>
+        <v>8.9879</v>
       </c>
       <c r="G93" t="n">
-        <v>86.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H93" t="n">
-        <v>42.77</v>
+        <v>898.79</v>
       </c>
       <c r="I93" t="n">
-        <v>3.1909</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3.01</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4539,17 +4750,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>24.08.2025 22:16</t>
+          <t>02.07.2025 19:52</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5.5637</v>
+        <v>-0.224</v>
       </c>
       <c r="G94" t="n">
         <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>556.37</v>
+        <v>-22.4</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -4558,68 +4769,70 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>9.26</v>
+        <v>2.77</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>27.10.2025 11:37</t>
+          <t>30.08.2025 01:53</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.2739</v>
+        <v>6.8117</v>
       </c>
       <c r="G95" t="n">
-        <v>100</v>
+        <v>173.71</v>
       </c>
       <c r="H95" t="n">
-        <v>27.39</v>
+        <v>1183.26</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>3.0111</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>9.220000000000001</v>
-      </c>
+        <v>-2.23</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4629,17 +4842,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>07.10.2025 10:13</t>
+          <t>25.10.2025 09:53</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>8.232799999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="G96" t="n">
-        <v>100</v>
+        <v>41.85</v>
       </c>
       <c r="H96" t="n">
-        <v>823.28</v>
+        <v>20.4</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -4647,9 +4860,8 @@
       <c r="J96" t="n">
         <v>0</v>
       </c>
-      <c r="K96" t="n">
-        <v>8.119999999999999</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4674,17 +4886,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>11.09.2025 03:58</t>
+          <t>04.08.2025 19:57</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9.41</v>
+        <v>9.544499999999999</v>
       </c>
       <c r="G97" t="n">
         <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>941</v>
+        <v>954.45</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -4693,18 +4905,21 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>3.78</v>
+        <v>3.56</v>
+      </c>
+      <c r="L97" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4719,17 +4934,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>25.09.2025 07:22</t>
+          <t>22.07.2025 16:07</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>7.2181</v>
+        <v>4.7841</v>
       </c>
       <c r="G98" t="n">
         <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>721.8099999999999</v>
+        <v>478.41</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4738,23 +4953,26 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>3.93</v>
+        <v>2.78</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4764,17 +4982,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08.10.2025 05:49</t>
+          <t>19.08.2025 21:37</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.0405</v>
+        <v>7.5563</v>
       </c>
       <c r="G99" t="n">
-        <v>100</v>
+        <v>127.2</v>
       </c>
       <c r="H99" t="n">
-        <v>304.05</v>
+        <v>961.16</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -4782,69 +5000,67 @@
       <c r="J99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="n">
-        <v>6.71</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>02.07.2025 08:45</t>
+          <t>23.07.2025 14:39</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>8.984299999999999</v>
+        <v>5.677</v>
       </c>
       <c r="G100" t="n">
-        <v>100</v>
+        <v>120.58</v>
       </c>
       <c r="H100" t="n">
-        <v>898.4299999999999</v>
+        <v>684.53</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>3.6878</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.59</v>
-      </c>
+        <v>-3.75</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4854,17 +5070,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>15.07.2025 03:34</t>
+          <t>12.07.2025 09:27</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.318</v>
+        <v>9.622299999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>28.12</v>
+        <v>12.5</v>
       </c>
       <c r="H101" t="n">
-        <v>37.06</v>
+        <v>120.28</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -4873,6 +5089,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.08.2025 07:22</t>
+          <t>03.10.2025 23:11</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6443</v>
+        <v>9.5412</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>64.43000000000001</v>
+        <v>891.72</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -536,22 +536,18 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.44</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -566,17 +562,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.09.2025 17:35</t>
+          <t>24.07.2025 12:43</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9917</v>
+        <v>0.8829</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>299.17</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -585,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.51</v>
+        <v>1.71</v>
       </c>
       <c r="L3" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -614,17 +610,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03.09.2025 20:59</t>
+          <t>01.08.2025 11:13</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6509</v>
+        <v>6.8659</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>365.09</v>
+        <v>686.59</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -633,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.38</v>
+        <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>9.4</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -662,17 +658,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19.09.2025 05:54</t>
+          <t>02.10.2025 16:16</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4233</v>
+        <v>3.6329</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>242.33</v>
+        <v>363.29</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -681,26 +677,26 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.23</v>
+        <v>0.51</v>
       </c>
       <c r="L5" t="n">
-        <v>3.71</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -710,17 +706,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.07.2025 12:14</t>
+          <t>02.09.2025 07:53</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1875</v>
+        <v>6.5342</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>25.6</v>
       </c>
       <c r="H6" t="n">
-        <v>18.75</v>
+        <v>167.28</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -728,27 +724,23 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.85</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -758,17 +750,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.08.2025 21:30</t>
+          <t>15.10.2025 04:19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.4675</v>
+        <v>0.661</v>
       </c>
       <c r="G7" t="n">
-        <v>70.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>454.08</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -776,18 +768,22 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,17 +798,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.07.2025 19:13</t>
+          <t>26.10.2025 22:31</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.7748</v>
+        <v>8.6477</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>777.48</v>
+        <v>864.77</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -821,21 +817,21 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.52</v>
+        <v>3.68</v>
       </c>
       <c r="L8" t="n">
-        <v>6.99</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -845,28 +841,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.09.2025 10:23</t>
+          <t>25.10.2025 09:48</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.2564</v>
+        <v>5.3386</v>
       </c>
       <c r="G9" t="n">
-        <v>164.23</v>
+        <v>71.06</v>
       </c>
       <c r="H9" t="n">
-        <v>-42.11</v>
+        <v>379.36</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.6078</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-9.99</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -874,17 +870,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -894,17 +890,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08.07.2025 21:00</t>
+          <t>14.08.2025 21:20</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.9413</v>
+        <v>0.7876</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H10" t="n">
-        <v>894.13</v>
+        <v>65.63</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -912,66 +908,66 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.7</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.08.2025 04:41</t>
+          <t>13.09.2025 01:51</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.1873</v>
+        <v>0.8983</v>
       </c>
       <c r="G11" t="n">
-        <v>42.13</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>302.8</v>
+        <v>89.83</v>
       </c>
       <c r="I11" t="n">
-        <v>3.382</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -981,28 +977,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28.09.2025 05:57</t>
+          <t>03.08.2025 23:25</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.7379</v>
+        <v>3.3961</v>
       </c>
       <c r="G12" t="n">
-        <v>131</v>
+        <v>167.96</v>
       </c>
       <c r="H12" t="n">
-        <v>751.66</v>
+        <v>570.41</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2.3337</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1010,12 +1006,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1030,17 +1026,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31.07.2025 23:11</t>
+          <t>06.08.2025 04:23</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.5959</v>
+        <v>6.0516</v>
       </c>
       <c r="G13" t="n">
         <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>559.59</v>
+        <v>605.16</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1049,26 +1045,26 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>4.03</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1078,23 +1074,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07.10.2025 17:04</t>
+          <t>24.07.2025 08:44</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9.728300000000001</v>
+        <v>3.2822</v>
       </c>
       <c r="G14" t="n">
-        <v>173.8</v>
+        <v>53.76</v>
       </c>
       <c r="H14" t="n">
-        <v>1690.78</v>
+        <v>176.45</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2581</v>
+        <v>2.4413</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09</v>
+        <v>-6.18</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1102,46 +1098,50 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12.08.2025 02:13</t>
+          <t>23.10.2025 05:23</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7.5639</v>
+        <v>6.7781</v>
       </c>
       <c r="G15" t="n">
-        <v>139.85</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>1057.81</v>
+        <v>677.8099999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9298</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1166,23 +1166,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.10.2025 20:13</t>
+          <t>29.10.2025 01:29</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.2687</v>
+        <v>4.1551</v>
       </c>
       <c r="G16" t="n">
-        <v>44.64</v>
+        <v>82.94</v>
       </c>
       <c r="H16" t="n">
-        <v>324.47</v>
+        <v>344.62</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5068</v>
+        <v>1.6201</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.29</v>
+        <v>-9.92</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1190,17 +1190,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1210,17 +1210,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>02.07.2025 18:02</t>
+          <t>12.07.2025 17:15</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9716</v>
+        <v>1.2507</v>
       </c>
       <c r="G17" t="n">
-        <v>57.4</v>
+        <v>43.93</v>
       </c>
       <c r="H17" t="n">
-        <v>113.17</v>
+        <v>54.94</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1234,61 +1234,65 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24.10.2025 01:19</t>
+          <t>28.07.2025 19:02</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.7156</v>
+        <v>8.144299999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>60.36</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>586.4299999999999</v>
+        <v>814.4299999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5498</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1298,17 +1302,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.09.2025 16:17</t>
+          <t>29.07.2025 05:35</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6025</v>
+        <v>1.1636</v>
       </c>
       <c r="G19" t="n">
-        <v>67.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>176.14</v>
+        <v>116.36</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1316,23 +1320,27 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1342,23 +1350,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09.10.2025 04:37</t>
+          <t>30.09.2025 06:32</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.9774</v>
+        <v>3.1731</v>
       </c>
       <c r="G20" t="n">
-        <v>104.53</v>
+        <v>94.94</v>
       </c>
       <c r="H20" t="n">
-        <v>520.29</v>
+        <v>301.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2896</v>
+        <v>2.2955</v>
       </c>
       <c r="J20" t="n">
-        <v>-6.43</v>
+        <v>-8.06</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1366,7 +1374,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1386,17 +1394,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12.09.2025 23:40</t>
+          <t>03.07.2025 23:08</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.6183</v>
+        <v>5.2298</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>661.83</v>
+        <v>522.98</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1405,26 +1413,26 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>9.359999999999999</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1434,17 +1442,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.08.2025 19:39</t>
+          <t>07.08.2025 13:13</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8.8551</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>153.95</v>
+        <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>1363.24</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1452,23 +1460,27 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1478,17 +1490,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.09.2025 12:29</t>
+          <t>25.07.2025 06:27</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6.5291</v>
+        <v>0.3884</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>47.46</v>
       </c>
       <c r="H23" t="n">
-        <v>652.91</v>
+        <v>18.43</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1496,75 +1508,67 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>05.07.2025 04:20</t>
+          <t>02.08.2025 15:46</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.0592</v>
+        <v>0.1175</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>163.14</v>
       </c>
       <c r="H24" t="n">
-        <v>505.92</v>
+        <v>19.17</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2.7301</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.45</v>
-      </c>
+        <v>-8.67</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1574,17 +1578,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19.07.2025 00:27</t>
+          <t>30.09.2025 16:10</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.8162</v>
+        <v>5.3118</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>28.28</v>
       </c>
       <c r="H25" t="n">
-        <v>481.62</v>
+        <v>150.22</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1592,70 +1596,62 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.52</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29.09.2025 15:35</t>
+          <t>03.07.2025 19:12</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7248</v>
+        <v>8.092599999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>43.26</v>
       </c>
       <c r="H26" t="n">
-        <v>272.48</v>
+        <v>350.09</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3.304</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.41</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1670,17 +1666,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21.09.2025 04:35</t>
+          <t>13.07.2025 14:57</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.2288</v>
+        <v>3.2447</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>822.88</v>
+        <v>324.47</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1689,55 +1685,59 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.61</v>
+        <v>1.59</v>
       </c>
       <c r="L27" t="n">
-        <v>4.03</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18.07.2025 02:58</t>
+          <t>10.08.2025 02:53</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6.1715</v>
+        <v>4.3253</v>
       </c>
       <c r="G28" t="n">
-        <v>114.29</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>705.34</v>
+        <v>432.53</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3487</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.99</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1762,17 +1762,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12.10.2025 06:38</t>
+          <t>24.09.2025 01:33</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.6837</v>
+        <v>8.7963</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>568.37</v>
+        <v>879.63</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1781,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="L29" t="n">
-        <v>5.57</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.09.2025 07:55</t>
+          <t>12.08.2025 01:14</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9.4415</v>
+        <v>0.4396</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>944.15</v>
+        <v>43.96</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1829,103 +1829,103 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>24.08.2025 11:18</t>
+          <t>07.10.2025 04:53</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6.239</v>
+        <v>2.3932</v>
       </c>
       <c r="G31" t="n">
-        <v>126.85</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>791.42</v>
+        <v>239.32</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0918</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21.09.2025 01:54</t>
+          <t>05.10.2025 11:44</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.8743</v>
+        <v>4.2496</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>103.41</v>
       </c>
       <c r="H32" t="n">
-        <v>687.4299999999999</v>
+        <v>439.45</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3.6111</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9.33</v>
-      </c>
+        <v>-9.26</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1950,17 +1950,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>01.07.2025 10:49</t>
+          <t>28.07.2025 20:54</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.2386</v>
+        <v>6.0436</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>523.86</v>
+        <v>604.36</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1969,26 +1969,26 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.8</v>
+        <v>0.68</v>
       </c>
       <c r="L33" t="n">
-        <v>4.94</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1998,23 +1998,23 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>01.07.2025 05:19</t>
+          <t>26.10.2025 09:55</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.261100000000001</v>
+        <v>4.3435</v>
       </c>
       <c r="G34" t="n">
-        <v>108.31</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>894.76</v>
+        <v>332.45</v>
       </c>
       <c r="I34" t="n">
-        <v>1.303</v>
+        <v>2.7192</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.57</v>
+        <v>0.22</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2022,61 +2022,65 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>26.09.2025 05:35</t>
+          <t>29.07.2025 19:39</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.2485</v>
+        <v>5.5093</v>
       </c>
       <c r="G35" t="n">
-        <v>191.31</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>47.54</v>
+        <v>550.9299999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>1.4358</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.49</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2086,17 +2090,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09.08.2025 19:55</t>
+          <t>27.09.2025 01:56</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.8416</v>
+        <v>1.3755</v>
       </c>
       <c r="G36" t="n">
-        <v>174.37</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>1192.97</v>
+        <v>137.55</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2104,23 +2108,27 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2130,17 +2138,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>02.07.2025 06:53</t>
+          <t>22.10.2025 12:58</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.8745</v>
+        <v>0.8467</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>40.97</v>
       </c>
       <c r="H37" t="n">
-        <v>287.45</v>
+        <v>34.69</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2148,71 +2156,71 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08.08.2025 07:40</t>
+          <t>18.08.2025 01:31</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8.177899999999999</v>
+        <v>1.2732</v>
       </c>
       <c r="G38" t="n">
-        <v>143.47</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>1173.28</v>
+        <v>127.32</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3431</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.93</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2222,17 +2230,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23.08.2025 23:44</t>
+          <t>10.07.2025 21:18</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.6589</v>
+        <v>7.4225</v>
       </c>
       <c r="G39" t="n">
-        <v>23.95</v>
+        <v>79.88</v>
       </c>
       <c r="H39" t="n">
-        <v>111.58</v>
+        <v>592.91</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2246,17 +2254,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2266,17 +2274,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31.08.2025 02:50</t>
+          <t>02.08.2025 17:08</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.2945</v>
+        <v>2.6224</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>59.31</v>
       </c>
       <c r="H40" t="n">
-        <v>529.45</v>
+        <v>155.53</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2284,12 +2292,8 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.44</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2314,23 +2318,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>05.07.2025 19:24</t>
+          <t>01.09.2025 02:36</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-0.1981</v>
+        <v>9.889699999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>81.31999999999999</v>
+        <v>156.51</v>
       </c>
       <c r="H41" t="n">
-        <v>-16.11</v>
+        <v>1547.84</v>
       </c>
       <c r="I41" t="n">
-        <v>1.4802</v>
+        <v>3.9697</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.6</v>
+        <v>-3.39</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2358,23 +2362,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14.07.2025 09:23</t>
+          <t>24.10.2025 20:19</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.4323</v>
+        <v>6.7251</v>
       </c>
       <c r="G42" t="n">
-        <v>37.32</v>
+        <v>49.32</v>
       </c>
       <c r="H42" t="n">
-        <v>240.05</v>
+        <v>331.68</v>
       </c>
       <c r="I42" t="n">
-        <v>1.2927</v>
+        <v>3.7919</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.14</v>
+        <v>-1.54</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2402,17 +2406,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22.08.2025 13:41</t>
+          <t>26.07.2025 18:26</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.959</v>
+        <v>0.1814</v>
       </c>
       <c r="G43" t="n">
-        <v>161.27</v>
+        <v>154.41</v>
       </c>
       <c r="H43" t="n">
-        <v>961.01</v>
+        <v>28.01</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2446,17 +2450,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12.09.2025 13:00</t>
+          <t>30.08.2025 15:20</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.382</v>
+        <v>9.432399999999999</v>
       </c>
       <c r="G44" t="n">
         <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>338.2</v>
+        <v>943.24</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -2465,26 +2469,26 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.93</v>
+        <v>1.3</v>
       </c>
       <c r="L44" t="n">
-        <v>7.45</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2494,17 +2498,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08.07.2025 15:42</t>
+          <t>05.09.2025 12:50</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.376</v>
+        <v>6.4851</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>112.61</v>
       </c>
       <c r="H45" t="n">
-        <v>137.6</v>
+        <v>730.29</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2512,27 +2516,23 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2542,17 +2542,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21.09.2025 18:25</t>
+          <t>27.08.2025 05:10</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8601</v>
+        <v>2.2578</v>
       </c>
       <c r="G46" t="n">
-        <v>32.42</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>27.88</v>
+        <v>225.78</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -2560,148 +2560,148 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17.08.2025 19:03</t>
+          <t>28.08.2025 16:30</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>9.387700000000001</v>
+        <v>9.116300000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>73.58</v>
       </c>
       <c r="H47" t="n">
-        <v>938.77</v>
+        <v>670.78</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>1.1575</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0.57</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>29.07.2025 22:12</t>
+          <t>24.09.2025 20:53</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8.142200000000001</v>
+        <v>7.2208</v>
       </c>
       <c r="G48" t="n">
-        <v>160.9</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>1310.08</v>
+        <v>722.08</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>-6.86</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>22.08.2025 07:05</t>
+          <t>10.07.2025 16:42</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7.7154</v>
+        <v>0.0381</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>78.22</v>
       </c>
       <c r="H49" t="n">
-        <v>771.54</v>
+        <v>2.98</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2.5413</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.94</v>
-      </c>
+        <v>-6.65</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2726,17 +2726,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>06.08.2025 19:10</t>
+          <t>04.07.2025 20:31</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.6667</v>
+        <v>8.3413</v>
       </c>
       <c r="G50" t="n">
         <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>266.67</v>
+        <v>834.13</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2745,26 +2745,26 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>3.94</v>
+        <v>1.14</v>
       </c>
       <c r="L50" t="n">
-        <v>2.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>28.07.2025 08:35</t>
+          <t>16.09.2025 03:30</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.9451</v>
+        <v>0.9794</v>
       </c>
       <c r="G51" t="n">
-        <v>67.16</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>466.43</v>
+        <v>97.94</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2792,23 +2792,27 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.97</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2818,17 +2822,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>22.08.2025 03:00</t>
+          <t>28.08.2025 11:33</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8.7034</v>
+        <v>4.3581</v>
       </c>
       <c r="G52" t="n">
-        <v>180.97</v>
+        <v>10.53</v>
       </c>
       <c r="H52" t="n">
-        <v>1575.05</v>
+        <v>45.89</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2842,17 +2846,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2862,17 +2866,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>19.10.2025 00:27</t>
+          <t>14.07.2025 02:31</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7.893</v>
+        <v>2.1736</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>179.2</v>
       </c>
       <c r="H53" t="n">
-        <v>789.3</v>
+        <v>389.51</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2880,70 +2884,62 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="L53" t="n">
-        <v>6.52</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>30.08.2025 00:41</t>
+          <t>18.10.2025 02:27</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7.4036</v>
+        <v>3.6411</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>43.56</v>
       </c>
       <c r="H54" t="n">
-        <v>740.36</v>
+        <v>158.61</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2.274</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L54" t="n">
-        <v>8.49</v>
-      </c>
+        <v>-7.32</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2958,17 +2954,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15.09.2025 01:18</t>
+          <t>24.10.2025 20:15</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.3127</v>
+        <v>1.8555</v>
       </c>
       <c r="G55" t="n">
         <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>131.27</v>
+        <v>185.55</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -2977,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L55" t="n">
-        <v>2.58</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -3006,17 +3002,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>24.09.2025 02:42</t>
+          <t>10.09.2025 09:12</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5.4784</v>
+        <v>7.1565</v>
       </c>
       <c r="G56" t="n">
-        <v>123.89</v>
+        <v>151.7</v>
       </c>
       <c r="H56" t="n">
-        <v>678.72</v>
+        <v>1085.64</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -3050,17 +3046,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09.08.2025 13:49</t>
+          <t>24.09.2025 01:59</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.9483</v>
+        <v>0.6314</v>
       </c>
       <c r="G57" t="n">
         <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>194.83</v>
+        <v>63.14</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -3069,26 +3065,26 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1.23</v>
+        <v>2.13</v>
       </c>
       <c r="L57" t="n">
-        <v>8.369999999999999</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3098,17 +3094,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>25.10.2025 09:45</t>
+          <t>18.07.2025 01:10</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9147999999999999</v>
+        <v>9.5276</v>
       </c>
       <c r="G58" t="n">
-        <v>158.76</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
-        <v>145.23</v>
+        <v>952.76</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -3116,23 +3112,27 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3142,17 +3142,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>04.09.2025 13:55</t>
+          <t>01.10.2025 05:32</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.5117</v>
+        <v>8.2264</v>
       </c>
       <c r="G59" t="n">
-        <v>84.55</v>
+        <v>108.14</v>
       </c>
       <c r="H59" t="n">
-        <v>296.91</v>
+        <v>889.6</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3186,17 +3186,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20.09.2025 19:28</t>
+          <t>03.08.2025 05:42</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.4601</v>
+        <v>8.8317</v>
       </c>
       <c r="G60" t="n">
         <v>100</v>
       </c>
       <c r="H60" t="n">
-        <v>46.01</v>
+        <v>883.17</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3205,74 +3205,70 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="L60" t="n">
-        <v>3.64</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08.10.2025 12:13</t>
+          <t>16.08.2025 12:51</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8.744199999999999</v>
+        <v>7.5096</v>
       </c>
       <c r="G61" t="n">
-        <v>100</v>
+        <v>143.42</v>
       </c>
       <c r="H61" t="n">
-        <v>874.42</v>
+        <v>1077.03</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>3.4607</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.34</v>
-      </c>
+        <v>-2.92</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3282,17 +3278,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>26.07.2025 00:03</t>
+          <t>14.07.2025 20:03</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7.9582</v>
+        <v>8.1488</v>
       </c>
       <c r="G62" t="n">
-        <v>100</v>
+        <v>32.3</v>
       </c>
       <c r="H62" t="n">
-        <v>795.8200000000001</v>
+        <v>263.21</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -3300,70 +3296,62 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.36</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>19.07.2025 13:35</t>
+          <t>12.07.2025 14:01</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.9682</v>
+        <v>0.1269</v>
       </c>
       <c r="G63" t="n">
-        <v>100</v>
+        <v>37.62</v>
       </c>
       <c r="H63" t="n">
-        <v>296.82</v>
+        <v>4.77</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>1.2782</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3373,28 +3361,28 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>03.09.2025 13:39</t>
+          <t>03.10.2025 23:40</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.4162</v>
+        <v>7.5674</v>
       </c>
       <c r="G64" t="n">
-        <v>95.03</v>
+        <v>197.53</v>
       </c>
       <c r="H64" t="n">
-        <v>229.61</v>
+        <v>1494.79</v>
       </c>
       <c r="I64" t="n">
-        <v>1.366</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3422,17 +3410,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15.09.2025 19:47</t>
+          <t>17.09.2025 20:18</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.4186</v>
+        <v>7.7398</v>
       </c>
       <c r="G65" t="n">
         <v>100</v>
       </c>
       <c r="H65" t="n">
-        <v>341.86</v>
+        <v>773.98</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3441,26 +3429,26 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>3.31</v>
+        <v>1.42</v>
       </c>
       <c r="L65" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3470,17 +3458,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>16.08.2025 21:32</t>
+          <t>26.08.2025 14:14</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.76</v>
+        <v>5.7069</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>104.88</v>
       </c>
       <c r="H66" t="n">
-        <v>476</v>
+        <v>598.54</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3488,97 +3476,97 @@
       <c r="J66" t="n">
         <v>0</v>
       </c>
-      <c r="K66" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L66" t="n">
-        <v>8.529999999999999</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17.09.2025 01:29</t>
+          <t>01.08.2025 02:33</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.5765</v>
+        <v>4.3178</v>
       </c>
       <c r="G67" t="n">
-        <v>53.48</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>191.27</v>
+        <v>431.78</v>
       </c>
       <c r="I67" t="n">
-        <v>1.5685</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>-5.69</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20.09.2025 12:02</t>
+          <t>30.07.2025 21:19</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6.8006</v>
+        <v>8.789400000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>106.62</v>
+        <v>93.41</v>
       </c>
       <c r="H68" t="n">
-        <v>725.08</v>
+        <v>821.02</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>1.0135</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-4.76</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3586,12 +3574,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3606,17 +3594,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>23.08.2025 19:44</t>
+          <t>19.09.2025 13:07</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.3223</v>
+        <v>9.419499999999999</v>
       </c>
       <c r="G69" t="n">
         <v>100</v>
       </c>
       <c r="H69" t="n">
-        <v>32.23</v>
+        <v>941.95</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3625,52 +3613,52 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2.34</v>
+        <v>1.85</v>
       </c>
       <c r="L69" t="n">
-        <v>6.34</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>03.07.2025 14:56</t>
+          <t>17.09.2025 07:13</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>7.187</v>
+        <v>1.9459</v>
       </c>
       <c r="G70" t="n">
-        <v>143.7</v>
+        <v>37.23</v>
       </c>
       <c r="H70" t="n">
-        <v>1032.77</v>
+        <v>72.45</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2.6914</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3678,17 +3666,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3698,17 +3686,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>26.09.2025 14:03</t>
+          <t>03.09.2025 12:02</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.2318</v>
+        <v>4.3472</v>
       </c>
       <c r="G71" t="n">
-        <v>100</v>
+        <v>37.57</v>
       </c>
       <c r="H71" t="n">
-        <v>23.18</v>
+        <v>163.32</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3716,75 +3704,67 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.65</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14.07.2025 06:51</t>
+          <t>17.07.2025 19:19</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.7477</v>
+        <v>0.0258</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>46.67</v>
       </c>
       <c r="H72" t="n">
-        <v>574.77</v>
+        <v>1.2</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2.8329</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.31</v>
-      </c>
+        <v>-0.02</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3794,23 +3774,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14.09.2025 19:16</t>
+          <t>13.10.2025 19:04</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1268</v>
+        <v>0.8968</v>
       </c>
       <c r="G73" t="n">
-        <v>116.56</v>
+        <v>181.61</v>
       </c>
       <c r="H73" t="n">
-        <v>14.78</v>
+        <v>162.87</v>
       </c>
       <c r="I73" t="n">
-        <v>2.594</v>
+        <v>1.487</v>
       </c>
       <c r="J73" t="n">
-        <v>-6.64</v>
+        <v>-7.51</v>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -3818,43 +3798,43 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>21.07.2025 18:19</t>
+          <t>15.10.2025 21:58</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.3109</v>
+        <v>9.236700000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>147.94</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>45.99</v>
+        <v>778.1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2.6387</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -3862,17 +3842,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3882,17 +3862,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>17.07.2025 06:47</t>
+          <t>28.09.2025 06:57</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5.9929</v>
+        <v>8.576499999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>37.25</v>
+        <v>50.62</v>
       </c>
       <c r="H75" t="n">
-        <v>223.24</v>
+        <v>434.14</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -3906,17 +3886,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3926,17 +3906,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09.07.2025 06:30</t>
+          <t>22.09.2025 03:29</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9.084199999999999</v>
+        <v>9.731199999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>100</v>
+        <v>61.98</v>
       </c>
       <c r="H76" t="n">
-        <v>908.42</v>
+        <v>603.14</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -3944,22 +3924,18 @@
       <c r="J76" t="n">
         <v>0</v>
       </c>
-      <c r="K76" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.32</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3969,28 +3945,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13.10.2025 11:47</t>
+          <t>28.10.2025 05:33</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7.6277</v>
+        <v>5.4951</v>
       </c>
       <c r="G77" t="n">
-        <v>159.15</v>
+        <v>72.22</v>
       </c>
       <c r="H77" t="n">
-        <v>1213.95</v>
+        <v>396.86</v>
       </c>
       <c r="I77" t="n">
-        <v>3.3107</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>-6.24</v>
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3998,12 +3974,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4018,17 +3994,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>25.09.2025 03:33</t>
+          <t>12.08.2025 07:42</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.1705</v>
+        <v>6.5548</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>117.05</v>
+        <v>655.48</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -4037,70 +4013,74 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.55</v>
+        <v>3.96</v>
       </c>
       <c r="L78" t="n">
-        <v>7.23</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>30.08.2025 20:24</t>
+          <t>04.07.2025 19:29</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.5842000000000001</v>
+        <v>5.7431</v>
       </c>
       <c r="G79" t="n">
-        <v>191.9</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>112.11</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8064</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4110,17 +4090,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31.07.2025 15:36</t>
+          <t>24.10.2025 06:52</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.2164</v>
+        <v>0.876</v>
       </c>
       <c r="G80" t="n">
-        <v>119.2</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>25.79</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -4128,23 +4108,27 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.95</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4154,17 +4138,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>06.09.2025 03:42</t>
+          <t>25.09.2025 13:46</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6.7761</v>
+        <v>2.3823</v>
       </c>
       <c r="G81" t="n">
-        <v>100</v>
+        <v>109.75</v>
       </c>
       <c r="H81" t="n">
-        <v>677.61</v>
+        <v>261.46</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -4172,12 +4156,8 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K81" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.19</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4202,23 +4182,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>27.08.2025 17:18</t>
+          <t>08.10.2025 12:39</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5.82</v>
+        <v>9.6075</v>
       </c>
       <c r="G82" t="n">
-        <v>188.83</v>
+        <v>161.71</v>
       </c>
       <c r="H82" t="n">
-        <v>1098.99</v>
+        <v>1553.63</v>
       </c>
       <c r="I82" t="n">
-        <v>3.0369</v>
+        <v>1.8228</v>
       </c>
       <c r="J82" t="n">
-        <v>-3.44</v>
+        <v>-6.33</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
@@ -4226,17 +4206,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4246,17 +4226,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>18.09.2025 04:21</t>
+          <t>23.09.2025 09:40</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.9323</v>
+        <v>9.0443</v>
       </c>
       <c r="G83" t="n">
-        <v>100</v>
+        <v>127.77</v>
       </c>
       <c r="H83" t="n">
-        <v>293.23</v>
+        <v>1155.59</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -4264,27 +4244,23 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4294,17 +4270,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18.10.2025 12:34</t>
+          <t>22.08.2025 18:25</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5.5467</v>
+        <v>7.6998</v>
       </c>
       <c r="G84" t="n">
-        <v>85.94</v>
+        <v>62.17</v>
       </c>
       <c r="H84" t="n">
-        <v>476.68</v>
+        <v>478.7</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -4318,12 +4294,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4338,17 +4314,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>29.08.2025 03:22</t>
+          <t>22.09.2025 15:10</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.2217</v>
+        <v>7.1302</v>
       </c>
       <c r="G85" t="n">
         <v>100</v>
       </c>
       <c r="H85" t="n">
-        <v>322.17</v>
+        <v>713.02</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -4357,26 +4333,26 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>3.76</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>9.24</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4386,17 +4362,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>23.09.2025 09:36</t>
+          <t>28.09.2025 07:19</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.7078</v>
+        <v>3.594</v>
       </c>
       <c r="G86" t="n">
-        <v>48.97</v>
+        <v>103.98</v>
       </c>
       <c r="H86" t="n">
-        <v>230.54</v>
+        <v>373.7</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -4410,17 +4386,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4430,17 +4406,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>24.10.2025 08:38</t>
+          <t>06.07.2025 01:10</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9.961600000000001</v>
+        <v>9.155200000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>100</v>
+        <v>97.87</v>
       </c>
       <c r="H87" t="n">
-        <v>996.16</v>
+        <v>896.02</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -4448,71 +4424,71 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
-      <c r="K87" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>23.10.2025 13:29</t>
+          <t>12.09.2025 09:26</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9.4208</v>
+        <v>8.586399999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>126.37</v>
+        <v>100</v>
       </c>
       <c r="H88" t="n">
-        <v>1190.51</v>
+        <v>858.64</v>
       </c>
       <c r="I88" t="n">
-        <v>3.9266</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>-8.81</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4522,17 +4498,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>18.09.2025 21:51</t>
+          <t>16.09.2025 03:50</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.5258</v>
+        <v>3.262</v>
       </c>
       <c r="G89" t="n">
-        <v>198.24</v>
+        <v>100</v>
       </c>
       <c r="H89" t="n">
-        <v>500.71</v>
+        <v>326.2</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -4540,67 +4516,75 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L89" t="n">
+        <v>8.23</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21.07.2025 02:29</t>
+          <t>27.09.2025 14:47</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>-0.0706</v>
+        <v>3.3291</v>
       </c>
       <c r="G90" t="n">
-        <v>156.13</v>
+        <v>100</v>
       </c>
       <c r="H90" t="n">
-        <v>-11.02</v>
+        <v>332.91</v>
       </c>
       <c r="I90" t="n">
-        <v>2.6207</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>-5.98</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4610,17 +4594,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>22.08.2025 02:50</t>
+          <t>22.09.2025 19:30</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4.6927</v>
+        <v>8.634499999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>145.72</v>
+        <v>100</v>
       </c>
       <c r="H91" t="n">
-        <v>683.8200000000001</v>
+        <v>863.45</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -4628,71 +4612,71 @@
       <c r="J91" t="n">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>22.07.2025 13:02</t>
+          <t>07.08.2025 20:54</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>7.8975</v>
+        <v>8.7797</v>
       </c>
       <c r="G92" t="n">
-        <v>100</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>789.75</v>
+        <v>571.03</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2.3961</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.81</v>
-      </c>
+        <v>-2.41</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4702,17 +4686,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>29.08.2025 12:38</t>
+          <t>31.07.2025 13:41</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8.9879</v>
+        <v>3.3774</v>
       </c>
       <c r="G93" t="n">
-        <v>100</v>
+        <v>38.95</v>
       </c>
       <c r="H93" t="n">
-        <v>898.79</v>
+        <v>131.55</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -4720,22 +4704,18 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4750,17 +4730,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>02.07.2025 19:52</t>
+          <t>18.09.2025 20:42</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>-0.224</v>
+        <v>5.118</v>
       </c>
       <c r="G94" t="n">
         <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>-22.4</v>
+        <v>511.8</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -4769,96 +4749,100 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2.77</v>
+        <v>2.12</v>
       </c>
       <c r="L94" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>30.08.2025 01:53</t>
+          <t>07.10.2025 14:01</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6.8117</v>
+        <v>2.6859</v>
       </c>
       <c r="G95" t="n">
-        <v>173.71</v>
+        <v>100</v>
       </c>
       <c r="H95" t="n">
-        <v>1183.26</v>
+        <v>268.59</v>
       </c>
       <c r="I95" t="n">
-        <v>3.0111</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.220000000000001</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>25.10.2025 09:53</t>
+          <t>20.08.2025 03:41</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.4875</v>
+        <v>3.2903</v>
       </c>
       <c r="G96" t="n">
-        <v>41.85</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>20.4</v>
+        <v>287.87</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2.633</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>-6.47</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4866,65 +4850,61 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>04.08.2025 19:57</t>
+          <t>09.08.2025 12:11</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9.544499999999999</v>
+        <v>3.8455</v>
       </c>
       <c r="G97" t="n">
-        <v>100</v>
+        <v>42.31</v>
       </c>
       <c r="H97" t="n">
-        <v>954.45</v>
+        <v>162.7</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2.1824</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="L97" t="n">
-        <v>7.37</v>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>SHARE</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4934,17 +4914,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>22.07.2025 16:07</t>
+          <t>14.08.2025 08:54</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4.7841</v>
+        <v>3.4313</v>
       </c>
       <c r="G98" t="n">
-        <v>100</v>
+        <v>190.71</v>
       </c>
       <c r="H98" t="n">
-        <v>478.41</v>
+        <v>654.38</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4952,27 +4932,23 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="L98" t="n">
-        <v>6.83</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4982,17 +4958,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>19.08.2025 21:37</t>
+          <t>05.07.2025 19:04</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7.5563</v>
+        <v>8.142899999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>127.2</v>
+        <v>177.55</v>
       </c>
       <c r="H99" t="n">
-        <v>961.16</v>
+        <v>1445.77</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -5006,17 +4982,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5026,23 +5002,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>23.07.2025 14:39</t>
+          <t>21.07.2025 17:05</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5.677</v>
+        <v>4.1176</v>
       </c>
       <c r="G100" t="n">
-        <v>120.58</v>
+        <v>191.46</v>
       </c>
       <c r="H100" t="n">
-        <v>684.53</v>
+        <v>788.36</v>
       </c>
       <c r="I100" t="n">
-        <v>3.6878</v>
+        <v>2.0236</v>
       </c>
       <c r="J100" t="n">
-        <v>-3.75</v>
+        <v>-9.99</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -5050,17 +5026,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5070,17 +5046,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>12.07.2025 09:27</t>
+          <t>23.07.2025 21:51</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9.622299999999999</v>
+        <v>5.3216</v>
       </c>
       <c r="G101" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>120.28</v>
+        <v>532.16</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -5088,8 +5064,12 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>03.10.2025 23:11</t>
+          <t>28.09.2025 19:12</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.5412</v>
+        <v>9.686500000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>93.45999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>891.72</v>
+        <v>968.65</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -536,119 +536,115 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.07.2025 12:43</t>
+          <t>06.10.2025 17:09</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8829</v>
+        <v>7.7577</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>185.32</v>
       </c>
       <c r="H3" t="n">
-        <v>88.29000000000001</v>
+        <v>1437.66</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2.3056</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.19</v>
-      </c>
+        <v>0.82</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01.08.2025 11:13</t>
+          <t>27.08.2025 11:14</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8659</v>
+        <v>6.7799</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>156.04</v>
       </c>
       <c r="H4" t="n">
-        <v>686.59</v>
+        <v>1057.94</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2.1537</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.18</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -658,17 +654,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02.10.2025 16:16</t>
+          <t>14.10.2025 01:52</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6329</v>
+        <v>8.5708</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>106.4</v>
       </c>
       <c r="H5" t="n">
-        <v>363.29</v>
+        <v>911.9299999999999</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -676,27 +672,23 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.94</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -706,17 +698,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>02.09.2025 07:53</t>
+          <t>06.07.2025 19:04</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.5342</v>
+        <v>7.8052</v>
       </c>
       <c r="G6" t="n">
-        <v>25.6</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>167.28</v>
+        <v>780.52</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -724,18 +716,22 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -750,17 +746,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15.10.2025 04:19</t>
+          <t>20.08.2025 21:03</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.661</v>
+        <v>2.6341</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>66.09999999999999</v>
+        <v>263.41</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -769,21 +765,21 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.61</v>
+        <v>2.53</v>
       </c>
       <c r="L7" t="n">
-        <v>1.04</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -798,17 +794,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.10.2025 22:31</t>
+          <t>24.07.2025 14:24</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.6477</v>
+        <v>8.171900000000001</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>864.77</v>
+        <v>817.1900000000001</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -817,26 +813,26 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.68</v>
+        <v>2.49</v>
       </c>
       <c r="L8" t="n">
-        <v>7.28</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -846,23 +842,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.10.2025 09:48</t>
+          <t>03.09.2025 02:04</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3386</v>
+        <v>0.9649</v>
       </c>
       <c r="G9" t="n">
-        <v>71.06</v>
+        <v>184.03</v>
       </c>
       <c r="H9" t="n">
-        <v>379.36</v>
+        <v>177.57</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6078</v>
+        <v>2.1684</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.99</v>
+        <v>-2.28</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -870,43 +866,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14.08.2025 21:20</t>
+          <t>13.07.2025 01:22</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7876</v>
+        <v>9.0154</v>
       </c>
       <c r="G10" t="n">
-        <v>83.33</v>
+        <v>96.34</v>
       </c>
       <c r="H10" t="n">
-        <v>65.63</v>
+        <v>868.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3.3148</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-9.02</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -914,12 +910,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,17 +930,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.09.2025 01:51</t>
+          <t>25.09.2025 08:51</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8983</v>
+        <v>2.7743</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>89.83</v>
+        <v>277.43</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -953,26 +949,26 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3.72</v>
+        <v>2.01</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -982,23 +978,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>03.08.2025 23:25</t>
+          <t>27.09.2025 18:04</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3961</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>167.96</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>570.41</v>
+        <v>7.91</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3337</v>
+        <v>3.8117</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.82</v>
+        <v>-8.74</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1006,12 +1002,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1026,17 +1022,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>06.08.2025 04:23</t>
+          <t>27.10.2025 02:43</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.0516</v>
+        <v>2.6996</v>
       </c>
       <c r="G13" t="n">
         <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>605.16</v>
+        <v>269.96</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1045,26 +1041,26 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.96</v>
       </c>
       <c r="L13" t="n">
-        <v>2.29</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1074,23 +1070,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.07.2025 08:44</t>
+          <t>05.10.2025 13:03</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2822</v>
+        <v>8.004300000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>53.76</v>
+        <v>129.31</v>
       </c>
       <c r="H14" t="n">
-        <v>176.45</v>
+        <v>1035.04</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4413</v>
+        <v>3.8143</v>
       </c>
       <c r="J14" t="n">
-        <v>-6.18</v>
+        <v>-8.35</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1118,17 +1114,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.10.2025 05:23</t>
+          <t>16.10.2025 09:50</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.7781</v>
+        <v>2.5678</v>
       </c>
       <c r="G15" t="n">
         <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>677.8099999999999</v>
+        <v>256.78</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1137,52 +1133,52 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>0.93</v>
       </c>
       <c r="L15" t="n">
-        <v>3.77</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.10.2025 01:29</t>
+          <t>06.08.2025 14:37</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.1551</v>
+        <v>9.210900000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>82.94</v>
+        <v>28.13</v>
       </c>
       <c r="H16" t="n">
-        <v>344.62</v>
+        <v>259.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6201</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.92</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1190,17 +1186,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1210,17 +1206,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12.07.2025 17:15</t>
+          <t>10.08.2025 22:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2507</v>
+        <v>5.4092</v>
       </c>
       <c r="G17" t="n">
-        <v>43.93</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>54.94</v>
+        <v>540.92</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1228,71 +1224,71 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.07</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28.07.2025 19:02</t>
+          <t>02.07.2025 19:21</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.144299999999999</v>
+        <v>8.536199999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>133.93</v>
       </c>
       <c r="H18" t="n">
-        <v>814.4299999999999</v>
+        <v>1143.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2.0961</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.58</v>
-      </c>
+        <v>-0.33</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1302,17 +1298,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29.07.2025 05:35</t>
+          <t>19.08.2025 05:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.1636</v>
+        <v>0.5323</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>37.42</v>
       </c>
       <c r="H19" t="n">
-        <v>116.36</v>
+        <v>19.92</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1320,66 +1316,66 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.05</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30.09.2025 06:32</t>
+          <t>02.07.2025 20:11</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1731</v>
+        <v>4.591</v>
       </c>
       <c r="G20" t="n">
-        <v>94.94</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>301.25</v>
+        <v>459.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2955</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1394,17 +1390,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>03.07.2025 23:08</t>
+          <t>08.07.2025 00:08</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2298</v>
+        <v>0.1553</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>522.98</v>
+        <v>15.53</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1413,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="L21" t="n">
-        <v>4.04</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="22">
@@ -1442,17 +1438,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07.08.2025 13:13</t>
+          <t>25.08.2025 21:27</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>4.5026</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>450.26</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1461,26 +1457,26 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.13</v>
+        <v>3.64</v>
       </c>
       <c r="L22" t="n">
-        <v>7.9</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1490,17 +1486,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25.07.2025 06:27</t>
+          <t>19.07.2025 12:37</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3884</v>
+        <v>7.7836</v>
       </c>
       <c r="G23" t="n">
-        <v>47.46</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>18.43</v>
+        <v>778.36</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1508,18 +1504,22 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1529,28 +1529,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>02.08.2025 15:46</t>
+          <t>05.07.2025 10:32</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1175</v>
+        <v>4.1121</v>
       </c>
       <c r="G24" t="n">
-        <v>163.14</v>
+        <v>127.48</v>
       </c>
       <c r="H24" t="n">
-        <v>19.17</v>
+        <v>524.21</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7301</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>-8.67</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1558,17 +1558,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1578,17 +1578,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>30.09.2025 16:10</t>
+          <t>19.07.2025 12:51</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.3118</v>
+        <v>3.6993</v>
       </c>
       <c r="G25" t="n">
-        <v>28.28</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>150.22</v>
+        <v>369.93</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1596,115 +1596,119 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.47</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>03.07.2025 19:12</t>
+          <t>13.10.2025 01:31</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8.092599999999999</v>
+        <v>8.195600000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>43.26</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>350.09</v>
+        <v>819.5599999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>3.304</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.07.2025 14:57</t>
+          <t>27.07.2025 22:52</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2447</v>
+        <v>5.7666</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>28.76</v>
       </c>
       <c r="H27" t="n">
-        <v>324.47</v>
+        <v>165.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3.5237</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7.86</v>
-      </c>
+        <v>-5.31</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1714,17 +1718,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.08.2025 02:53</t>
+          <t>14.10.2025 06:17</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.3253</v>
+        <v>1.8821</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>161.33</v>
       </c>
       <c r="H28" t="n">
-        <v>432.53</v>
+        <v>303.64</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1732,22 +1736,18 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1762,17 +1762,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>24.09.2025 01:33</t>
+          <t>04.09.2025 02:25</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8.7963</v>
+        <v>2.4475</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>879.63</v>
+        <v>244.75</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="L29" t="n">
-        <v>4.91</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.08.2025 01:14</t>
+          <t>06.07.2025 01:17</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.4396</v>
+        <v>5.7532</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>43.96</v>
+        <v>575.3200000000001</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1829,26 +1829,26 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.03</v>
+        <v>2.48</v>
       </c>
       <c r="L30" t="n">
-        <v>0.74</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07.10.2025 04:53</t>
+          <t>18.09.2025 23:22</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3932</v>
+        <v>9.1152</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>131.81</v>
       </c>
       <c r="H31" t="n">
-        <v>239.32</v>
+        <v>1201.47</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1876,27 +1876,23 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="L31" t="n">
-        <v>8.19</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1906,23 +1902,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>05.10.2025 11:44</t>
+          <t>04.10.2025 07:58</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.2496</v>
+        <v>7.3001</v>
       </c>
       <c r="G32" t="n">
-        <v>103.41</v>
+        <v>197.77</v>
       </c>
       <c r="H32" t="n">
-        <v>439.45</v>
+        <v>1443.74</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6111</v>
+        <v>1.3039</v>
       </c>
       <c r="J32" t="n">
-        <v>-9.26</v>
+        <v>1.35</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1930,17 +1926,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1950,17 +1946,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28.07.2025 20:54</t>
+          <t>23.07.2025 17:44</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.0436</v>
+        <v>9.041</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>163.55</v>
       </c>
       <c r="H33" t="n">
-        <v>604.36</v>
+        <v>1478.66</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1968,71 +1964,71 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.13</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>26.10.2025 09:55</t>
+          <t>08.10.2025 16:58</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.3435</v>
+        <v>5.043</v>
       </c>
       <c r="G34" t="n">
-        <v>76.54000000000001</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>332.45</v>
+        <v>504.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7192</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2042,17 +2038,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>29.07.2025 19:39</t>
+          <t>11.07.2025 23:34</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.5093</v>
+        <v>0.0378</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>36.56</v>
       </c>
       <c r="H35" t="n">
-        <v>550.9299999999999</v>
+        <v>1.38</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2060,22 +2056,18 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.49</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2090,17 +2082,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27.09.2025 01:56</t>
+          <t>15.09.2025 14:49</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.3755</v>
+        <v>2.7349</v>
       </c>
       <c r="G36" t="n">
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>137.55</v>
+        <v>273.49</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2109,26 +2101,26 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.96</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
-        <v>0.97</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2138,17 +2130,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22.10.2025 12:58</t>
+          <t>22.09.2025 15:11</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8467</v>
+        <v>9.962999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>40.97</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>34.69</v>
+        <v>996.3</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2156,18 +2148,22 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8.460000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2182,17 +2178,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18.08.2025 01:31</t>
+          <t>28.08.2025 15:10</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.2732</v>
+        <v>9.094799999999999</v>
       </c>
       <c r="G38" t="n">
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>127.32</v>
+        <v>909.48</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -2201,26 +2197,26 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>3.44</v>
+        <v>2.37</v>
       </c>
       <c r="L38" t="n">
-        <v>5.93</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2230,17 +2226,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10.07.2025 21:18</t>
+          <t>11.08.2025 18:53</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.4225</v>
+        <v>3.5794</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88</v>
+        <v>181.7</v>
       </c>
       <c r="H39" t="n">
-        <v>592.91</v>
+        <v>650.38</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2254,17 +2250,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2274,17 +2270,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>02.08.2025 17:08</t>
+          <t>07.08.2025 14:36</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6224</v>
+        <v>1.2085</v>
       </c>
       <c r="G40" t="n">
-        <v>59.31</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>155.53</v>
+        <v>120.85</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2292,23 +2288,27 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2318,23 +2318,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>01.09.2025 02:36</t>
+          <t>22.08.2025 04:44</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9.889699999999999</v>
+        <v>5.1015</v>
       </c>
       <c r="G41" t="n">
-        <v>156.51</v>
+        <v>178.17</v>
       </c>
       <c r="H41" t="n">
-        <v>1547.84</v>
+        <v>908.9299999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9697</v>
+        <v>1.2334</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.39</v>
+        <v>-0.84</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2342,17 +2342,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2362,23 +2362,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>24.10.2025 20:19</t>
+          <t>28.07.2025 08:37</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.7251</v>
+        <v>9.480700000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>49.32</v>
+        <v>62.6</v>
       </c>
       <c r="H42" t="n">
-        <v>331.68</v>
+        <v>593.49</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7919</v>
+        <v>2.266</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.54</v>
+        <v>-4.84</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2386,43 +2386,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>26.07.2025 18:26</t>
+          <t>31.07.2025 21:21</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1814</v>
+        <v>9.8407</v>
       </c>
       <c r="G43" t="n">
-        <v>154.41</v>
+        <v>62.77</v>
       </c>
       <c r="H43" t="n">
-        <v>28.01</v>
+        <v>617.7</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>1.1919</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-9.73</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2430,65 +2430,61 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30.08.2025 15:20</t>
+          <t>01.10.2025 19:17</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9.432399999999999</v>
+        <v>1.4281</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>42.75</v>
       </c>
       <c r="H44" t="n">
-        <v>943.24</v>
+        <v>61.05</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>1.6984</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.19</v>
-      </c>
+        <v>-9.67</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2498,17 +2494,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>05.09.2025 12:50</t>
+          <t>17.08.2025 01:31</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6.4851</v>
+        <v>6.2567</v>
       </c>
       <c r="G45" t="n">
-        <v>112.61</v>
+        <v>102.58</v>
       </c>
       <c r="H45" t="n">
-        <v>730.29</v>
+        <v>641.8099999999999</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2522,12 +2518,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,17 +2538,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>27.08.2025 05:10</t>
+          <t>24.08.2025 00:57</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.2578</v>
+        <v>4.686</v>
       </c>
       <c r="G46" t="n">
         <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>225.78</v>
+        <v>468.6</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -2561,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.81</v>
+        <v>3.96</v>
       </c>
       <c r="L46" t="n">
-        <v>3.38</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="47">
@@ -2590,23 +2586,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>28.08.2025 16:30</t>
+          <t>17.10.2025 09:00</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>9.116300000000001</v>
+        <v>5.1402</v>
       </c>
       <c r="G47" t="n">
-        <v>73.58</v>
+        <v>77.7</v>
       </c>
       <c r="H47" t="n">
-        <v>670.78</v>
+        <v>399.39</v>
       </c>
       <c r="I47" t="n">
-        <v>1.1575</v>
+        <v>3.0229</v>
       </c>
       <c r="J47" t="n">
-        <v>0.57</v>
+        <v>-0.77</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2614,17 +2610,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2634,17 +2630,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24.09.2025 20:53</t>
+          <t>27.10.2025 21:10</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.2208</v>
+        <v>5.8851</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>158.17</v>
       </c>
       <c r="H48" t="n">
-        <v>722.08</v>
+        <v>930.85</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2652,71 +2648,71 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.53</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10.07.2025 16:42</t>
+          <t>18.07.2025 22:44</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.0381</v>
+        <v>8.761799999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>78.22</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>2.98</v>
+        <v>876.1799999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5413</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>-6.65</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2726,17 +2722,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>04.07.2025 20:31</t>
+          <t>15.09.2025 01:46</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8.3413</v>
+        <v>6.8892</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>56.57</v>
       </c>
       <c r="H50" t="n">
-        <v>834.13</v>
+        <v>389.72</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2744,17 +2740,13 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9.73</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2774,17 +2766,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>16.09.2025 03:30</t>
+          <t>17.07.2025 01:09</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9794</v>
+        <v>2.1267</v>
       </c>
       <c r="G51" t="n">
         <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>97.94</v>
+        <v>212.67</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2793,26 +2785,26 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="L51" t="n">
-        <v>6.97</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2822,17 +2814,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>28.08.2025 11:33</t>
+          <t>06.08.2025 03:20</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.3581</v>
+        <v>0.7254</v>
       </c>
       <c r="G52" t="n">
-        <v>10.53</v>
+        <v>16.36</v>
       </c>
       <c r="H52" t="n">
-        <v>45.89</v>
+        <v>11.87</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2846,17 +2838,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2866,17 +2858,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14.07.2025 02:31</t>
+          <t>31.07.2025 17:59</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.1736</v>
+        <v>9.547700000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>179.2</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>389.51</v>
+        <v>954.77</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2884,115 +2876,119 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18.10.2025 02:27</t>
+          <t>20.09.2025 13:16</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.6411</v>
+        <v>5.1901</v>
       </c>
       <c r="G54" t="n">
-        <v>43.56</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>158.61</v>
+        <v>519.01</v>
       </c>
       <c r="I54" t="n">
-        <v>2.274</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>-7.32</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>24.10.2025 20:15</t>
+          <t>28.08.2025 21:29</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.8555</v>
+        <v>7.8945</v>
       </c>
       <c r="G55" t="n">
-        <v>100</v>
+        <v>98.37</v>
       </c>
       <c r="H55" t="n">
-        <v>185.55</v>
+        <v>776.58</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3.2296</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9.880000000000001</v>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3002,17 +2998,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10.09.2025 09:12</t>
+          <t>23.09.2025 03:45</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7.1565</v>
+        <v>6.2995</v>
       </c>
       <c r="G56" t="n">
-        <v>151.7</v>
+        <v>100</v>
       </c>
       <c r="H56" t="n">
-        <v>1085.64</v>
+        <v>629.95</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -3020,8 +3016,12 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9.52</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>24.09.2025 01:59</t>
+          <t>02.09.2025 07:43</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.6314</v>
+        <v>1.4154</v>
       </c>
       <c r="G57" t="n">
         <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>63.14</v>
+        <v>141.54</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>2.13</v>
+        <v>0.67</v>
       </c>
       <c r="L57" t="n">
-        <v>5.81</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="58">
@@ -3094,17 +3094,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>18.07.2025 01:10</t>
+          <t>15.08.2025 14:53</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9.5276</v>
+        <v>3.6742</v>
       </c>
       <c r="G58" t="n">
         <v>100</v>
       </c>
       <c r="H58" t="n">
-        <v>952.76</v>
+        <v>367.42</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.9</v>
+        <v>0.59</v>
       </c>
       <c r="L58" t="n">
-        <v>7.29</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="59">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3142,17 +3142,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>01.10.2025 05:32</t>
+          <t>17.10.2025 17:42</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8.2264</v>
+        <v>1.2823</v>
       </c>
       <c r="G59" t="n">
-        <v>108.14</v>
+        <v>69.67</v>
       </c>
       <c r="H59" t="n">
-        <v>889.6</v>
+        <v>89.34</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -3166,65 +3166,61 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>03.08.2025 05:42</t>
+          <t>24.09.2025 05:05</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8.8317</v>
+        <v>4.2337</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>17.31</v>
       </c>
       <c r="H60" t="n">
-        <v>883.17</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>1.2688</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9.640000000000001</v>
-      </c>
+        <v>-6.67</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3234,23 +3230,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>16.08.2025 12:51</t>
+          <t>23.10.2025 12:54</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7.5096</v>
+        <v>6.75</v>
       </c>
       <c r="G61" t="n">
-        <v>143.42</v>
+        <v>126.98</v>
       </c>
       <c r="H61" t="n">
-        <v>1077.03</v>
+        <v>857.12</v>
       </c>
       <c r="I61" t="n">
-        <v>3.4607</v>
+        <v>2.3774</v>
       </c>
       <c r="J61" t="n">
-        <v>-2.92</v>
+        <v>-3.69</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -3278,17 +3274,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14.07.2025 20:03</t>
+          <t>28.07.2025 23:48</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8.1488</v>
+        <v>5.9142</v>
       </c>
       <c r="G62" t="n">
-        <v>32.3</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>263.21</v>
+        <v>428.37</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -3302,43 +3298,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>12.07.2025 14:01</t>
+          <t>29.09.2025 20:00</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1269</v>
+        <v>2.256</v>
       </c>
       <c r="G63" t="n">
-        <v>37.62</v>
+        <v>134.93</v>
       </c>
       <c r="H63" t="n">
-        <v>4.77</v>
+        <v>304.4</v>
       </c>
       <c r="I63" t="n">
-        <v>1.2782</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -3346,17 +3342,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3366,17 +3362,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>03.10.2025 23:40</t>
+          <t>13.10.2025 06:25</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7.5674</v>
+        <v>8.5047</v>
       </c>
       <c r="G64" t="n">
-        <v>197.53</v>
+        <v>100</v>
       </c>
       <c r="H64" t="n">
-        <v>1494.79</v>
+        <v>850.47</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -3384,23 +3380,27 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.96</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>17.09.2025 20:18</t>
+          <t>11.07.2025 08:19</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7.7398</v>
+        <v>8.899699999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>23.33</v>
       </c>
       <c r="H65" t="n">
-        <v>773.98</v>
+        <v>207.63</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3428,22 +3428,18 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3453,28 +3449,28 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>26.08.2025 14:14</t>
+          <t>18.10.2025 05:04</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5.7069</v>
+        <v>4.8031</v>
       </c>
       <c r="G66" t="n">
-        <v>104.88</v>
+        <v>142.39</v>
       </c>
       <c r="H66" t="n">
-        <v>598.54</v>
+        <v>683.91</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>1.804</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-2.77</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3482,7 +3478,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3502,17 +3498,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>01.08.2025 02:33</t>
+          <t>17.08.2025 15:00</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4.3178</v>
+        <v>5.8268</v>
       </c>
       <c r="G67" t="n">
         <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>431.78</v>
+        <v>582.6799999999999</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3521,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1.15</v>
+        <v>2.68</v>
       </c>
       <c r="L67" t="n">
-        <v>4.78</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -3550,23 +3546,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>30.07.2025 21:19</t>
+          <t>12.09.2025 06:13</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8.789400000000001</v>
+        <v>1.5074</v>
       </c>
       <c r="G68" t="n">
-        <v>93.41</v>
+        <v>169.68</v>
       </c>
       <c r="H68" t="n">
-        <v>821.02</v>
+        <v>255.78</v>
       </c>
       <c r="I68" t="n">
-        <v>1.0135</v>
+        <v>3.9674</v>
       </c>
       <c r="J68" t="n">
-        <v>-4.76</v>
+        <v>-3.55</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3574,135 +3570,135 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>19.09.2025 13:07</t>
+          <t>17.09.2025 22:49</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>9.419499999999999</v>
+        <v>1.3289</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H69" t="n">
-        <v>941.95</v>
+        <v>160.8</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2.4681</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.06</v>
-      </c>
+        <v>-2.98</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17.09.2025 07:13</t>
+          <t>09.09.2025 16:35</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.9459</v>
+        <v>1.7687</v>
       </c>
       <c r="G70" t="n">
-        <v>37.23</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>72.45</v>
+        <v>176.87</v>
       </c>
       <c r="I70" t="n">
-        <v>2.6914</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>-8.960000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.35</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>03.09.2025 12:02</t>
+          <t>30.07.2025 15:15</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.3472</v>
+        <v>3.7707</v>
       </c>
       <c r="G71" t="n">
-        <v>37.57</v>
+        <v>147.04</v>
       </c>
       <c r="H71" t="n">
-        <v>163.32</v>
+        <v>554.4400000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2.1707</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3710,149 +3706,161 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17.07.2025 19:19</t>
+          <t>27.07.2025 23:13</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.0258</v>
+        <v>4.4612</v>
       </c>
       <c r="G72" t="n">
-        <v>46.67</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>1.2</v>
+        <v>446.12</v>
       </c>
       <c r="I72" t="n">
-        <v>2.8329</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13.10.2025 19:04</t>
+          <t>13.10.2025 14:27</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8968</v>
+        <v>1.9481</v>
       </c>
       <c r="G73" t="n">
-        <v>181.61</v>
+        <v>100</v>
       </c>
       <c r="H73" t="n">
-        <v>162.87</v>
+        <v>194.81</v>
       </c>
       <c r="I73" t="n">
-        <v>1.487</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>-7.51</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15.10.2025 21:58</t>
+          <t>21.07.2025 19:04</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>9.236700000000001</v>
+        <v>3.7347</v>
       </c>
       <c r="G74" t="n">
-        <v>84.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H74" t="n">
-        <v>778.1</v>
+        <v>373.47</v>
       </c>
       <c r="I74" t="n">
-        <v>2.6387</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3862,17 +3870,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>28.09.2025 06:57</t>
+          <t>08.10.2025 17:52</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8.576499999999999</v>
+        <v>1.0401</v>
       </c>
       <c r="G75" t="n">
-        <v>50.62</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
-        <v>434.14</v>
+        <v>104.01</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -3880,8 +3888,12 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.72</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3896,7 +3908,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3906,17 +3918,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>22.09.2025 03:29</t>
+          <t>22.10.2025 15:25</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9.731199999999999</v>
+        <v>9.292400000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>61.98</v>
+        <v>177.05</v>
       </c>
       <c r="H76" t="n">
-        <v>603.14</v>
+        <v>1645.22</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -3930,17 +3942,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3950,17 +3962,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>28.10.2025 05:33</t>
+          <t>07.07.2025 06:41</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.4951</v>
+        <v>5.9497</v>
       </c>
       <c r="G77" t="n">
-        <v>72.22</v>
+        <v>152.7</v>
       </c>
       <c r="H77" t="n">
-        <v>396.86</v>
+        <v>908.52</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -3974,12 +3986,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3994,17 +4006,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12.08.2025 07:42</t>
+          <t>30.09.2025 12:11</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6.5548</v>
+        <v>5.9886</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>655.48</v>
+        <v>598.86</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -4013,21 +4025,21 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>3.96</v>
+        <v>3.45</v>
       </c>
       <c r="L78" t="n">
-        <v>8.539999999999999</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4042,17 +4054,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>04.07.2025 19:29</t>
+          <t>07.07.2025 08:14</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.7431</v>
+        <v>3.9175</v>
       </c>
       <c r="G79" t="n">
         <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>574.3099999999999</v>
+        <v>391.75</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -4061,21 +4073,21 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.72</v>
+        <v>3.27</v>
       </c>
       <c r="L79" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4090,17 +4102,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>24.10.2025 06:52</t>
+          <t>06.09.2025 04:20</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.876</v>
+        <v>7.6072</v>
       </c>
       <c r="G80" t="n">
         <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>87.59999999999999</v>
+        <v>760.72</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -4109,26 +4121,26 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>3.69</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>7.95</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4138,17 +4150,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>25.09.2025 13:46</t>
+          <t>16.08.2025 06:02</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.3823</v>
+        <v>1.5994</v>
       </c>
       <c r="G81" t="n">
-        <v>109.75</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>261.46</v>
+        <v>159.94</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -4156,93 +4168,101 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9.58</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08.10.2025 12:39</t>
+          <t>13.08.2025 21:23</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>9.6075</v>
+        <v>3.4961</v>
       </c>
       <c r="G82" t="n">
-        <v>161.71</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>1553.63</v>
+        <v>349.61</v>
       </c>
       <c r="I82" t="n">
-        <v>1.8228</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>-6.33</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>23.09.2025 09:40</t>
+          <t>21.10.2025 21:09</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9.0443</v>
+        <v>7.0187</v>
       </c>
       <c r="G83" t="n">
-        <v>127.77</v>
+        <v>42.24</v>
       </c>
       <c r="H83" t="n">
-        <v>1155.59</v>
+        <v>296.47</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3.2138</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>-5.21</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -4250,43 +4270,43 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>22.08.2025 18:25</t>
+          <t>15.09.2025 08:19</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>7.6998</v>
+        <v>2.1941</v>
       </c>
       <c r="G84" t="n">
-        <v>62.17</v>
+        <v>127.25</v>
       </c>
       <c r="H84" t="n">
-        <v>478.7</v>
+        <v>279.2</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>3.574</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>-9.52</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -4294,17 +4314,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4314,17 +4334,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>22.09.2025 15:10</t>
+          <t>02.07.2025 07:46</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>7.1302</v>
+        <v>0.8578</v>
       </c>
       <c r="G85" t="n">
-        <v>100</v>
+        <v>40.08</v>
       </c>
       <c r="H85" t="n">
-        <v>713.02</v>
+        <v>34.38</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -4332,53 +4352,49 @@
       <c r="J85" t="n">
         <v>0</v>
       </c>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.09</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>28.09.2025 07:19</t>
+          <t>06.10.2025 08:54</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.594</v>
+        <v>9.651199999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>103.98</v>
+        <v>136.61</v>
       </c>
       <c r="H86" t="n">
-        <v>373.7</v>
+        <v>1318.45</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>3.8625</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>-1.48</v>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -4386,43 +4402,43 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>06.07.2025 01:10</t>
+          <t>14.10.2025 18:27</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9.155200000000001</v>
+        <v>5.4615</v>
       </c>
       <c r="G87" t="n">
-        <v>97.87</v>
+        <v>69.28</v>
       </c>
       <c r="H87" t="n">
-        <v>896.02</v>
+        <v>378.37</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2.3898</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>-5.67</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4430,113 +4446,105 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>12.09.2025 09:26</t>
+          <t>09.08.2025 10:54</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8.586399999999999</v>
+        <v>1.3806</v>
       </c>
       <c r="G88" t="n">
-        <v>100</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>858.64</v>
+        <v>89.41</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2.8509</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0.89</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>16.09.2025 03:50</t>
+          <t>05.09.2025 13:16</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.262</v>
+        <v>6.9464</v>
       </c>
       <c r="G89" t="n">
-        <v>100</v>
+        <v>149.53</v>
       </c>
       <c r="H89" t="n">
-        <v>326.2</v>
+        <v>1038.7</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2.1128</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="L89" t="n">
-        <v>8.23</v>
-      </c>
+        <v>1.99</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4546,17 +4554,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>27.09.2025 14:47</t>
+          <t>26.09.2025 02:26</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.3291</v>
+        <v>0.4527</v>
       </c>
       <c r="G90" t="n">
-        <v>100</v>
+        <v>107.49</v>
       </c>
       <c r="H90" t="n">
-        <v>332.91</v>
+        <v>48.66</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -4564,22 +4572,18 @@
       <c r="J90" t="n">
         <v>0</v>
       </c>
-      <c r="K90" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.38</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4594,17 +4598,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>22.09.2025 19:30</t>
+          <t>02.07.2025 17:45</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8.634499999999999</v>
+        <v>7.311</v>
       </c>
       <c r="G91" t="n">
         <v>100</v>
       </c>
       <c r="H91" t="n">
-        <v>863.45</v>
+        <v>731.1</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -4613,55 +4617,59 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="L91" t="n">
-        <v>3.68</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>07.08.2025 20:54</t>
+          <t>05.08.2025 09:26</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8.7797</v>
+        <v>2.5041</v>
       </c>
       <c r="G92" t="n">
-        <v>65.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H92" t="n">
-        <v>571.03</v>
+        <v>250.41</v>
       </c>
       <c r="I92" t="n">
-        <v>2.3961</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4686,17 +4694,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>31.07.2025 13:41</t>
+          <t>19.09.2025 07:11</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.3774</v>
+        <v>3.8226</v>
       </c>
       <c r="G93" t="n">
-        <v>38.95</v>
+        <v>113.99</v>
       </c>
       <c r="H93" t="n">
-        <v>131.55</v>
+        <v>435.74</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -4730,17 +4738,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>18.09.2025 20:42</t>
+          <t>04.09.2025 12:31</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5.118</v>
+        <v>7.7126</v>
       </c>
       <c r="G94" t="n">
         <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>511.8</v>
+        <v>771.26</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -4749,21 +4757,21 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2.12</v>
+        <v>3.65</v>
       </c>
       <c r="L94" t="n">
-        <v>3.43</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4778,17 +4786,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>07.10.2025 14:01</t>
+          <t>24.09.2025 03:57</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.6859</v>
+        <v>3.4813</v>
       </c>
       <c r="G95" t="n">
         <v>100</v>
       </c>
       <c r="H95" t="n">
-        <v>268.59</v>
+        <v>348.13</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -4797,52 +4805,52 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>2.93</v>
+        <v>2.45</v>
       </c>
       <c r="L95" t="n">
-        <v>8.220000000000001</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>20.08.2025 03:41</t>
+          <t>01.07.2025 12:06</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.2903</v>
+        <v>3.1855</v>
       </c>
       <c r="G96" t="n">
-        <v>87.48999999999999</v>
+        <v>192.78</v>
       </c>
       <c r="H96" t="n">
-        <v>287.87</v>
+        <v>614.1</v>
       </c>
       <c r="I96" t="n">
-        <v>2.633</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>-6.47</v>
+        <v>0</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4870,23 +4878,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09.08.2025 12:11</t>
+          <t>18.10.2025 14:56</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.8455</v>
+        <v>2.278</v>
       </c>
       <c r="G97" t="n">
-        <v>42.31</v>
+        <v>188.59</v>
       </c>
       <c r="H97" t="n">
-        <v>162.7</v>
+        <v>429.61</v>
       </c>
       <c r="I97" t="n">
-        <v>2.1824</v>
+        <v>3.5215</v>
       </c>
       <c r="J97" t="n">
-        <v>1.41</v>
+        <v>0.03</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4894,43 +4902,43 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SHARE</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>14.08.2025 08:54</t>
+          <t>02.07.2025 11:50</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3.4313</v>
+        <v>5.3788</v>
       </c>
       <c r="G98" t="n">
-        <v>190.71</v>
+        <v>168.72</v>
       </c>
       <c r="H98" t="n">
-        <v>654.38</v>
+        <v>907.51</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>1.3645</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>-3.01</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -4938,43 +4946,43 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>05.07.2025 19:04</t>
+          <t>21.09.2025 01:40</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>8.142899999999999</v>
+        <v>0.1725</v>
       </c>
       <c r="G99" t="n">
-        <v>177.55</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1445.77</v>
+        <v>13.23</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>3.6333</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4982,12 +4990,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4997,28 +5005,28 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>21.07.2025 17:05</t>
+          <t>28.10.2025 14:38</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4.1176</v>
+        <v>8.808999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>191.46</v>
+        <v>25.68</v>
       </c>
       <c r="H100" t="n">
-        <v>788.36</v>
+        <v>226.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2.0236</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.99</v>
+        <v>0</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -5026,17 +5034,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5046,17 +5054,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>23.07.2025 21:51</t>
+          <t>11.10.2025 20:11</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5.3216</v>
+        <v>8.680300000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>168.69</v>
       </c>
       <c r="H101" t="n">
-        <v>532.16</v>
+        <v>1464.28</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -5064,12 +5072,8 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.12</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_portfolio.xlsx
+++ b/sample_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CURRENCY TRANSACTION</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PRICE PER UNIT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TRANSACTION PRICE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CURRENCY CONVERSION RATE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CURRENCY CONVERSION COSTS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>COUPON RATE (%)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>INFLATION_FIRST_YEAR</t>
         </is>
@@ -498,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,30 +523,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.09.2025 19:12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9.686500000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21.08.2025 13:21</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>5.1753</v>
       </c>
       <c r="H2" t="n">
-        <v>968.65</v>
+        <v>140.79</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>728.63</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -566,85 +572,99 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06.10.2025 17:09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7.7577</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18.10.2025 05:04</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>185.32</v>
+        <v>9.309900000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1437.66</v>
+        <v>179.57</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3056</v>
+        <v>1671.78</v>
       </c>
       <c r="J3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>3.8332</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.25</v>
+      </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.08.2025 11:14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6.7799</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17.09.2025 02:51</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>156.04</v>
+        <v>3.7846</v>
       </c>
       <c r="H4" t="n">
-        <v>1057.94</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1537</v>
+        <v>378.46</v>
       </c>
       <c r="J4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -654,26 +674,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14.10.2025 01:52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8.5708</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.07.2025 01:04</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>106.4</v>
+        <v>7.1786</v>
       </c>
       <c r="H5" t="n">
-        <v>911.9299999999999</v>
+        <v>75.06</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>538.83</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,40 +723,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>06.07.2025 19:04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7.8052</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23.08.2025 17:50</t>
+        </is>
       </c>
       <c r="G6" t="n">
+        <v>1.0299</v>
+      </c>
+      <c r="H6" t="n">
         <v>100</v>
       </c>
-      <c r="H6" t="n">
-        <v>780.52</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>102.99</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.17</v>
+        <v>1.76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -746,45 +776,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.08.2025 21:03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.6341</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>05.07.2025 00:06</t>
+        </is>
       </c>
       <c r="G7" t="n">
+        <v>6.8253</v>
+      </c>
+      <c r="H7" t="n">
         <v>100</v>
       </c>
-      <c r="H7" t="n">
-        <v>263.41</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>682.53</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.32</v>
+        <v>1.83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -794,84 +829,94 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.07.2025 14:24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8.171900000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19.09.2025 16:15</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>7.0232</v>
       </c>
       <c r="H8" t="n">
-        <v>817.1900000000001</v>
+        <v>153.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>1076.87</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.470000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>03.09.2025 02:04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9649</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.07.2025 20:02</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>184.03</v>
+        <v>2.9247</v>
       </c>
       <c r="H9" t="n">
-        <v>177.57</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1684</v>
+        <v>292.47</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -881,31 +926,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13.07.2025 01:22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9.0154</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>29.10.2025 01:41</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>96.34</v>
+        <v>2.9818</v>
       </c>
       <c r="H10" t="n">
-        <v>868.54</v>
+        <v>40.57</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3148</v>
+        <v>120.97</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -930,89 +980,99 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.09.2025 08:51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.7743</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>03.09.2025 11:24</t>
+        </is>
       </c>
       <c r="G11" t="n">
+        <v>1.7032</v>
+      </c>
+      <c r="H11" t="n">
         <v>100</v>
       </c>
-      <c r="H11" t="n">
-        <v>277.43</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>170.32</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.92</v>
+        <v>1.68</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27.09.2025 18:04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.08690000000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>27.09.2025 09:53</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>91.06999999999999</v>
+        <v>9.657299999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>7.91</v>
+        <v>178.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8117</v>
+        <v>1725.76</v>
       </c>
       <c r="J12" t="n">
-        <v>-8.74</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1022,40 +1082,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27.10.2025 02:43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.6996</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>29.08.2025 08:43</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>6.7737</v>
       </c>
       <c r="H13" t="n">
-        <v>269.96</v>
+        <v>37.02</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>250.76</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1065,41 +1126,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>05.10.2025 13:03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8.004300000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>26.07.2025 09:27</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>129.31</v>
+        <v>2.1928</v>
       </c>
       <c r="H14" t="n">
-        <v>1035.04</v>
+        <v>127.94</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8143</v>
+        <v>280.55</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.35</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,40 +1180,45 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16.10.2025 09:50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.5678</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31.07.2025 02:24</t>
+        </is>
       </c>
       <c r="G15" t="n">
+        <v>9.4244</v>
+      </c>
+      <c r="H15" t="n">
         <v>100</v>
       </c>
-      <c r="H15" t="n">
-        <v>256.78</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>942.4400000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.78</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1157,31 +1228,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06.08.2025 14:37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9.210900000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13.10.2025 03:35</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>28.13</v>
+        <v>7.8596</v>
       </c>
       <c r="H16" t="n">
-        <v>259.1</v>
+        <v>58.83</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>462.38</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>2.8538</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.85</v>
+      </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1206,89 +1282,103 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.08.2025 22:00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5.4092</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>28.09.2025 15:15</t>
+        </is>
       </c>
       <c r="G17" t="n">
+        <v>4.756</v>
+      </c>
+      <c r="H17" t="n">
         <v>100</v>
       </c>
-      <c r="H17" t="n">
-        <v>540.92</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>475.6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.07</v>
+        <v>0.89</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02.07.2025 19:21</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8.536199999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>02.08.2025 19:09</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>133.93</v>
+        <v>2.3771</v>
       </c>
       <c r="H18" t="n">
-        <v>1143.25</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0961</v>
+        <v>237.71</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1298,36 +1388,45 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19.08.2025 05:00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5323</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30.09.2025 22:53</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>37.42</v>
+        <v>4.2613</v>
       </c>
       <c r="H19" t="n">
-        <v>19.92</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>426.13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1342,45 +1441,50 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>02.07.2025 20:11</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4.591</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>06.08.2025 02:36</t>
+        </is>
       </c>
       <c r="G20" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H20" t="n">
         <v>100</v>
       </c>
-      <c r="H20" t="n">
-        <v>459.1</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.78</v>
+        <v>2.55</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1390,45 +1494,46 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08.07.2025 00:08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1553</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>13.07.2025 23:05</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>4.5041</v>
       </c>
       <c r="H21" t="n">
-        <v>15.53</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>396.05</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1438,40 +1543,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25.08.2025 21:27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4.5026</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>06.07.2025 18:23</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>4.8864</v>
       </c>
       <c r="H22" t="n">
-        <v>450.26</v>
+        <v>21.47</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>104.91</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1486,74 +1592,84 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19.07.2025 12:37</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7.7836</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>29.10.2025 03:48</t>
+        </is>
       </c>
       <c r="G23" t="n">
+        <v>1.7406</v>
+      </c>
+      <c r="H23" t="n">
         <v>100</v>
       </c>
-      <c r="H23" t="n">
-        <v>778.36</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>174.06</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3.15</v>
+        <v>2.51</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>05.07.2025 10:32</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4.1121</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>04.07.2025 07:23</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>127.48</v>
+        <v>2.0241</v>
       </c>
       <c r="H24" t="n">
-        <v>524.21</v>
+        <v>79.23</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>160.37</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>2.5264</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.74</v>
+      </c>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1578,45 +1694,50 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19.07.2025 12:51</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3.6993</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19.08.2025 20:44</t>
+        </is>
       </c>
       <c r="G25" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="H25" t="n">
         <v>100</v>
       </c>
-      <c r="H25" t="n">
-        <v>369.93</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>727.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4.47</v>
+        <v>1.61</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1626,84 +1747,94 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13.10.2025 01:31</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8.195600000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21.09.2025 02:39</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>7.3123</v>
       </c>
       <c r="H26" t="n">
-        <v>819.5599999999999</v>
+        <v>127.86</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>934.95</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27.07.2025 22:52</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5.7666</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30.07.2025 11:07</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>28.76</v>
+        <v>6.7414</v>
       </c>
       <c r="H27" t="n">
-        <v>165.85</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5237</v>
+        <v>674.14</v>
       </c>
       <c r="J27" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1713,41 +1844,46 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14.10.2025 06:17</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.8821</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>27.08.2025 00:53</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>161.33</v>
+        <v>5.7347</v>
       </c>
       <c r="H28" t="n">
-        <v>303.64</v>
+        <v>148.34</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>850.6900000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>1.882</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-2.01</v>
+      </c>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1762,29 +1898,34 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>04.09.2025 02:25</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.4475</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>24.09.2025 11:14</t>
+        </is>
       </c>
       <c r="G29" t="n">
+        <v>2.8151</v>
+      </c>
+      <c r="H29" t="n">
         <v>100</v>
       </c>
-      <c r="H29" t="n">
-        <v>244.75</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>281.51</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>9.93</v>
+        <v>1.84</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1810,40 +1951,45 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>06.07.2025 01:17</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5.7532</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>27.10.2025 18:01</t>
+        </is>
       </c>
       <c r="G30" t="n">
+        <v>9.7371</v>
+      </c>
+      <c r="H30" t="n">
         <v>100</v>
       </c>
-      <c r="H30" t="n">
-        <v>575.3200000000001</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>973.71</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.37</v>
+        <v>1.23</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1853,90 +1999,104 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18.09.2025 23:22</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9.1152</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>07.09.2025 03:30</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>131.81</v>
+        <v>0.8918</v>
       </c>
       <c r="H31" t="n">
-        <v>1201.47</v>
+        <v>191.34</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>170.64</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>2.368</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1.46</v>
+      </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>04.10.2025 07:58</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7.3001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25.09.2025 23:18</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>197.77</v>
+        <v>8.405900000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1443.74</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>1.3039</v>
+        <v>840.59</v>
       </c>
       <c r="J32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1946,41 +2106,50 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23.07.2025 17:44</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9.041</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>26.09.2025 03:42</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>163.55</v>
+        <v>7.3048</v>
       </c>
       <c r="H33" t="n">
-        <v>1478.66</v>
+        <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>730.48</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1990,40 +2159,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08.10.2025 16:58</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5.043</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.07.2025 04:43</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>4.9455</v>
       </c>
       <c r="H34" t="n">
-        <v>504.3</v>
+        <v>153.27</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>758</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2033,46 +2203,51 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11.07.2025 23:34</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0378</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>01.08.2025 18:05</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>36.56</v>
+        <v>2.4995</v>
       </c>
       <c r="H35" t="n">
-        <v>1.38</v>
+        <v>167.57</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>418.84</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>2.9067</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-5.47</v>
+      </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2082,88 +2257,90 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15.09.2025 14:49</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2.7349</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>13.10.2025 10:52</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>5.3635</v>
       </c>
       <c r="H36" t="n">
-        <v>273.49</v>
+        <v>10.39</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>55.73</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22.09.2025 15:11</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9.962999999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>30.08.2025 18:38</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>5.6589</v>
       </c>
       <c r="H37" t="n">
-        <v>996.3</v>
+        <v>177.83</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>1006.32</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.4189</v>
       </c>
       <c r="K37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8.460000000000001</v>
-      </c>
+        <v>-7.64</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2178,40 +2355,45 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>28.08.2025 15:10</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9.094799999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>26.10.2025 10:41</t>
+        </is>
       </c>
       <c r="G38" t="n">
+        <v>4.0512</v>
+      </c>
+      <c r="H38" t="n">
         <v>100</v>
       </c>
-      <c r="H38" t="n">
-        <v>909.48</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>405.12</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>9.19</v>
+        <v>1.32</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2221,46 +2403,51 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11.08.2025 18:53</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.5794</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>13.08.2025 11:33</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>181.7</v>
+        <v>7.5398</v>
       </c>
       <c r="H39" t="n">
-        <v>650.38</v>
+        <v>135.08</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>1018.48</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>2.3482</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-5.5</v>
+      </c>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2270,74 +2457,84 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>07.08.2025 14:36</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1.2085</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14.07.2025 09:44</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>6.3105</v>
       </c>
       <c r="H40" t="n">
-        <v>120.85</v>
+        <v>27.54</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>173.79</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22.08.2025 04:44</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5.1015</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25.07.2025 04:42</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>178.17</v>
+        <v>9.0846</v>
       </c>
       <c r="H41" t="n">
-        <v>908.9299999999999</v>
+        <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>1.2334</v>
+        <v>908.46</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2362,85 +2559,99 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28.07.2025 08:37</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9.480700000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>11.10.2025 09:58</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>62.6</v>
+        <v>0.5379</v>
       </c>
       <c r="H42" t="n">
-        <v>593.49</v>
+        <v>114.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2.266</v>
+        <v>61.79</v>
       </c>
       <c r="J42" t="n">
-        <v>-4.84</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>2.8167</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-7.86</v>
+      </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31.07.2025 21:21</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9.8407</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>30.08.2025 19:44</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>62.77</v>
+        <v>0.4098</v>
       </c>
       <c r="H43" t="n">
-        <v>617.7</v>
+        <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>1.1919</v>
+        <v>40.98</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.73</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.83</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2450,41 +2661,46 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>01.10.2025 19:17</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1.4281</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>19.09.2025 08:44</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>42.75</v>
+        <v>1.0401</v>
       </c>
       <c r="H44" t="n">
-        <v>61.05</v>
+        <v>125.75</v>
       </c>
       <c r="I44" t="n">
-        <v>1.6984</v>
+        <v>130.79</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.67</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>2.0829</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-4.21</v>
+      </c>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2494,84 +2710,90 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17.08.2025 01:31</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6.2567</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>08.08.2025 17:48</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>102.58</v>
+        <v>1.2405</v>
       </c>
       <c r="H45" t="n">
-        <v>641.8099999999999</v>
+        <v>86.44</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>107.23</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24.08.2025 00:57</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4.686</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>13.10.2025 08:26</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>5.3774</v>
       </c>
       <c r="H46" t="n">
-        <v>468.6</v>
+        <v>111.4</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>599.04</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.217</v>
       </c>
       <c r="K46" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.76</v>
-      </c>
+        <v>-4.45</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2581,46 +2803,51 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17.10.2025 09:00</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>5.1402</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>24.07.2025 15:21</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>77.7</v>
+        <v>0.9698</v>
       </c>
       <c r="H47" t="n">
-        <v>399.39</v>
+        <v>99.22</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0229</v>
+        <v>96.22</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2630,36 +2857,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>27.10.2025 21:10</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5.8851</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>12.08.2025 01:04</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>158.17</v>
+        <v>3.0609</v>
       </c>
       <c r="H48" t="n">
-        <v>930.85</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>255.89</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2674,40 +2906,45 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18.07.2025 22:44</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>8.761799999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>04.08.2025 18:40</t>
+        </is>
       </c>
       <c r="G49" t="n">
+        <v>1.2333</v>
+      </c>
+      <c r="H49" t="n">
         <v>100</v>
       </c>
-      <c r="H49" t="n">
-        <v>876.1799999999999</v>
-      </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>123.33</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>7.15</v>
+        <v>1.59</v>
+      </c>
+      <c r="M49" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2717,41 +2954,46 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.09.2025 01:46</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>6.8892</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>26.08.2025 01:49</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>56.57</v>
+        <v>6.4572</v>
       </c>
       <c r="H50" t="n">
-        <v>389.72</v>
+        <v>48.97</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>316.21</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>3.363</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.78</v>
+      </c>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2766,45 +3008,50 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17.07.2025 01:09</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2.1267</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>15.08.2025 03:05</t>
+        </is>
       </c>
       <c r="G51" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="H51" t="n">
         <v>100</v>
       </c>
-      <c r="H51" t="n">
-        <v>212.67</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>348.7</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>6.98</v>
+        <v>1.87</v>
+      </c>
+      <c r="M51" t="n">
+        <v>7.41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2814,36 +3061,45 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>06.08.2025 03:20</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.7254</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>30.09.2025 22:34</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>16.36</v>
+        <v>6.1641</v>
       </c>
       <c r="H52" t="n">
-        <v>11.87</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>616.41</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2858,35 +3114,40 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31.07.2025 17:59</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>9.547700000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>03.09.2025 11:52</t>
+        </is>
       </c>
       <c r="G53" t="n">
+        <v>3.0563</v>
+      </c>
+      <c r="H53" t="n">
         <v>100</v>
       </c>
-      <c r="H53" t="n">
-        <v>954.77</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>305.63</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1.3</v>
+        <v>3.94</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2906,84 +3167,98 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>20.09.2025 13:16</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>5.1901</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>22.10.2025 10:46</t>
+        </is>
       </c>
       <c r="G54" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="H54" t="n">
         <v>100</v>
       </c>
-      <c r="H54" t="n">
-        <v>519.01</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>568.5</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>2.03</v>
+        <v>1.03</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28.08.2025 21:29</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>7.8945</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>27.10.2025 15:02</t>
+        </is>
       </c>
       <c r="G55" t="n">
-        <v>98.37</v>
+        <v>8.843299999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>776.58</v>
+        <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2296</v>
+        <v>884.33</v>
       </c>
       <c r="J55" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2998,29 +3273,34 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>23.09.2025 03:45</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>6.2995</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>13.07.2025 15:23</t>
+        </is>
       </c>
       <c r="G56" t="n">
+        <v>7.9195</v>
+      </c>
+      <c r="H56" t="n">
         <v>100</v>
       </c>
-      <c r="H56" t="n">
-        <v>629.95</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>791.95</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>9.52</v>
+        <v>1.87</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8.75</v>
       </c>
     </row>
     <row r="57">
@@ -3046,78 +3326,84 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>02.09.2025 07:43</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1.4154</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>02.07.2025 03:23</t>
+        </is>
       </c>
       <c r="G57" t="n">
+        <v>5.0316</v>
+      </c>
+      <c r="H57" t="n">
         <v>100</v>
       </c>
-      <c r="H57" t="n">
-        <v>141.54</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>503.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>7.2</v>
+        <v>1.17</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15.08.2025 14:53</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>3.6742</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>05.07.2025 20:22</t>
+        </is>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>5.4374</v>
       </c>
       <c r="H58" t="n">
-        <v>367.42</v>
+        <v>151.99</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>826.4299999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3.4228</v>
       </c>
       <c r="K58" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.55</v>
-      </c>
+        <v>-7.52</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3142,129 +3428,152 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17.10.2025 17:42</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1.2823</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>04.10.2025 17:51</t>
+        </is>
       </c>
       <c r="G59" t="n">
-        <v>69.67</v>
+        <v>6.7879</v>
       </c>
       <c r="H59" t="n">
-        <v>89.34</v>
+        <v>150.77</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>1023.41</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>24.09.2025 05:05</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4.2337</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25.07.2025 09:14</t>
+        </is>
       </c>
       <c r="G60" t="n">
-        <v>17.31</v>
+        <v>4.5721</v>
       </c>
       <c r="H60" t="n">
-        <v>73.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>1.2688</v>
+        <v>457.21</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>23.10.2025 12:54</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>6.75</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>08.10.2025 05:33</t>
+        </is>
       </c>
       <c r="G61" t="n">
-        <v>126.98</v>
+        <v>0.2204</v>
       </c>
       <c r="H61" t="n">
-        <v>857.12</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>2.3774</v>
+        <v>22.04</v>
       </c>
       <c r="J61" t="n">
-        <v>-3.69</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.859999999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3274,41 +3583,50 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>28.07.2025 23:48</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>5.9142</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>15.08.2025 14:06</t>
+        </is>
       </c>
       <c r="G62" t="n">
-        <v>72.43000000000001</v>
+        <v>5.8586</v>
       </c>
       <c r="H62" t="n">
-        <v>428.37</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>585.86</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.85</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3318,74 +3636,84 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>29.09.2025 20:00</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>2.256</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>27.07.2025 22:25</t>
+        </is>
       </c>
       <c r="G63" t="n">
-        <v>134.93</v>
+        <v>8.4536</v>
       </c>
       <c r="H63" t="n">
-        <v>304.4</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>845.36</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13.10.2025 06:25</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>8.5047</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>15.09.2025 09:49</t>
+        </is>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>1.1319</v>
       </c>
       <c r="H64" t="n">
-        <v>850.47</v>
+        <v>66.05</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>2.7311</v>
       </c>
       <c r="K64" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.96</v>
-      </c>
+        <v>-2.26</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3410,41 +3738,46 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11.07.2025 08:19</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>8.899699999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>27.09.2025 20:18</t>
+        </is>
       </c>
       <c r="G65" t="n">
-        <v>23.33</v>
+        <v>4.7162</v>
       </c>
       <c r="H65" t="n">
-        <v>207.63</v>
+        <v>95.34</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>449.64</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3454,225 +3787,246 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18.10.2025 05:04</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>4.8031</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>03.10.2025 01:06</t>
+        </is>
       </c>
       <c r="G66" t="n">
-        <v>142.39</v>
+        <v>9.5886</v>
       </c>
       <c r="H66" t="n">
-        <v>683.91</v>
+        <v>151.69</v>
       </c>
       <c r="I66" t="n">
-        <v>1.804</v>
+        <v>1454.49</v>
       </c>
       <c r="J66" t="n">
-        <v>-2.77</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>3.4715</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-9.57</v>
+      </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17.08.2025 15:00</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>5.8268</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>26.07.2025 09:55</t>
+        </is>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>9.5846</v>
       </c>
       <c r="H67" t="n">
-        <v>582.6799999999999</v>
+        <v>164.23</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>1574.08</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1.1112</v>
       </c>
       <c r="K67" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9.390000000000001</v>
-      </c>
+        <v>-1.58</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>12.09.2025 06:13</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1.5074</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25.10.2025 15:00</t>
+        </is>
       </c>
       <c r="G68" t="n">
-        <v>169.68</v>
+        <v>2.4898</v>
       </c>
       <c r="H68" t="n">
-        <v>255.78</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
-        <v>3.9674</v>
+        <v>248.98</v>
       </c>
       <c r="J68" t="n">
-        <v>-3.55</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9.220000000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>17.09.2025 22:49</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1.3289</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>24.07.2025 16:27</t>
+        </is>
       </c>
       <c r="G69" t="n">
-        <v>121</v>
+        <v>9.1897</v>
       </c>
       <c r="H69" t="n">
-        <v>160.8</v>
+        <v>73.34</v>
       </c>
       <c r="I69" t="n">
-        <v>2.4681</v>
+        <v>673.97</v>
       </c>
       <c r="J69" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09.09.2025 16:35</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>1.7687</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>22.08.2025 20:42</t>
+        </is>
       </c>
       <c r="G70" t="n">
-        <v>100</v>
+        <v>2.0478</v>
       </c>
       <c r="H70" t="n">
-        <v>176.87</v>
+        <v>104.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>214.1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>3.3916</v>
       </c>
       <c r="K70" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.35</v>
-      </c>
+        <v>-1.14</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3682,233 +4036,242 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>30.07.2025 15:15</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>3.7707</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>25.07.2025 17:45</t>
+        </is>
       </c>
       <c r="G71" t="n">
-        <v>147.04</v>
+        <v>7.7747</v>
       </c>
       <c r="H71" t="n">
-        <v>554.4400000000001</v>
+        <v>188.65</v>
       </c>
       <c r="I71" t="n">
-        <v>2.1707</v>
+        <v>1466.7</v>
       </c>
       <c r="J71" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>2.3097</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>27.07.2025 23:13</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>4.4612</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>07.07.2025 01:37</t>
+        </is>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>7.9032</v>
       </c>
       <c r="H72" t="n">
-        <v>446.12</v>
+        <v>33.57</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>265.31</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1.0622</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.48</v>
-      </c>
+        <v>-6.84</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13.10.2025 14:27</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>1.9481</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>04.10.2025 06:23</t>
+        </is>
       </c>
       <c r="G73" t="n">
-        <v>100</v>
+        <v>9.1311</v>
       </c>
       <c r="H73" t="n">
-        <v>194.81</v>
+        <v>177.58</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>1621.5</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>2.2863</v>
       </c>
       <c r="K73" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.75</v>
-      </c>
+        <v>-4.13</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>21.07.2025 19:04</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>3.7347</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>27.09.2025 10:29</t>
+        </is>
       </c>
       <c r="G74" t="n">
-        <v>100</v>
+        <v>9.938499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>373.47</v>
+        <v>181.69</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>1805.73</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2.8134</v>
       </c>
       <c r="K74" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.2</v>
-      </c>
+        <v>-6.27</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08.10.2025 17:52</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1.0401</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>11.08.2025 21:45</t>
+        </is>
       </c>
       <c r="G75" t="n">
-        <v>100</v>
+        <v>6.2397</v>
       </c>
       <c r="H75" t="n">
-        <v>104.01</v>
+        <v>160.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>1001.47</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2.1018</v>
       </c>
       <c r="K75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L75" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3918,41 +4281,50 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>22.10.2025 15:25</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>9.292400000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>18.07.2025 13:24</t>
+        </is>
       </c>
       <c r="G76" t="n">
-        <v>177.05</v>
+        <v>0.8514</v>
       </c>
       <c r="H76" t="n">
-        <v>1645.22</v>
+        <v>100</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>85.14</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3962,89 +4334,99 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>07.07.2025 06:41</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>5.9497</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>02.07.2025 13:54</t>
+        </is>
       </c>
       <c r="G77" t="n">
-        <v>152.7</v>
+        <v>8.9192</v>
       </c>
       <c r="H77" t="n">
-        <v>908.52</v>
+        <v>100</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>891.92</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5.74</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>30.09.2025 12:11</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>5.9886</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>22.09.2025 06:31</t>
+        </is>
       </c>
       <c r="G78" t="n">
-        <v>100</v>
+        <v>7.9381</v>
       </c>
       <c r="H78" t="n">
-        <v>598.86</v>
+        <v>56.3</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>446.92</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1.2875</v>
       </c>
       <c r="K78" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.01</v>
-      </c>
+        <v>-0.36</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4054,45 +4436,46 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>07.07.2025 08:14</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>3.9175</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>03.10.2025 01:33</t>
+        </is>
       </c>
       <c r="G79" t="n">
-        <v>100</v>
+        <v>9.710699999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>391.75</v>
+        <v>174.71</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>1696.56</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L79" t="n">
-        <v>6.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4102,93 +4485,95 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>06.09.2025 04:20</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>7.6072</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>04.09.2025 23:06</t>
+        </is>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>1.2803</v>
       </c>
       <c r="H80" t="n">
-        <v>760.72</v>
+        <v>14.57</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>18.65</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
-      </c>
-      <c r="L80" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>US0378331005</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>16.08.2025 06:02</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1.5994</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>28.09.2025 09:19</t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>100</v>
+        <v>0.4842</v>
       </c>
       <c r="H81" t="n">
-        <v>159.94</v>
+        <v>107.52</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>52.06</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>3.6333</v>
       </c>
       <c r="K81" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9.58</v>
-      </c>
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EDO0935</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4198,118 +4583,137 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13.08.2025 21:23</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>3.4961</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>26.08.2025 13:10</t>
+        </is>
       </c>
       <c r="G82" t="n">
-        <v>100</v>
+        <v>9.248699999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>349.61</v>
+        <v>184.56</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>1706.94</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>21.10.2025 21:09</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>7.0187</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>02.07.2025 01:14</t>
+        </is>
       </c>
       <c r="G83" t="n">
-        <v>42.24</v>
+        <v>6.8468</v>
       </c>
       <c r="H83" t="n">
-        <v>296.47</v>
+        <v>100</v>
       </c>
       <c r="I83" t="n">
-        <v>3.2138</v>
+        <v>684.6799999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>-5.21</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>15.09.2025 08:19</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2.1941</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>08.07.2025 06:28</t>
+        </is>
       </c>
       <c r="G84" t="n">
-        <v>127.25</v>
+        <v>6.628</v>
       </c>
       <c r="H84" t="n">
-        <v>279.2</v>
+        <v>100</v>
       </c>
       <c r="I84" t="n">
-        <v>3.574</v>
+        <v>662.8</v>
       </c>
       <c r="J84" t="n">
-        <v>-9.52</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4.14</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4334,217 +4738,250 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>02.07.2025 07:46</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0.8578</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>25.08.2025 12:56</t>
+        </is>
       </c>
       <c r="G85" t="n">
-        <v>40.08</v>
+        <v>7.0218</v>
       </c>
       <c r="H85" t="n">
-        <v>34.38</v>
+        <v>106.23</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>745.9299999999999</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>06.10.2025 08:54</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>9.651199999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>02.09.2025 18:13</t>
+        </is>
       </c>
       <c r="G86" t="n">
-        <v>136.61</v>
+        <v>8.5389</v>
       </c>
       <c r="H86" t="n">
-        <v>1318.45</v>
+        <v>100</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8625</v>
+        <v>853.89</v>
       </c>
       <c r="J86" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14.10.2025 18:27</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>5.4615</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>14.10.2025 17:46</t>
+        </is>
       </c>
       <c r="G87" t="n">
-        <v>69.28</v>
+        <v>6.9927</v>
       </c>
       <c r="H87" t="n">
-        <v>378.37</v>
+        <v>96.22</v>
       </c>
       <c r="I87" t="n">
-        <v>2.3898</v>
+        <v>672.84</v>
       </c>
       <c r="J87" t="n">
-        <v>-5.67</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>09.08.2025 10:54</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1.3806</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>21.10.2025 08:55</t>
+        </is>
       </c>
       <c r="G88" t="n">
-        <v>64.76000000000001</v>
+        <v>8.625500000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>89.41</v>
+        <v>26.71</v>
       </c>
       <c r="I88" t="n">
-        <v>2.8509</v>
+        <v>230.39</v>
       </c>
       <c r="J88" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>COI0829</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>4-year COI bonds</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>05.09.2025 13:16</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>6.9464</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>03.09.2025 19:04</t>
+        </is>
       </c>
       <c r="G89" t="n">
-        <v>149.53</v>
+        <v>4.6478</v>
       </c>
       <c r="H89" t="n">
-        <v>1038.7</v>
+        <v>100</v>
       </c>
       <c r="I89" t="n">
-        <v>2.1128</v>
+        <v>464.78</v>
       </c>
       <c r="J89" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M89" t="n">
+        <v>8.23</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4554,41 +4991,46 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>26.09.2025 02:26</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>0.4527</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>23.09.2025 13:01</t>
+        </is>
       </c>
       <c r="G90" t="n">
-        <v>107.49</v>
+        <v>0.8017</v>
       </c>
       <c r="H90" t="n">
-        <v>48.66</v>
+        <v>91.89</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>73.67</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4598,78 +5040,80 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>02.07.2025 17:45</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>7.311</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>23.08.2025 13:42</t>
+        </is>
       </c>
       <c r="G91" t="n">
-        <v>100</v>
+        <v>2.1427</v>
       </c>
       <c r="H91" t="n">
-        <v>731.1</v>
+        <v>132.57</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>284.06</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EDO1035</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10-year EDO bonds</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>05.08.2025 09:26</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>2.5041</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>07.09.2025 05:33</t>
+        </is>
       </c>
       <c r="G92" t="n">
-        <v>100</v>
+        <v>4.4444</v>
       </c>
       <c r="H92" t="n">
-        <v>250.41</v>
+        <v>195.57</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>869.1900000000001</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>3.9822</v>
       </c>
       <c r="K92" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.57</v>
-      </c>
+        <v>-2.14</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4694,41 +5138,46 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>19.09.2025 07:11</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>3.8226</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>07.09.2025 11:48</t>
+        </is>
       </c>
       <c r="G93" t="n">
-        <v>113.99</v>
+        <v>1.597</v>
       </c>
       <c r="H93" t="n">
-        <v>435.74</v>
+        <v>182.19</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>290.96</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4738,45 +5187,46 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>04.09.2025 12:31</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>7.7126</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>01.08.2025 14:57</t>
+        </is>
       </c>
       <c r="G94" t="n">
-        <v>100</v>
+        <v>6.8841</v>
       </c>
       <c r="H94" t="n">
-        <v>771.26</v>
+        <v>84.53</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>581.91</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>COI0829</t>
+          <t>PLBETF400025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4-year COI bonds</t>
+          <t>mWIG40TR Beta ETF</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4786,45 +5236,46 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>24.09.2025 03:57</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>3.4813</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>18.07.2025 01:51</t>
+        </is>
       </c>
       <c r="G95" t="n">
-        <v>100</v>
+        <v>5.3646</v>
       </c>
       <c r="H95" t="n">
-        <v>348.13</v>
+        <v>130.43</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>699.7</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4834,168 +5285,196 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>01.07.2025 12:06</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>3.1855</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>18.10.2025 23:57</t>
+        </is>
       </c>
       <c r="G96" t="n">
-        <v>192.78</v>
+        <v>4.2711</v>
       </c>
       <c r="H96" t="n">
-        <v>614.1</v>
+        <v>194.53</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>830.86</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>EDO1035</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>18.10.2025 14:56</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>2.278</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>06.09.2025 21:35</t>
+        </is>
       </c>
       <c r="G97" t="n">
-        <v>188.59</v>
+        <v>2.1011</v>
       </c>
       <c r="H97" t="n">
-        <v>429.61</v>
+        <v>100</v>
       </c>
       <c r="I97" t="n">
-        <v>3.5215</v>
+        <v>210.11</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4.64</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IE00B6R52259</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>iShares MSCI ACWI UCITS ETF</t>
+          <t>Cannabis Poland</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>EQUITIES</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>02.07.2025 11:50</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>5.3788</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>11.10.2025 17:34</t>
+        </is>
       </c>
       <c r="G98" t="n">
-        <v>168.72</v>
+        <v>3.2944</v>
       </c>
       <c r="H98" t="n">
-        <v>907.51</v>
+        <v>47.25</v>
       </c>
       <c r="I98" t="n">
-        <v>1.3645</v>
+        <v>155.66</v>
       </c>
       <c r="J98" t="n">
-        <v>-3.01</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>US0378331005</t>
+          <t>EDO0935</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>10-year EDO bonds</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>21.09.2025 01:40</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0.1725</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>25.10.2025 03:35</t>
+        </is>
       </c>
       <c r="G99" t="n">
-        <v>76.70999999999999</v>
+        <v>7.9842</v>
       </c>
       <c r="H99" t="n">
-        <v>13.23</v>
+        <v>100</v>
       </c>
       <c r="I99" t="n">
-        <v>3.6333</v>
+        <v>798.42</v>
       </c>
       <c r="J99" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PLBETF400025</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mWIG40TR Beta ETF</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5005,75 +5484,85 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>28.10.2025 14:38</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>8.808999999999999</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>08.09.2025 07:54</t>
+        </is>
       </c>
       <c r="G100" t="n">
-        <v>25.68</v>
+        <v>0.8904</v>
       </c>
       <c r="H100" t="n">
-        <v>226.22</v>
+        <v>154.24</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>137.34</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>2.3645</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.36</v>
+      </c>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>IE00B6R52259</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cannabis Poland</t>
+          <t>iShares MSCI ACWI UCITS ETF</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EQUITIES</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11.10.2025 20:11</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>8.680300000000001</v>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>30.07.2025 20:54</t>
+        </is>
       </c>
       <c r="G101" t="n">
-        <v>168.69</v>
+        <v>7.993</v>
       </c>
       <c r="H101" t="n">
-        <v>1464.28</v>
+        <v>196.56</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>1571.1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>2.4007</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-9.970000000000001</v>
+      </c>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
